--- a/src/attributions/attributions_saliency_traj_319.xlsx
+++ b/src/attributions/attributions_saliency_traj_319.xlsx
@@ -1573,571 +1573,571 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.004757300019264221</v>
+        <v>0.1606286019086838</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4016723930835724</v>
+        <v>0.6938199996948242</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6008852124214172</v>
+        <v>0.07222764939069748</v>
       </c>
       <c r="D3" t="n">
-        <v>0.134657621383667</v>
+        <v>0.287342756986618</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0820307731628418</v>
+        <v>0.2283751666545868</v>
       </c>
       <c r="F3" t="n">
-        <v>0.005676327273249626</v>
+        <v>0.1078704744577408</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04577518999576569</v>
+        <v>0.2730573415756226</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1208001896739006</v>
+        <v>0.0518977977335453</v>
       </c>
       <c r="I3" t="n">
-        <v>0.280487596988678</v>
+        <v>0.1407979130744934</v>
       </c>
       <c r="J3" t="n">
-        <v>0.05193348973989487</v>
+        <v>0.003282390534877777</v>
       </c>
       <c r="K3" t="n">
-        <v>0.004462786018848419</v>
+        <v>0.6875560879707336</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6413298845291138</v>
+        <v>0.06898575276136398</v>
       </c>
       <c r="M3" t="n">
-        <v>0.08276090025901794</v>
+        <v>0.3861314654350281</v>
       </c>
       <c r="N3" t="n">
-        <v>0.00507879676297307</v>
+        <v>0.1759847104549408</v>
       </c>
       <c r="O3" t="n">
-        <v>0.05615776404738426</v>
+        <v>0.1747831106185913</v>
       </c>
       <c r="P3" t="n">
-        <v>0.08200966566801071</v>
+        <v>0.1941075623035431</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.09420715272426605</v>
+        <v>0.06790187954902649</v>
       </c>
       <c r="R3" t="n">
-        <v>0.3334421217441559</v>
+        <v>0.1505609154701233</v>
       </c>
       <c r="S3" t="n">
-        <v>0.08555501699447632</v>
+        <v>0.1062624305486679</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1224891468882561</v>
+        <v>0.1712701171636581</v>
       </c>
       <c r="U3" t="n">
-        <v>0.00249891122803092</v>
+        <v>0.06553640961647034</v>
       </c>
       <c r="V3" t="n">
-        <v>0.09557865560054779</v>
+        <v>0.04149370640516281</v>
       </c>
       <c r="W3" t="n">
-        <v>0.04583490267395973</v>
+        <v>0.1680967956781387</v>
       </c>
       <c r="X3" t="n">
-        <v>0.05765801668167114</v>
+        <v>0.006970373447984457</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1418952643871307</v>
+        <v>0.00730479508638382</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.06606968492269516</v>
+        <v>0.1500530540943146</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.02687922865152359</v>
+        <v>0.07617392390966415</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.08344569802284241</v>
+        <v>0.04586213454604149</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.103310838341713</v>
+        <v>0.1274548172950745</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.08141098171472549</v>
+        <v>0.0437689945101738</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.1191739737987518</v>
+        <v>0.004465954378247261</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.1174938827753067</v>
+        <v>2.309493720531464e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.09525103867053986</v>
+        <v>0.1150730773806572</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.07825843989849091</v>
+        <v>0.02153815142810345</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.02325339242815971</v>
+        <v>0.005147445946931839</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.2355988323688507</v>
+        <v>0.05836406350135803</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.0423126108944416</v>
+        <v>0.1083048358559608</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.1502441763877869</v>
+        <v>0.1014691591262817</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.149085745215416</v>
+        <v>0.04690612107515335</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.03473706543445587</v>
+        <v>0.02092272415757179</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.04258564859628677</v>
+        <v>0.07379688322544098</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.002462534233927727</v>
+        <v>0.07209407538175583</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.09535061568021774</v>
+        <v>0.006709362845867872</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.06326291710138321</v>
+        <v>0.0439312607049942</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.05433981493115425</v>
+        <v>0.04536258429288864</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.1642670333385468</v>
+        <v>0.1836750358343124</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.1498520076274872</v>
+        <v>0.3713755309581757</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.2629016935825348</v>
+        <v>0.05774229764938354</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.3509510457515717</v>
+        <v>0.05388013273477554</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.1108207777142525</v>
+        <v>0.05833179131150246</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.1122403219342232</v>
+        <v>0.217236265540123</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.2183712869882584</v>
+        <v>0.213162362575531</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.1484422385692596</v>
+        <v>0.08224949240684509</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.07915486395359039</v>
+        <v>0.1733575165271759</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.09358333051204681</v>
+        <v>0.07490241527557373</v>
       </c>
       <c r="BD3" t="n">
-        <v>0.03149691596627235</v>
+        <v>0.05792342126369476</v>
       </c>
       <c r="BE3" t="n">
-        <v>0.1397350430488586</v>
+        <v>0.1408943235874176</v>
       </c>
       <c r="BF3" t="n">
-        <v>0.1160091459751129</v>
+        <v>0.2200398743152618</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.123784638941288</v>
+        <v>0.418897420167923</v>
       </c>
       <c r="BH3" t="n">
-        <v>0.02344897016882896</v>
+        <v>0.01701401360332966</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.2460920959711075</v>
+        <v>0.02819006145000458</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.02179596200585365</v>
+        <v>0.05843498185276985</v>
       </c>
       <c r="BK3" t="n">
-        <v>0.08096285164356232</v>
+        <v>0.03655417263507843</v>
       </c>
       <c r="BL3" t="n">
-        <v>0.08802362531423569</v>
+        <v>0.04240136221051216</v>
       </c>
       <c r="BM3" t="n">
-        <v>0.06021997705101967</v>
+        <v>0.1433822512626648</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.2289219796657562</v>
+        <v>0.03573763370513916</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.1223964765667915</v>
+        <v>0.03293881192803383</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.1019367128610611</v>
+        <v>0.0717218816280365</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0.02978414297103882</v>
+        <v>0.07383237779140472</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.04177449643611908</v>
+        <v>0.1344357430934906</v>
       </c>
       <c r="BS3" t="n">
-        <v>0.1047957390546799</v>
+        <v>0.01355081982910633</v>
       </c>
       <c r="BT3" t="n">
-        <v>0.09688830375671387</v>
+        <v>0.001630197279155254</v>
       </c>
       <c r="BU3" t="n">
-        <v>0.1883845627307892</v>
+        <v>0.06017193198204041</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.09649281948804855</v>
+        <v>0.1910675913095474</v>
       </c>
       <c r="BW3" t="n">
-        <v>0.1766514778137207</v>
+        <v>0.09069357067346573</v>
       </c>
       <c r="BX3" t="n">
-        <v>0.1781500726938248</v>
+        <v>0.01359742879867554</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.02675047516822815</v>
+        <v>0.1719447076320648</v>
       </c>
       <c r="BZ3" t="n">
-        <v>0.1136478781700134</v>
+        <v>0.1637243926525116</v>
       </c>
       <c r="CA3" t="n">
-        <v>0.1530525982379913</v>
+        <v>0.1116794496774673</v>
       </c>
       <c r="CB3" t="n">
-        <v>0.01844129152595997</v>
+        <v>0.03898602724075317</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.1006295531988144</v>
+        <v>0.1107047274708748</v>
       </c>
       <c r="CD3" t="n">
-        <v>0.0305860098451376</v>
+        <v>0.03352706879377365</v>
       </c>
       <c r="CE3" t="n">
-        <v>0.08686568588018417</v>
+        <v>0.1590429991483688</v>
       </c>
       <c r="CF3" t="n">
-        <v>0.1032847091555595</v>
+        <v>0.08521562069654465</v>
       </c>
       <c r="CG3" t="n">
-        <v>0.04581048339605331</v>
+        <v>0.01021840795874596</v>
       </c>
       <c r="CH3" t="n">
-        <v>0.008334873244166374</v>
+        <v>0.01227798033505678</v>
       </c>
       <c r="CI3" t="n">
-        <v>0.01899860426783562</v>
+        <v>0.05222462117671967</v>
       </c>
       <c r="CJ3" t="n">
-        <v>0.05239087343215942</v>
+        <v>0.07224896550178528</v>
       </c>
       <c r="CK3" t="n">
-        <v>0.08595228940248489</v>
+        <v>0.02150659635663033</v>
       </c>
       <c r="CL3" t="n">
-        <v>0.02343511767685413</v>
+        <v>0.03059499524533749</v>
       </c>
       <c r="CM3" t="n">
-        <v>0.1550460308790207</v>
+        <v>0.138804629445076</v>
       </c>
       <c r="CN3" t="n">
-        <v>0.1235722973942757</v>
+        <v>0.001369731035083532</v>
       </c>
       <c r="CO3" t="n">
-        <v>0.1279061883687973</v>
+        <v>0.01669886708259583</v>
       </c>
       <c r="CP3" t="n">
-        <v>0.187286913394928</v>
+        <v>0.1908066421747208</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.1256971955299377</v>
+        <v>0.08058178424835205</v>
       </c>
       <c r="CR3" t="n">
-        <v>0.0577351301908493</v>
+        <v>0.04780180752277374</v>
       </c>
       <c r="CS3" t="n">
-        <v>0.1288155317306519</v>
+        <v>0.04437122121453285</v>
       </c>
       <c r="CT3" t="n">
-        <v>0.05601302534341812</v>
+        <v>0.07581364363431931</v>
       </c>
       <c r="CU3" t="n">
-        <v>0.2558936178684235</v>
+        <v>0.02485701628029346</v>
       </c>
       <c r="CV3" t="n">
-        <v>0.03920015692710876</v>
+        <v>0.02482687868177891</v>
       </c>
       <c r="CW3" t="n">
-        <v>0.04813293740153313</v>
+        <v>0.1718378514051437</v>
       </c>
       <c r="CX3" t="n">
-        <v>0.10459054261446</v>
+        <v>0.09196379035711288</v>
       </c>
       <c r="CY3" t="n">
-        <v>0.04853798449039459</v>
+        <v>0.05544444918632507</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.01522243395447731</v>
+        <v>0.01119169406592846</v>
       </c>
       <c r="DA3" t="n">
-        <v>0.007829785346984863</v>
+        <v>0.0613076239824295</v>
       </c>
       <c r="DB3" t="n">
-        <v>0.03217723965644836</v>
+        <v>0.0875638946890831</v>
       </c>
       <c r="DC3" t="n">
-        <v>0.09182042628526688</v>
+        <v>0.03650360554456711</v>
       </c>
       <c r="DD3" t="n">
-        <v>0.01610139198601246</v>
+        <v>0.008046960458159447</v>
       </c>
       <c r="DE3" t="n">
-        <v>0.1116345375776291</v>
+        <v>0.1854655295610428</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.1448914557695389</v>
+        <v>0.03327707201242447</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.07681845128536224</v>
+        <v>0.1119286492466927</v>
       </c>
       <c r="DH3" t="n">
-        <v>0.09940074384212494</v>
+        <v>0.07723401486873627</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.02787910401821136</v>
+        <v>0.07978211343288422</v>
       </c>
       <c r="DJ3" t="n">
-        <v>0.05709272623062134</v>
+        <v>0.00722910463809967</v>
       </c>
       <c r="DK3" t="n">
-        <v>0.1955407708883286</v>
+        <v>0.04199895262718201</v>
       </c>
       <c r="DL3" t="n">
-        <v>0.01726778596639633</v>
+        <v>0.05926354601979256</v>
       </c>
       <c r="DM3" t="n">
-        <v>0.02005094289779663</v>
+        <v>0.03513465821743011</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.06525691598653793</v>
+        <v>0.109746590256691</v>
       </c>
       <c r="DO3" t="n">
-        <v>0.1817102134227753</v>
+        <v>0.06694334000349045</v>
       </c>
       <c r="DP3" t="n">
-        <v>0.03088416159152985</v>
+        <v>0.05681882426142693</v>
       </c>
       <c r="DQ3" t="n">
-        <v>0.1705562472343445</v>
+        <v>0.08748696744441986</v>
       </c>
       <c r="DR3" t="n">
-        <v>0.03567861393094063</v>
+        <v>0.0384877510368824</v>
       </c>
       <c r="DS3" t="n">
-        <v>0.009159773588180542</v>
+        <v>0.01528134290128946</v>
       </c>
       <c r="DT3" t="n">
-        <v>0.07247971743345261</v>
+        <v>0.07594403624534607</v>
       </c>
       <c r="DU3" t="n">
-        <v>0.1891608238220215</v>
+        <v>0.0137941911816597</v>
       </c>
       <c r="DV3" t="n">
-        <v>0.03207620233297348</v>
+        <v>0.07198334485292435</v>
       </c>
       <c r="DW3" t="n">
-        <v>0.04196296259760857</v>
+        <v>0.04062489792704582</v>
       </c>
       <c r="DX3" t="n">
-        <v>0.05424829572439194</v>
+        <v>0.1562781482934952</v>
       </c>
       <c r="DY3" t="n">
-        <v>0.1122817918658257</v>
+        <v>0.1630293279886246</v>
       </c>
       <c r="DZ3" t="n">
-        <v>0.02216976881027222</v>
+        <v>0.0715070366859436</v>
       </c>
       <c r="EA3" t="n">
-        <v>0.06865602731704712</v>
+        <v>0.1006272211670876</v>
       </c>
       <c r="EB3" t="n">
-        <v>0.08600276708602905</v>
+        <v>0.04875502362847328</v>
       </c>
       <c r="EC3" t="n">
-        <v>0.001271218061447144</v>
+        <v>0.01882528699934483</v>
       </c>
       <c r="ED3" t="n">
-        <v>0.01068253256380558</v>
+        <v>0.04323166608810425</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.02102011069655418</v>
+        <v>0.07595545053482056</v>
       </c>
       <c r="EF3" t="n">
-        <v>0.03315025940537453</v>
+        <v>0.01078712940216064</v>
       </c>
       <c r="EG3" t="n">
-        <v>0.05802386254072189</v>
+        <v>0.1064713373780251</v>
       </c>
       <c r="EH3" t="n">
-        <v>0.06239160150289536</v>
+        <v>0.06331668049097061</v>
       </c>
       <c r="EI3" t="n">
-        <v>0.02282183058559895</v>
+        <v>0.05159600079059601</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.02789722569286823</v>
+        <v>0.04374856501817703</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.09321819245815277</v>
+        <v>0.07596646994352341</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.03711410611867905</v>
+        <v>0.1037807613611221</v>
       </c>
       <c r="EM3" t="n">
-        <v>0.01369382627308369</v>
+        <v>0.04517116397619247</v>
       </c>
       <c r="EN3" t="n">
-        <v>0.003191283438354731</v>
+        <v>0.01349648460745811</v>
       </c>
       <c r="EO3" t="n">
-        <v>0.08775515854358673</v>
+        <v>0.05310402438044548</v>
       </c>
       <c r="EP3" t="n">
-        <v>0.06756311655044556</v>
+        <v>0.06287923455238342</v>
       </c>
       <c r="EQ3" t="n">
-        <v>0.01863596029579639</v>
+        <v>0.1207446753978729</v>
       </c>
       <c r="ER3" t="n">
-        <v>0.01315698027610779</v>
+        <v>0.05867713317275047</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.0226448904722929</v>
+        <v>0.0171851571649313</v>
       </c>
       <c r="ET3" t="n">
-        <v>0.00156433368101716</v>
+        <v>0.01588659174740314</v>
       </c>
       <c r="EU3" t="n">
-        <v>0.03511973470449448</v>
+        <v>0.05428929999470711</v>
       </c>
       <c r="EV3" t="n">
-        <v>0.08100152760744095</v>
+        <v>0.1047749221324921</v>
       </c>
       <c r="EW3" t="n">
-        <v>0.07875681668519974</v>
+        <v>0.05681165680289268</v>
       </c>
       <c r="EX3" t="n">
-        <v>0.005332959815859795</v>
+        <v>0.04215310141444206</v>
       </c>
       <c r="EY3" t="n">
-        <v>0.01931917294859886</v>
+        <v>0.1541485786437988</v>
       </c>
       <c r="EZ3" t="n">
-        <v>0.1091788560152054</v>
+        <v>0.08125770092010498</v>
       </c>
       <c r="FA3" t="n">
-        <v>0.05629556253552437</v>
+        <v>0.01396344136446714</v>
       </c>
       <c r="FB3" t="n">
-        <v>0.02154780179262161</v>
+        <v>0.0274763572961092</v>
       </c>
       <c r="FC3" t="n">
-        <v>0.01436977926641703</v>
+        <v>0.06845374405384064</v>
       </c>
       <c r="FD3" t="n">
-        <v>0.006726853549480438</v>
+        <v>0.09710867702960968</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.07594471424818039</v>
+        <v>0.0112165305763483</v>
       </c>
       <c r="FF3" t="n">
-        <v>0.007746885530650616</v>
+        <v>0.03218277171254158</v>
       </c>
       <c r="FG3" t="n">
-        <v>0.1062394604086876</v>
+        <v>0.04352403432130814</v>
       </c>
       <c r="FH3" t="n">
-        <v>0.0317680761218071</v>
+        <v>0.03403247892856598</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.0576884001493454</v>
+        <v>0.1579293608665466</v>
       </c>
       <c r="FJ3" t="n">
-        <v>0.03863748162984848</v>
+        <v>0.04969272390007973</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.07168924808502197</v>
+        <v>0.09554170817136765</v>
       </c>
       <c r="FL3" t="n">
-        <v>0.05884911119937897</v>
+        <v>0.04500973969697952</v>
       </c>
       <c r="FM3" t="n">
-        <v>0.02446421235799789</v>
+        <v>0.00309463869780302</v>
       </c>
       <c r="FN3" t="n">
-        <v>0.014240937307477</v>
+        <v>0.04408887028694153</v>
       </c>
       <c r="FO3" t="n">
-        <v>0.03661018237471581</v>
+        <v>0.08869393914937973</v>
       </c>
       <c r="FP3" t="n">
-        <v>0.1779276579618454</v>
+        <v>0.1906469762325287</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0.01584716513752937</v>
+        <v>0.2604555189609528</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.111000195145607</v>
+        <v>0.1107891201972961</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.009579177014529705</v>
+        <v>0.05512213706970215</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.02912332117557526</v>
+        <v>0.01748219132423401</v>
       </c>
       <c r="FU3" t="n">
-        <v>0.04720498621463776</v>
+        <v>0.01049568876624107</v>
       </c>
       <c r="FV3" t="n">
-        <v>0.3520907461643219</v>
+        <v>0.02384681440889835</v>
       </c>
       <c r="FW3" t="n">
-        <v>0.08967655897140503</v>
+        <v>0.04889760911464691</v>
       </c>
       <c r="FX3" t="n">
-        <v>0.09787677973508835</v>
+        <v>0.02370122447609901</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.02055249363183975</v>
+        <v>0.1411280930042267</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0.01209639571607113</v>
+        <v>0.002311610151082277</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.01239054929465055</v>
+        <v>0.0813019797205925</v>
       </c>
       <c r="GB3" t="n">
-        <v>0.1540989875793457</v>
+        <v>0.02398736402392387</v>
       </c>
       <c r="GC3" t="n">
-        <v>0.1610008478164673</v>
+        <v>0.1623586565256119</v>
       </c>
       <c r="GD3" t="n">
-        <v>0.05047592520713806</v>
+        <v>0.05038933828473091</v>
       </c>
       <c r="GE3" t="n">
-        <v>0.004329774528741837</v>
+        <v>0.1752824932336807</v>
       </c>
       <c r="GF3" t="n">
-        <v>0.1658707857131958</v>
+        <v>0.05386041849851608</v>
       </c>
       <c r="GG3" t="n">
-        <v>0.09318661689758301</v>
+        <v>0.03587028011679649</v>
       </c>
     </row>
     <row r="4">
@@ -2711,3985 +2711,3985 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.595963358879089</v>
+        <v>0.3553149104118347</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5464575290679932</v>
+        <v>2.858385324478149</v>
       </c>
       <c r="C5" t="n">
-        <v>1.676308393478394</v>
+        <v>0.2103201448917389</v>
       </c>
       <c r="D5" t="n">
-        <v>1.013728022575378</v>
+        <v>2.158892393112183</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8919448852539062</v>
+        <v>0.8795714378356934</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2578038275241852</v>
+        <v>1.127333521842957</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3068522810935974</v>
+        <v>0.06015628576278687</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5052260756492615</v>
+        <v>0.13018599152565</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4210769236087799</v>
+        <v>1.284874081611633</v>
       </c>
       <c r="J5" t="n">
-        <v>1.394069671630859</v>
+        <v>0.7520114183425903</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3000367879867554</v>
+        <v>2.182872533798218</v>
       </c>
       <c r="L5" t="n">
-        <v>1.721289753913879</v>
+        <v>0.0816292017698288</v>
       </c>
       <c r="M5" t="n">
-        <v>0.7897112369537354</v>
+        <v>2.22637152671814</v>
       </c>
       <c r="N5" t="n">
-        <v>0.01264847442507744</v>
+        <v>0.395275741815567</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2421040534973145</v>
+        <v>0.5136810541152954</v>
       </c>
       <c r="P5" t="n">
-        <v>0.2826356887817383</v>
+        <v>0.3692291975021362</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.9197518229484558</v>
+        <v>0.6759278178215027</v>
       </c>
       <c r="R5" t="n">
-        <v>0.6893754601478577</v>
+        <v>1.065195202827454</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1627249270677567</v>
+        <v>0.2831949293613434</v>
       </c>
       <c r="T5" t="n">
-        <v>0.3069211840629578</v>
+        <v>0.4243837594985962</v>
       </c>
       <c r="U5" t="n">
-        <v>0.05369630455970764</v>
+        <v>0.3088666200637817</v>
       </c>
       <c r="V5" t="n">
-        <v>0.06281925737857819</v>
+        <v>0.1387649476528168</v>
       </c>
       <c r="W5" t="n">
-        <v>0.01140729710459709</v>
+        <v>0.1478410214185715</v>
       </c>
       <c r="X5" t="n">
-        <v>0.1117303818464279</v>
+        <v>0.1731500327587128</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.0205678790807724</v>
+        <v>0.3177500069141388</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.3304995894432068</v>
+        <v>0.2196594327688217</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.1291420012712479</v>
+        <v>0.2204426825046539</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.268222451210022</v>
+        <v>0.2232390940189362</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.3182072639465332</v>
+        <v>0.5226624011993408</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.01000010967254639</v>
+        <v>0.2393239289522171</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.3900479972362518</v>
+        <v>0.06763401627540588</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.5096243619918823</v>
+        <v>0.02735049277544022</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.1495169848203659</v>
+        <v>0.04203444719314575</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.1124972254037857</v>
+        <v>0.06045866757631302</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.3559768199920654</v>
+        <v>0.1220410466194153</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.3652707934379578</v>
+        <v>0.06359772384166718</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.1727217435836792</v>
+        <v>0.3392206728458405</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.2932038605213165</v>
+        <v>0.5424767732620239</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.1845094561576843</v>
+        <v>0.2238019704818726</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.1484965085983276</v>
+        <v>0.04876896366477013</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.1177262365818024</v>
+        <v>0.0232490636408329</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.06822587549686432</v>
+        <v>0.2860974371433258</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.01871580444276333</v>
+        <v>0.2327007800340652</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.3532723784446716</v>
+        <v>0.3328603804111481</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.02917469292879105</v>
+        <v>0.1417703032493591</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.9345942139625549</v>
+        <v>0.1661567538976669</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.2130521982908249</v>
+        <v>1.89475953578949</v>
       </c>
       <c r="AV5" t="n">
-        <v>1.047227382659912</v>
+        <v>0.2278187274932861</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.006689801812171936</v>
+        <v>0.8797698020935059</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.03733785450458527</v>
+        <v>0.4271530508995056</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.5664844512939453</v>
+        <v>0.8243422508239746</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.3207754492759705</v>
+        <v>0.7573975324630737</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.1192112267017365</v>
+        <v>0.5469759106636047</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.06415955722332001</v>
+        <v>0.5313131809234619</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.3131470084190369</v>
+        <v>0.2425217926502228</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.1383379995822906</v>
+        <v>0.1262966692447662</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.3523104786872864</v>
+        <v>0.2818993628025055</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.7126810550689697</v>
+        <v>0.4127268493175507</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.8369455933570862</v>
+        <v>1.038666486740112</v>
       </c>
       <c r="BH5" t="n">
-        <v>0.2804710566997528</v>
+        <v>0.3274601697921753</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.2073611617088318</v>
+        <v>0.5511887669563293</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.2558568120002747</v>
+        <v>0.4386327564716339</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.1784695833921432</v>
+        <v>1.150391340255737</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.2458838671445847</v>
+        <v>0.09094393253326416</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.2948621809482574</v>
+        <v>0.4608298540115356</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.3600593507289886</v>
+        <v>0.1434398293495178</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.1974465996026993</v>
+        <v>0.2521853446960449</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.4589020311832428</v>
+        <v>0.3275383114814758</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0.3151560723781586</v>
+        <v>0.08529654145240784</v>
       </c>
       <c r="BR5" t="n">
-        <v>0.005720049142837524</v>
+        <v>0.5041049718856812</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.3027708530426025</v>
+        <v>0.368433028459549</v>
       </c>
       <c r="BT5" t="n">
-        <v>0.08247129619121552</v>
+        <v>0.02107026986777782</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.6809234619140625</v>
+        <v>0.2801420390605927</v>
       </c>
       <c r="BV5" t="n">
-        <v>0.2269040942192078</v>
+        <v>0.978045642375946</v>
       </c>
       <c r="BW5" t="n">
-        <v>0.4398055970668793</v>
+        <v>0.5858242511749268</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.2619708478450775</v>
+        <v>0.7863037586212158</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.0974147617816925</v>
+        <v>0.09767308086156845</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0.3394118547439575</v>
+        <v>0.3548663854598999</v>
       </c>
       <c r="CA5" t="n">
-        <v>0.04927558451890945</v>
+        <v>0.2363225221633911</v>
       </c>
       <c r="CB5" t="n">
-        <v>0.2129432708024979</v>
+        <v>0.09908829629421234</v>
       </c>
       <c r="CC5" t="n">
-        <v>0.01445183157920837</v>
+        <v>0.1704294681549072</v>
       </c>
       <c r="CD5" t="n">
-        <v>0.3462000489234924</v>
+        <v>0.05222667008638382</v>
       </c>
       <c r="CE5" t="n">
-        <v>0.3750681281089783</v>
+        <v>0.4015092253684998</v>
       </c>
       <c r="CF5" t="n">
-        <v>0.2973262965679169</v>
+        <v>0.2584038376808167</v>
       </c>
       <c r="CG5" t="n">
-        <v>0.1495587229728699</v>
+        <v>0.1990093886852264</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.160590186715126</v>
+        <v>0.08759498596191406</v>
       </c>
       <c r="CI5" t="n">
-        <v>0.07690379023551941</v>
+        <v>0.1388600915670395</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0.0245415885001421</v>
+        <v>0.1392607092857361</v>
       </c>
       <c r="CK5" t="n">
-        <v>0.07908768951892853</v>
+        <v>0.1648204773664474</v>
       </c>
       <c r="CL5" t="n">
-        <v>0.09858012199401855</v>
+        <v>0.1439243257045746</v>
       </c>
       <c r="CM5" t="n">
-        <v>0.2521505951881409</v>
+        <v>0.536513090133667</v>
       </c>
       <c r="CN5" t="n">
-        <v>0.05863836035132408</v>
+        <v>0.3769981265068054</v>
       </c>
       <c r="CO5" t="n">
-        <v>0.141310840845108</v>
+        <v>0.1260693073272705</v>
       </c>
       <c r="CP5" t="n">
-        <v>0.1760864853858948</v>
+        <v>0.2095221430063248</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.5863471031188965</v>
+        <v>0.00699220597743988</v>
       </c>
       <c r="CR5" t="n">
-        <v>0.142126202583313</v>
+        <v>0.6308104395866394</v>
       </c>
       <c r="CS5" t="n">
-        <v>0.3131708800792694</v>
+        <v>0.6033110022544861</v>
       </c>
       <c r="CT5" t="n">
-        <v>0.1936594843864441</v>
+        <v>0.3593356013298035</v>
       </c>
       <c r="CU5" t="n">
-        <v>0.05670635402202606</v>
+        <v>0.1635283380746841</v>
       </c>
       <c r="CV5" t="n">
-        <v>0.2868176400661469</v>
+        <v>0.04662294685840607</v>
       </c>
       <c r="CW5" t="n">
-        <v>0.3629364669322968</v>
+        <v>0.4358567893505096</v>
       </c>
       <c r="CX5" t="n">
-        <v>0.3028254806995392</v>
+        <v>0.2291887998580933</v>
       </c>
       <c r="CY5" t="n">
-        <v>0.01585237681865692</v>
+        <v>0.3021743595600128</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.2559658885002136</v>
+        <v>0.0720246359705925</v>
       </c>
       <c r="DA5" t="n">
-        <v>0.07480579614639282</v>
+        <v>0.1530657410621643</v>
       </c>
       <c r="DB5" t="n">
-        <v>0.06311237066984177</v>
+        <v>0.1848189532756805</v>
       </c>
       <c r="DC5" t="n">
-        <v>0.08277946710586548</v>
+        <v>0.1785477995872498</v>
       </c>
       <c r="DD5" t="n">
-        <v>0.141798198223114</v>
+        <v>0.06678807735443115</v>
       </c>
       <c r="DE5" t="n">
-        <v>0.3341036140918732</v>
+        <v>0.4789478182792664</v>
       </c>
       <c r="DF5" t="n">
-        <v>1.166048407554626</v>
+        <v>0.5539076924324036</v>
       </c>
       <c r="DG5" t="n">
-        <v>0.2595110237598419</v>
+        <v>0.007028877735137939</v>
       </c>
       <c r="DH5" t="n">
-        <v>0.2606411874294281</v>
+        <v>0.01887780427932739</v>
       </c>
       <c r="DI5" t="n">
-        <v>0.03820199519395828</v>
+        <v>0.5369224548339844</v>
       </c>
       <c r="DJ5" t="n">
-        <v>0.05057190358638763</v>
+        <v>0.2159271389245987</v>
       </c>
       <c r="DK5" t="n">
-        <v>0.1951302289962769</v>
+        <v>0.5154972076416016</v>
       </c>
       <c r="DL5" t="n">
-        <v>0.02469789981842041</v>
+        <v>0.4224684238433838</v>
       </c>
       <c r="DM5" t="n">
-        <v>0.1384596824645996</v>
+        <v>0.04179885983467102</v>
       </c>
       <c r="DN5" t="n">
-        <v>0.2720343470573425</v>
+        <v>0.1205146908760071</v>
       </c>
       <c r="DO5" t="n">
-        <v>0.1693219840526581</v>
+        <v>0.006650004535913467</v>
       </c>
       <c r="DP5" t="n">
-        <v>0.1679303646087646</v>
+        <v>0.09676021337509155</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0.004639703780412674</v>
+        <v>0.1994928419589996</v>
       </c>
       <c r="DR5" t="n">
-        <v>0.08316562324762344</v>
+        <v>0.051165372133255</v>
       </c>
       <c r="DS5" t="n">
-        <v>0.3657287061214447</v>
+        <v>0.5452939867973328</v>
       </c>
       <c r="DT5" t="n">
-        <v>0.004884481430053711</v>
+        <v>0.05788353458046913</v>
       </c>
       <c r="DU5" t="n">
-        <v>0.3334362506866455</v>
+        <v>0.08519844710826874</v>
       </c>
       <c r="DV5" t="n">
-        <v>0.04153025150299072</v>
+        <v>0.2545540034770966</v>
       </c>
       <c r="DW5" t="n">
-        <v>0.1547366827726364</v>
+        <v>1.887232065200806e-05</v>
       </c>
       <c r="DX5" t="n">
-        <v>0.04590426385402679</v>
+        <v>0.3025075197219849</v>
       </c>
       <c r="DY5" t="n">
-        <v>0.1684169918298721</v>
+        <v>0.3031393587589264</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0.1206704378128052</v>
+        <v>0.3523921966552734</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.2959601581096649</v>
+        <v>0.3776037395000458</v>
       </c>
       <c r="EB5" t="n">
-        <v>0.0942053347826004</v>
+        <v>0.1770527362823486</v>
       </c>
       <c r="EC5" t="n">
-        <v>0.03072657249867916</v>
+        <v>0.02252480015158653</v>
       </c>
       <c r="ED5" t="n">
-        <v>0.2487713545560837</v>
+        <v>0.06176234781742096</v>
       </c>
       <c r="EE5" t="n">
-        <v>0.05218041688203812</v>
+        <v>0.2588774561882019</v>
       </c>
       <c r="EF5" t="n">
-        <v>0.3970804214477539</v>
+        <v>0.09661012142896652</v>
       </c>
       <c r="EG5" t="n">
-        <v>0.2363036870956421</v>
+        <v>0.364232063293457</v>
       </c>
       <c r="EH5" t="n">
-        <v>0.4759169220924377</v>
+        <v>0.3097751140594482</v>
       </c>
       <c r="EI5" t="n">
-        <v>0.1875826567411423</v>
+        <v>0.04681389406323433</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.1266120374202728</v>
+        <v>0.2004545331001282</v>
       </c>
       <c r="EK5" t="n">
-        <v>0.630452573299408</v>
+        <v>0.3874640762805939</v>
       </c>
       <c r="EL5" t="n">
-        <v>0.0288276094943285</v>
+        <v>0.2521849274635315</v>
       </c>
       <c r="EM5" t="n">
-        <v>0.2261979132890701</v>
+        <v>0.0294300876557827</v>
       </c>
       <c r="EN5" t="n">
-        <v>0.118087112903595</v>
+        <v>0.0277034230530262</v>
       </c>
       <c r="EO5" t="n">
-        <v>0.0215606652200222</v>
+        <v>0.06505055725574493</v>
       </c>
       <c r="EP5" t="n">
-        <v>0.4621769189834595</v>
+        <v>0.4302908480167389</v>
       </c>
       <c r="EQ5" t="n">
-        <v>0.2785306572914124</v>
+        <v>0.3597306907176971</v>
       </c>
       <c r="ER5" t="n">
-        <v>0.05288590490818024</v>
+        <v>0.4828251600265503</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.2867732346057892</v>
+        <v>0.1770029067993164</v>
       </c>
       <c r="ET5" t="n">
-        <v>0.2676695585250854</v>
+        <v>0.8396661877632141</v>
       </c>
       <c r="EU5" t="n">
-        <v>0.04775956273078918</v>
+        <v>0.5465872287750244</v>
       </c>
       <c r="EV5" t="n">
-        <v>0.03817923367023468</v>
+        <v>0.2536597549915314</v>
       </c>
       <c r="EW5" t="n">
-        <v>0.1381765902042389</v>
+        <v>0.1573994159698486</v>
       </c>
       <c r="EX5" t="n">
-        <v>0.322975218296051</v>
+        <v>0.088394895195961</v>
       </c>
       <c r="EY5" t="n">
-        <v>0.2901003062725067</v>
+        <v>0.4752965867519379</v>
       </c>
       <c r="EZ5" t="n">
-        <v>0.3126640617847443</v>
+        <v>0.1245594918727875</v>
       </c>
       <c r="FA5" t="n">
-        <v>0.07195790112018585</v>
+        <v>0.318747490644455</v>
       </c>
       <c r="FB5" t="n">
-        <v>0.225076898932457</v>
+        <v>0.2224450409412384</v>
       </c>
       <c r="FC5" t="n">
-        <v>0.04167886078357697</v>
+        <v>0.2022271454334259</v>
       </c>
       <c r="FD5" t="n">
-        <v>0.04861005023121834</v>
+        <v>0.2528613805770874</v>
       </c>
       <c r="FE5" t="n">
-        <v>0.1749735772609711</v>
+        <v>0.1686806082725525</v>
       </c>
       <c r="FF5" t="n">
-        <v>0.1432909667491913</v>
+        <v>0.1342756897211075</v>
       </c>
       <c r="FG5" t="n">
-        <v>0.3821529746055603</v>
+        <v>0.09934923052787781</v>
       </c>
       <c r="FH5" t="n">
-        <v>0.01030636299401522</v>
+        <v>0.2331806719303131</v>
       </c>
       <c r="FI5" t="n">
-        <v>0.003230750560760498</v>
+        <v>0.1962933093309402</v>
       </c>
       <c r="FJ5" t="n">
-        <v>0.01545628905296326</v>
+        <v>0.4690245985984802</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.04875946044921875</v>
+        <v>0.3106458783149719</v>
       </c>
       <c r="FL5" t="n">
-        <v>0.06423914432525635</v>
+        <v>0.3754733800888062</v>
       </c>
       <c r="FM5" t="n">
-        <v>0.03729923814535141</v>
+        <v>0.3812968134880066</v>
       </c>
       <c r="FN5" t="n">
-        <v>0.02816434949636459</v>
+        <v>0.2483242452144623</v>
       </c>
       <c r="FO5" t="n">
-        <v>0.3447184860706329</v>
+        <v>0.2591101229190826</v>
       </c>
       <c r="FP5" t="n">
-        <v>0.3571688830852509</v>
+        <v>0.3077524900436401</v>
       </c>
       <c r="FQ5" t="n">
-        <v>1.093625783920288</v>
+        <v>0.4743227362632751</v>
       </c>
       <c r="FR5" t="n">
-        <v>0.0493910163640976</v>
+        <v>0.1127013340592384</v>
       </c>
       <c r="FS5" t="n">
-        <v>1.107935547828674</v>
+        <v>0.7153181433677673</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.01487645506858826</v>
+        <v>0.5766192674636841</v>
       </c>
       <c r="FU5" t="n">
-        <v>0.1068198084831238</v>
+        <v>0.3563375771045685</v>
       </c>
       <c r="FV5" t="n">
-        <v>0.02686189860105515</v>
+        <v>0.3866485953330994</v>
       </c>
       <c r="FW5" t="n">
-        <v>0.07608086615800858</v>
+        <v>0.1414591372013092</v>
       </c>
       <c r="FX5" t="n">
-        <v>0.01612713932991028</v>
+        <v>0.122144341468811</v>
       </c>
       <c r="FY5" t="n">
-        <v>0.01030861679464579</v>
+        <v>0.404483288526535</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0.1021512821316719</v>
+        <v>0.1091585457324982</v>
       </c>
       <c r="GA5" t="n">
-        <v>0.1150246039032936</v>
+        <v>0.06839724630117416</v>
       </c>
       <c r="GB5" t="n">
-        <v>0.06647256016731262</v>
+        <v>0.08792991936206818</v>
       </c>
       <c r="GC5" t="n">
-        <v>0.6378288269042969</v>
+        <v>0.4814445972442627</v>
       </c>
       <c r="GD5" t="n">
-        <v>0.273746520280838</v>
+        <v>0.005279656499624252</v>
       </c>
       <c r="GE5" t="n">
-        <v>0.1733141839504242</v>
+        <v>0.5420293807983398</v>
       </c>
       <c r="GF5" t="n">
-        <v>0.07810330390930176</v>
+        <v>0.2024208754301071</v>
       </c>
       <c r="GG5" t="n">
-        <v>0.03955309838056564</v>
+        <v>0.04740797355771065</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.04936393722891808</v>
+        <v>0.008663078770041466</v>
       </c>
       <c r="B6" t="n">
-        <v>0.02128583565354347</v>
+        <v>0.910790741443634</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0005712435813620687</v>
+        <v>0.02939340099692345</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01327439025044441</v>
+        <v>0.76458740234375</v>
       </c>
       <c r="E6" t="n">
-        <v>0.009244415909051895</v>
+        <v>0.1899759024381638</v>
       </c>
       <c r="F6" t="n">
-        <v>0.003003443125635386</v>
+        <v>0.1802384257316589</v>
       </c>
       <c r="G6" t="n">
-        <v>0.008533477783203125</v>
+        <v>0.001660965383052826</v>
       </c>
       <c r="H6" t="n">
-        <v>0.003245292697101831</v>
+        <v>0.1872439533472061</v>
       </c>
       <c r="I6" t="n">
-        <v>0.00301199103705585</v>
+        <v>0.05458369106054306</v>
       </c>
       <c r="J6" t="n">
-        <v>0.04291921854019165</v>
+        <v>0.07034467160701752</v>
       </c>
       <c r="K6" t="n">
-        <v>0.00615830160677433</v>
+        <v>0.7556458711624146</v>
       </c>
       <c r="L6" t="n">
-        <v>0.005071512889117002</v>
+        <v>0.01554829627275467</v>
       </c>
       <c r="M6" t="n">
-        <v>0.008616584353148937</v>
+        <v>0.6182705760002136</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01450968161225319</v>
+        <v>0.2984151542186737</v>
       </c>
       <c r="O6" t="n">
-        <v>0.007114700973033905</v>
+        <v>0.2207180112600327</v>
       </c>
       <c r="P6" t="n">
-        <v>0.01316537614911795</v>
+        <v>0.03011768311262131</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.003136400366201997</v>
+        <v>0.06112314015626907</v>
       </c>
       <c r="R6" t="n">
-        <v>0.005039738956838846</v>
+        <v>0.1326952278614044</v>
       </c>
       <c r="S6" t="n">
-        <v>0.006021302659064531</v>
+        <v>0.05250271409749985</v>
       </c>
       <c r="T6" t="n">
-        <v>0.002319372026249766</v>
+        <v>0.1342156827449799</v>
       </c>
       <c r="U6" t="n">
-        <v>0.001631977618671954</v>
+        <v>0.01130126416683197</v>
       </c>
       <c r="V6" t="n">
-        <v>0.001193358330056071</v>
+        <v>0.03709116205573082</v>
       </c>
       <c r="W6" t="n">
-        <v>0.003477750811725855</v>
+        <v>0.080330491065979</v>
       </c>
       <c r="X6" t="n">
-        <v>0.002633024239912629</v>
+        <v>0.1476623862981796</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.001921563874930143</v>
+        <v>0.1510376036167145</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.001567429164424539</v>
+        <v>0.0612984336912632</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.0008179927244782448</v>
+        <v>0.06392938643693924</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.004352986812591553</v>
+        <v>0.1214239969849586</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.005638048984110355</v>
+        <v>0.07197855412960052</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.004257654305547476</v>
+        <v>0.01482109166681767</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.003859855700284243</v>
+        <v>0.02737404964864254</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.000643466308247298</v>
+        <v>0.1974218040704727</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.0002780739741865546</v>
+        <v>0.1051854193210602</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.004840851295739412</v>
+        <v>0.08521772921085358</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.002595227910205722</v>
+        <v>0.006194110028445721</v>
       </c>
       <c r="AJ6" t="n">
-        <v>6.642373045906425e-05</v>
+        <v>0.01998127624392509</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.005511583760380745</v>
+        <v>0.01747567020356655</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.001625644857995212</v>
+        <v>0.1321744173765182</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.003424568101763725</v>
+        <v>0.02910290472209454</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.00490540312603116</v>
+        <v>0.008676023222506046</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.003922481089830399</v>
+        <v>0.1203553304076195</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.001286862301640213</v>
+        <v>0.08965736627578735</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.0003383482107892632</v>
+        <v>0.07775804400444031</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.003728232346475124</v>
+        <v>0.04477891698479652</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.000533184502273798</v>
+        <v>0.1109806671738625</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.02541937679052353</v>
+        <v>0.1100393086671829</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.0005998478154651821</v>
+        <v>0.5020191669464111</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.002538128290325403</v>
+        <v>0.01744683645665646</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.006437566131353378</v>
+        <v>0.3673062324523926</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.005677282344549894</v>
+        <v>0.01706671714782715</v>
       </c>
       <c r="AY6" t="n">
-        <v>0.004604852758347988</v>
+        <v>0.0726197212934494</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0.01076315157115459</v>
+        <v>0.2340419888496399</v>
       </c>
       <c r="BA6" t="n">
-        <v>0.009146164171397686</v>
+        <v>0.1792931705713272</v>
       </c>
       <c r="BB6" t="n">
-        <v>0.000534808961674571</v>
+        <v>0.02583087608218193</v>
       </c>
       <c r="BC6" t="n">
-        <v>0.0107569582760334</v>
+        <v>0.005028963088989258</v>
       </c>
       <c r="BD6" t="n">
-        <v>0.01317207887768745</v>
+        <v>0.2171849757432938</v>
       </c>
       <c r="BE6" t="n">
-        <v>0.0002462417760398239</v>
+        <v>0.1394061148166656</v>
       </c>
       <c r="BF6" t="n">
-        <v>0.003912343177944422</v>
+        <v>0.06460294872522354</v>
       </c>
       <c r="BG6" t="n">
-        <v>0.002738391514867544</v>
+        <v>0.1340822875499725</v>
       </c>
       <c r="BH6" t="n">
-        <v>0.004700710531324148</v>
+        <v>0.0657486766576767</v>
       </c>
       <c r="BI6" t="n">
-        <v>0.00845872238278389</v>
+        <v>0.1567476987838745</v>
       </c>
       <c r="BJ6" t="n">
-        <v>0.01747420988976955</v>
+        <v>0.06422349810600281</v>
       </c>
       <c r="BK6" t="n">
-        <v>0.001769755268469453</v>
+        <v>0.1768297106027603</v>
       </c>
       <c r="BL6" t="n">
-        <v>0.00805661641061306</v>
+        <v>0.08971209824085236</v>
       </c>
       <c r="BM6" t="n">
-        <v>0.005177078302949667</v>
+        <v>0.09397789835929871</v>
       </c>
       <c r="BN6" t="n">
-        <v>0.001019032788462937</v>
+        <v>0.009958667680621147</v>
       </c>
       <c r="BO6" t="n">
-        <v>0.0008551354985684156</v>
+        <v>0.0668988823890686</v>
       </c>
       <c r="BP6" t="n">
-        <v>0.00107806408777833</v>
+        <v>0.1154203936457634</v>
       </c>
       <c r="BQ6" t="n">
-        <v>0.0005302297649905086</v>
+        <v>0.06865203380584717</v>
       </c>
       <c r="BR6" t="n">
-        <v>0.0003734165802598</v>
+        <v>0.05789797753095627</v>
       </c>
       <c r="BS6" t="n">
-        <v>0.003224633866921067</v>
+        <v>0.01233375258743763</v>
       </c>
       <c r="BT6" t="n">
-        <v>0.0007354238186962903</v>
+        <v>0.07814686745405197</v>
       </c>
       <c r="BU6" t="n">
-        <v>0.01924239099025726</v>
+        <v>0.1018843948841095</v>
       </c>
       <c r="BV6" t="n">
-        <v>0.001392927253618836</v>
+        <v>0.2804169952869415</v>
       </c>
       <c r="BW6" t="n">
-        <v>0.0025766771286726</v>
+        <v>0.04513835534453392</v>
       </c>
       <c r="BX6" t="n">
-        <v>0.0120079917833209</v>
+        <v>0.2091387808322906</v>
       </c>
       <c r="BY6" t="n">
-        <v>7.386614743154496e-05</v>
+        <v>0.04094932228326797</v>
       </c>
       <c r="BZ6" t="n">
-        <v>0.00163996359333396</v>
+        <v>0.02115469798445702</v>
       </c>
       <c r="CA6" t="n">
-        <v>0.0007981257513165474</v>
+        <v>0.06981845945119858</v>
       </c>
       <c r="CB6" t="n">
-        <v>0.00270675215870142</v>
+        <v>0.1372070461511612</v>
       </c>
       <c r="CC6" t="n">
-        <v>0.003439110470935702</v>
+        <v>0.1228302866220474</v>
       </c>
       <c r="CD6" t="n">
-        <v>0.01019222382456064</v>
+        <v>0.02194386720657349</v>
       </c>
       <c r="CE6" t="n">
-        <v>0.002046450506895781</v>
+        <v>0.115187369287014</v>
       </c>
       <c r="CF6" t="n">
-        <v>0.0001435789745301008</v>
+        <v>0.04381249099969864</v>
       </c>
       <c r="CG6" t="n">
-        <v>0.003783622523769736</v>
+        <v>0.1449876725673676</v>
       </c>
       <c r="CH6" t="n">
-        <v>0.000642619444988668</v>
+        <v>0.01355624385178089</v>
       </c>
       <c r="CI6" t="n">
-        <v>0.0007419752073474228</v>
+        <v>0.0100567638874054</v>
       </c>
       <c r="CJ6" t="n">
-        <v>1.702220106380992e-05</v>
+        <v>0.04268999397754669</v>
       </c>
       <c r="CK6" t="n">
-        <v>0.001169602619484067</v>
+        <v>0.01845330744981766</v>
       </c>
       <c r="CL6" t="n">
-        <v>0.0002498686662875116</v>
+        <v>0.007235732860863209</v>
       </c>
       <c r="CM6" t="n">
-        <v>0.00405735382810235</v>
+        <v>0.1502868384122849</v>
       </c>
       <c r="CN6" t="n">
-        <v>0.004294550977647305</v>
+        <v>0.02536566741764545</v>
       </c>
       <c r="CO6" t="n">
-        <v>5.623677861876786e-05</v>
+        <v>0.04758237302303314</v>
       </c>
       <c r="CP6" t="n">
-        <v>0.003507288871333003</v>
+        <v>0.1002828553318977</v>
       </c>
       <c r="CQ6" t="n">
-        <v>0.01715922169387341</v>
+        <v>0.1245464906096458</v>
       </c>
       <c r="CR6" t="n">
-        <v>0.002377218566834927</v>
+        <v>0.04747835546731949</v>
       </c>
       <c r="CS6" t="n">
-        <v>0.01025581359863281</v>
+        <v>0.1526366919279099</v>
       </c>
       <c r="CT6" t="n">
-        <v>0.01296532526612282</v>
+        <v>0.3027733266353607</v>
       </c>
       <c r="CU6" t="n">
-        <v>0.001372240018099546</v>
+        <v>0.09808684140443802</v>
       </c>
       <c r="CV6" t="n">
-        <v>0.009538302198052406</v>
+        <v>0.01192562654614449</v>
       </c>
       <c r="CW6" t="n">
-        <v>0.002491936553269625</v>
+        <v>0.1415901780128479</v>
       </c>
       <c r="CX6" t="n">
-        <v>0.0007477455656044185</v>
+        <v>0.06278576701879501</v>
       </c>
       <c r="CY6" t="n">
-        <v>0.001026076730340719</v>
+        <v>0.14922696352005</v>
       </c>
       <c r="CZ6" t="n">
-        <v>0.002333530457690358</v>
+        <v>0.01023944467306137</v>
       </c>
       <c r="DA6" t="n">
-        <v>0.001156182144768536</v>
+        <v>0.03966636955738068</v>
       </c>
       <c r="DB6" t="n">
-        <v>0.000918269797693938</v>
+        <v>0.05359842628240585</v>
       </c>
       <c r="DC6" t="n">
-        <v>0.0008528895559720695</v>
+        <v>0.02158838510513306</v>
       </c>
       <c r="DD6" t="n">
-        <v>0.000373692368157208</v>
+        <v>0.03356961533427238</v>
       </c>
       <c r="DE6" t="n">
-        <v>0.01050105877220631</v>
+        <v>0.01364374253898859</v>
       </c>
       <c r="DF6" t="n">
-        <v>0.01406045258045197</v>
+        <v>0.2529838383197784</v>
       </c>
       <c r="DG6" t="n">
-        <v>0.006762130651623011</v>
+        <v>0.01281046122312546</v>
       </c>
       <c r="DH6" t="n">
-        <v>0.005706740543246269</v>
+        <v>0.3944578170776367</v>
       </c>
       <c r="DI6" t="n">
-        <v>0.006253608968108892</v>
+        <v>0.03291678428649902</v>
       </c>
       <c r="DJ6" t="n">
-        <v>0.006350071635097265</v>
+        <v>0.05249920859932899</v>
       </c>
       <c r="DK6" t="n">
-        <v>0.0007991655147634447</v>
+        <v>0.1406986713409424</v>
       </c>
       <c r="DL6" t="n">
-        <v>0.0006734424969181418</v>
+        <v>0.0893738865852356</v>
       </c>
       <c r="DM6" t="n">
-        <v>0.0007162199472077191</v>
+        <v>0.008273886516690254</v>
       </c>
       <c r="DN6" t="n">
-        <v>0.002069196198135614</v>
+        <v>0.02517251297831535</v>
       </c>
       <c r="DO6" t="n">
-        <v>0.003949507605284452</v>
+        <v>0.09091382473707199</v>
       </c>
       <c r="DP6" t="n">
-        <v>0.002342229476198554</v>
+        <v>0.09166599810123444</v>
       </c>
       <c r="DQ6" t="n">
-        <v>0.0001940738729899749</v>
+        <v>0.02215765602886677</v>
       </c>
       <c r="DR6" t="n">
-        <v>0.001775682321749628</v>
+        <v>0.04415808618068695</v>
       </c>
       <c r="DS6" t="n">
-        <v>0.001429469673894346</v>
+        <v>0.05513661727309227</v>
       </c>
       <c r="DT6" t="n">
-        <v>0.009571141563355923</v>
+        <v>0.03682132810354233</v>
       </c>
       <c r="DU6" t="n">
-        <v>0.002038660924881697</v>
+        <v>0.04569819569587708</v>
       </c>
       <c r="DV6" t="n">
-        <v>0.0007359478040598333</v>
+        <v>0.06964575499296188</v>
       </c>
       <c r="DW6" t="n">
-        <v>0.002808902412652969</v>
+        <v>0.0088693518191576</v>
       </c>
       <c r="DX6" t="n">
-        <v>0.002823176560923457</v>
+        <v>0.05460076406598091</v>
       </c>
       <c r="DY6" t="n">
-        <v>0.00330780865624547</v>
+        <v>0.07275280356407166</v>
       </c>
       <c r="DZ6" t="n">
-        <v>0.006630436982959509</v>
+        <v>0.03935049846768379</v>
       </c>
       <c r="EA6" t="n">
-        <v>0.008150136098265648</v>
+        <v>0.02967380173504353</v>
       </c>
       <c r="EB6" t="n">
-        <v>0.001101040397770703</v>
+        <v>0.09409406781196594</v>
       </c>
       <c r="EC6" t="n">
-        <v>0.001549110515043139</v>
+        <v>0.05977308005094528</v>
       </c>
       <c r="ED6" t="n">
-        <v>0.0004421374178491533</v>
+        <v>0.04878914728760719</v>
       </c>
       <c r="EE6" t="n">
-        <v>0.000243100177613087</v>
+        <v>0.01326293312013149</v>
       </c>
       <c r="EF6" t="n">
-        <v>0.01144499704241753</v>
+        <v>0.03638268634676933</v>
       </c>
       <c r="EG6" t="n">
-        <v>0.006457549519836903</v>
+        <v>0.1210415363311768</v>
       </c>
       <c r="EH6" t="n">
-        <v>0.0002840642118826509</v>
+        <v>0.0552649199962616</v>
       </c>
       <c r="EI6" t="n">
-        <v>0.004261886235326529</v>
+        <v>0.2909530401229858</v>
       </c>
       <c r="EJ6" t="n">
-        <v>0.002213314641267061</v>
+        <v>0.07111880928277969</v>
       </c>
       <c r="EK6" t="n">
-        <v>0.0008778058690950274</v>
+        <v>0.05391699820756912</v>
       </c>
       <c r="EL6" t="n">
-        <v>0.0007597653311677277</v>
+        <v>0.05301816761493683</v>
       </c>
       <c r="EM6" t="n">
-        <v>0.0002139316638931632</v>
+        <v>0.03140764310956001</v>
       </c>
       <c r="EN6" t="n">
-        <v>0.0001041339273797348</v>
+        <v>0.02118218690156937</v>
       </c>
       <c r="EO6" t="n">
-        <v>0.001217404380440712</v>
+        <v>0.03405432775616646</v>
       </c>
       <c r="EP6" t="n">
-        <v>0.003139563137665391</v>
+        <v>0.08422505110502243</v>
       </c>
       <c r="EQ6" t="n">
-        <v>0.003155376762151718</v>
+        <v>0.1141612902283669</v>
       </c>
       <c r="ER6" t="n">
-        <v>0.005876824259757996</v>
+        <v>0.08440867066383362</v>
       </c>
       <c r="ES6" t="n">
-        <v>0.007004787214100361</v>
+        <v>0.008505193516612053</v>
       </c>
       <c r="ET6" t="n">
-        <v>0.003217465477064252</v>
+        <v>0.2077368199825287</v>
       </c>
       <c r="EU6" t="n">
-        <v>0.003257174510508776</v>
+        <v>0.1348148137331009</v>
       </c>
       <c r="EV6" t="n">
-        <v>0.003113248152658343</v>
+        <v>0.1136352643370628</v>
       </c>
       <c r="EW6" t="n">
-        <v>0.0005693050334230065</v>
+        <v>0.02833636663854122</v>
       </c>
       <c r="EX6" t="n">
-        <v>0.009833580814301968</v>
+        <v>0.006332691758871078</v>
       </c>
       <c r="EY6" t="n">
-        <v>0.0006522609619423747</v>
+        <v>0.1408792734146118</v>
       </c>
       <c r="EZ6" t="n">
-        <v>0.001124999136663973</v>
+        <v>0.04183288291096687</v>
       </c>
       <c r="FA6" t="n">
-        <v>0.001361543778330088</v>
+        <v>0.1473464518785477</v>
       </c>
       <c r="FB6" t="n">
-        <v>0.0006623582448810339</v>
+        <v>0.01217279862612486</v>
       </c>
       <c r="FC6" t="n">
-        <v>0.0007215755758807063</v>
+        <v>0.0428798533976078</v>
       </c>
       <c r="FD6" t="n">
-        <v>7.197864761110395e-05</v>
+        <v>0.05410315841436386</v>
       </c>
       <c r="FE6" t="n">
-        <v>0.0007435082807205617</v>
+        <v>0.02797636389732361</v>
       </c>
       <c r="FF6" t="n">
-        <v>0.0005813709576614201</v>
+        <v>0.02889786846935749</v>
       </c>
       <c r="FG6" t="n">
-        <v>0.008892233483493328</v>
+        <v>0.00392381614074111</v>
       </c>
       <c r="FH6" t="n">
-        <v>0.006630883552134037</v>
+        <v>0.02148021385073662</v>
       </c>
       <c r="FI6" t="n">
-        <v>0.0002857777290046215</v>
+        <v>0.0144512876868248</v>
       </c>
       <c r="FJ6" t="n">
-        <v>0.002091162838041782</v>
+        <v>0.0161778274923563</v>
       </c>
       <c r="FK6" t="n">
-        <v>0.002780481008812785</v>
+        <v>0.04488822445273399</v>
       </c>
       <c r="FL6" t="n">
-        <v>0.0002931571507360786</v>
+        <v>0.004647332709282637</v>
       </c>
       <c r="FM6" t="n">
-        <v>0.00528023624792695</v>
+        <v>0.004563460126519203</v>
       </c>
       <c r="FN6" t="n">
-        <v>0.002209447091445327</v>
+        <v>0.0144162317737937</v>
       </c>
       <c r="FO6" t="n">
-        <v>0.0001374698185827583</v>
+        <v>0.03440455347299576</v>
       </c>
       <c r="FP6" t="n">
-        <v>0.004275776445865631</v>
+        <v>0.03668602555990219</v>
       </c>
       <c r="FQ6" t="n">
-        <v>0.004722426179796457</v>
+        <v>0.09178159385919571</v>
       </c>
       <c r="FR6" t="n">
-        <v>0.002567330840975046</v>
+        <v>0.03954223543405533</v>
       </c>
       <c r="FS6" t="n">
-        <v>0.01992200128734112</v>
+        <v>0.03056816942989826</v>
       </c>
       <c r="FT6" t="n">
-        <v>0.00127914291806519</v>
+        <v>0.3189761638641357</v>
       </c>
       <c r="FU6" t="n">
-        <v>0.0008859190857037902</v>
+        <v>0.02793086878955364</v>
       </c>
       <c r="FV6" t="n">
-        <v>0.003367136232554913</v>
+        <v>0.1909863501787186</v>
       </c>
       <c r="FW6" t="n">
-        <v>0.003839482553303242</v>
+        <v>0.05161433666944504</v>
       </c>
       <c r="FX6" t="n">
-        <v>6.348898750729859e-05</v>
+        <v>0.001260915771126747</v>
       </c>
       <c r="FY6" t="n">
-        <v>8.813710883259773e-05</v>
+        <v>0.05680084973573685</v>
       </c>
       <c r="FZ6" t="n">
-        <v>0.008111301809549332</v>
+        <v>0.005032380111515522</v>
       </c>
       <c r="GA6" t="n">
-        <v>0.001314480323344469</v>
+        <v>0.08742877840995789</v>
       </c>
       <c r="GB6" t="n">
-        <v>0.006934701930731535</v>
+        <v>0.009339164942502975</v>
       </c>
       <c r="GC6" t="n">
-        <v>0.003111210418865085</v>
+        <v>0.1348851770162582</v>
       </c>
       <c r="GD6" t="n">
-        <v>0.0008325382950715721</v>
+        <v>0.1506161242723465</v>
       </c>
       <c r="GE6" t="n">
-        <v>0.001032384345307946</v>
+        <v>0.2599200308322906</v>
       </c>
       <c r="GF6" t="n">
-        <v>0.007856064476072788</v>
+        <v>0.02890766784548759</v>
       </c>
       <c r="GG6" t="n">
-        <v>0.0007621404365636408</v>
+        <v>0.01363877486437559</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.0003726492577698082</v>
+        <v>0.3734717667102814</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0005495297373272479</v>
+        <v>0.02440056949853897</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0001603845157660544</v>
+        <v>0.6192867755889893</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0005678432644344866</v>
+        <v>0.01116588711738586</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0003033480024896562</v>
+        <v>0.2698022127151489</v>
       </c>
       <c r="F7" t="n">
-        <v>3.515568096190691e-05</v>
+        <v>0.08768318593502045</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0001718435087241232</v>
+        <v>0.1937544941902161</v>
       </c>
       <c r="H7" t="n">
-        <v>6.997279706411064e-05</v>
+        <v>0.0119592621922493</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0001878660405054688</v>
+        <v>0.2777176201343536</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0002198254223912954</v>
+        <v>0.07311658561229706</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0002019566454691812</v>
+        <v>0.06544310599565506</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0002650163078214973</v>
+        <v>0.4907117187976837</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0006306628929451108</v>
+        <v>0.248483806848526</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0004030856362078339</v>
+        <v>0.3693179488182068</v>
       </c>
       <c r="O7" t="n">
-        <v>2.745868187048472e-05</v>
+        <v>0.2098398357629776</v>
       </c>
       <c r="P7" t="n">
-        <v>0.0001878258481156081</v>
+        <v>0.1287785470485687</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.286949893459678e-05</v>
+        <v>0.1222598105669022</v>
       </c>
       <c r="R7" t="n">
-        <v>0.0003247695567552</v>
+        <v>0.121536523103714</v>
       </c>
       <c r="S7" t="n">
-        <v>1.478670310461894e-05</v>
+        <v>0.0815485343337059</v>
       </c>
       <c r="T7" t="n">
-        <v>0.0001490437134634703</v>
+        <v>0.1488650739192963</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0001012026696116664</v>
+        <v>0.03616571426391602</v>
       </c>
       <c r="V7" t="n">
-        <v>2.470091931172647e-05</v>
+        <v>0.01611800864338875</v>
       </c>
       <c r="W7" t="n">
-        <v>0.0001607425510883331</v>
+        <v>0.1258724927902222</v>
       </c>
       <c r="X7" t="n">
-        <v>0.0001720073923934251</v>
+        <v>0.1521628350019455</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.0002209042286267504</v>
+        <v>0.0409727543592453</v>
       </c>
       <c r="Z7" t="n">
-        <v>3.47476452589035e-05</v>
+        <v>0.1293610632419586</v>
       </c>
       <c r="AA7" t="n">
-        <v>9.590158151695505e-05</v>
+        <v>0.1343368738889694</v>
       </c>
       <c r="AB7" t="n">
-        <v>2.495829539839178e-05</v>
+        <v>0.1285628825426102</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.0003433228412177414</v>
+        <v>0.01105838268995285</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.0002944954030681401</v>
+        <v>0.03117383271455765</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.0002535406674724072</v>
+        <v>0.1243864893913269</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.0001378832821501419</v>
+        <v>0.1924517750740051</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.0001481663930462673</v>
+        <v>0.1155219450592995</v>
       </c>
       <c r="AH7" t="n">
-        <v>6.510344974230975e-05</v>
+        <v>0.1224907860159874</v>
       </c>
       <c r="AI7" t="n">
-        <v>2.668578053999227e-05</v>
+        <v>0.1059076189994812</v>
       </c>
       <c r="AJ7" t="n">
-        <v>3.765983274206519e-05</v>
+        <v>0.222905308008194</v>
       </c>
       <c r="AK7" t="n">
-        <v>3.407158146728761e-05</v>
+        <v>0.04933610185980797</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.0002194803091697395</v>
+        <v>0.141260951757431</v>
       </c>
       <c r="AM7" t="n">
-        <v>3.39147009071894e-05</v>
+        <v>0.0790230855345726</v>
       </c>
       <c r="AN7" t="n">
-        <v>7.948374695843086e-05</v>
+        <v>0.06062920391559601</v>
       </c>
       <c r="AO7" t="n">
-        <v>5.624716868624091e-05</v>
+        <v>0.1711591482162476</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.0001470456190872937</v>
+        <v>0.1232614815235138</v>
       </c>
       <c r="AQ7" t="n">
-        <v>8.686542423674837e-05</v>
+        <v>0.07509195804595947</v>
       </c>
       <c r="AR7" t="n">
-        <v>9.297508222516626e-05</v>
+        <v>0.05608630925416946</v>
       </c>
       <c r="AS7" t="n">
-        <v>8.945480658439919e-05</v>
+        <v>0.006989751011133194</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.0001326227793470025</v>
+        <v>0.2683199048042297</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.0002969378838315606</v>
+        <v>0.00231851264834404</v>
       </c>
       <c r="AV7" t="n">
-        <v>2.777893496386241e-05</v>
+        <v>0.4321974217891693</v>
       </c>
       <c r="AW7" t="n">
-        <v>9.177536412607878e-05</v>
+        <v>0.239296942949295</v>
       </c>
       <c r="AX7" t="n">
-        <v>4.958466888638213e-05</v>
+        <v>0.3564062118530273</v>
       </c>
       <c r="AY7" t="n">
-        <v>1.618392525415402e-05</v>
+        <v>0.02699165418744087</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.0003711069584824145</v>
+        <v>0.3654672503471375</v>
       </c>
       <c r="BA7" t="n">
-        <v>7.919860217953101e-05</v>
+        <v>0.468352198600769</v>
       </c>
       <c r="BB7" t="n">
-        <v>1.489544320065761e-05</v>
+        <v>0.25481116771698</v>
       </c>
       <c r="BC7" t="n">
-        <v>5.182608583709225e-05</v>
+        <v>0.2465436309576035</v>
       </c>
       <c r="BD7" t="n">
-        <v>0.0001360547903459519</v>
+        <v>0.03311677277088165</v>
       </c>
       <c r="BE7" t="n">
-        <v>6.21325962129049e-05</v>
+        <v>0.09237638860940933</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.0004762827884405851</v>
+        <v>0.1475354433059692</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.0002539509441703558</v>
+        <v>0.4519098699092865</v>
       </c>
       <c r="BH7" t="n">
-        <v>4.55448571301531e-07</v>
+        <v>0.3224612772464752</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.000174614368006587</v>
+        <v>0.1007655784487724</v>
       </c>
       <c r="BJ7" t="n">
-        <v>7.893192378105596e-05</v>
+        <v>0.01434840634465218</v>
       </c>
       <c r="BK7" t="n">
-        <v>6.818859219492879e-06</v>
+        <v>0.006708160042762756</v>
       </c>
       <c r="BL7" t="n">
-        <v>0.000132830158690922</v>
+        <v>0.2489908337593079</v>
       </c>
       <c r="BM7" t="n">
-        <v>4.983194230590016e-05</v>
+        <v>0.0527721531689167</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.0001723870664136484</v>
+        <v>0.01124558597803116</v>
       </c>
       <c r="BO7" t="n">
-        <v>6.153971480671316e-05</v>
+        <v>0.1612812429666519</v>
       </c>
       <c r="BP7" t="n">
-        <v>8.762330980971456e-05</v>
+        <v>0.1706331074237823</v>
       </c>
       <c r="BQ7" t="n">
-        <v>6.814866355853155e-05</v>
+        <v>0.02658241242170334</v>
       </c>
       <c r="BR7" t="n">
-        <v>5.949066326138563e-05</v>
+        <v>0.09868890047073364</v>
       </c>
       <c r="BS7" t="n">
-        <v>0.0001752439420670271</v>
+        <v>0.1960232257843018</v>
       </c>
       <c r="BT7" t="n">
-        <v>0.0002312785509275272</v>
+        <v>0.2219122648239136</v>
       </c>
       <c r="BU7" t="n">
-        <v>1.305268961004913e-05</v>
+        <v>0.09268936514854431</v>
       </c>
       <c r="BV7" t="n">
-        <v>0.0001470281567890197</v>
+        <v>0.01324716210365295</v>
       </c>
       <c r="BW7" t="n">
-        <v>5.277597665553913e-05</v>
+        <v>0.2409451305866241</v>
       </c>
       <c r="BX7" t="n">
-        <v>9.979281458072364e-05</v>
+        <v>0.14431993663311</v>
       </c>
       <c r="BY7" t="n">
-        <v>7.691449718549848e-05</v>
+        <v>0.1269741505384445</v>
       </c>
       <c r="BZ7" t="n">
-        <v>5.601092198048718e-05</v>
+        <v>0.09042005240917206</v>
       </c>
       <c r="CA7" t="n">
-        <v>0.0001134474223363213</v>
+        <v>0.2013725340366364</v>
       </c>
       <c r="CB7" t="n">
-        <v>7.432061102008447e-05</v>
+        <v>0.1444746106863022</v>
       </c>
       <c r="CC7" t="n">
-        <v>0.0001613522472325712</v>
+        <v>0.03091231733560562</v>
       </c>
       <c r="CD7" t="n">
-        <v>9.447400225326419e-05</v>
+        <v>0.0426749512553215</v>
       </c>
       <c r="CE7" t="n">
-        <v>0.0001190933107864112</v>
+        <v>0.06204906851053238</v>
       </c>
       <c r="CF7" t="n">
-        <v>1.654411062190775e-05</v>
+        <v>0.04886709898710251</v>
       </c>
       <c r="CG7" t="n">
-        <v>6.017464693286456e-05</v>
+        <v>0.04542510956525803</v>
       </c>
       <c r="CH7" t="n">
-        <v>7.913173612905666e-05</v>
+        <v>0.03787684068083763</v>
       </c>
       <c r="CI7" t="n">
-        <v>3.024832949449774e-06</v>
+        <v>0.05418746173381805</v>
       </c>
       <c r="CJ7" t="n">
-        <v>3.067165380343795e-06</v>
+        <v>0.03626496344804764</v>
       </c>
       <c r="CK7" t="n">
-        <v>2.660235986695625e-05</v>
+        <v>0.06128984689712524</v>
       </c>
       <c r="CL7" t="n">
-        <v>6.9565670855809e-05</v>
+        <v>0.0129450848326087</v>
       </c>
       <c r="CM7" t="n">
-        <v>3.413475860725157e-05</v>
+        <v>0.08189225196838379</v>
       </c>
       <c r="CN7" t="n">
-        <v>9.491934906691313e-05</v>
+        <v>0.07094499468803406</v>
       </c>
       <c r="CO7" t="n">
-        <v>0.0001751570089254528</v>
+        <v>0.2433579862117767</v>
       </c>
       <c r="CP7" t="n">
-        <v>2.626841887831688e-05</v>
+        <v>0.2957390248775482</v>
       </c>
       <c r="CQ7" t="n">
-        <v>0.0002178173162974417</v>
+        <v>0.5092896819114685</v>
       </c>
       <c r="CR7" t="n">
-        <v>9.970489190891385e-05</v>
+        <v>0.08164878189563751</v>
       </c>
       <c r="CS7" t="n">
-        <v>0.0001741413871059194</v>
+        <v>0.1182111799716949</v>
       </c>
       <c r="CT7" t="n">
-        <v>0.0001008944745990448</v>
+        <v>0.175529345870018</v>
       </c>
       <c r="CU7" t="n">
-        <v>2.371133450651541e-05</v>
+        <v>0.02233467437326908</v>
       </c>
       <c r="CV7" t="n">
-        <v>0.0001100478693842888</v>
+        <v>0.01146603655070066</v>
       </c>
       <c r="CW7" t="n">
-        <v>0.0001717047998681664</v>
+        <v>0.08377830684185028</v>
       </c>
       <c r="CX7" t="n">
-        <v>2.143114033970051e-05</v>
+        <v>0.06202374398708344</v>
       </c>
       <c r="CY7" t="n">
-        <v>7.81514827394858e-05</v>
+        <v>0.04053861647844315</v>
       </c>
       <c r="CZ7" t="n">
-        <v>4.82029136037454e-05</v>
+        <v>0.008485476486384869</v>
       </c>
       <c r="DA7" t="n">
-        <v>3.837214171653613e-05</v>
+        <v>0.04341521114110947</v>
       </c>
       <c r="DB7" t="n">
-        <v>2.382847742410377e-05</v>
+        <v>0.03611663728952408</v>
       </c>
       <c r="DC7" t="n">
-        <v>1.09312059066724e-05</v>
+        <v>0.05254192650318146</v>
       </c>
       <c r="DD7" t="n">
-        <v>6.57978089293465e-05</v>
+        <v>0.06593277305364609</v>
       </c>
       <c r="DE7" t="n">
-        <v>0.0001517003693152219</v>
+        <v>0.1160061657428741</v>
       </c>
       <c r="DF7" t="n">
-        <v>0.0001707188348518685</v>
+        <v>0.06234515830874443</v>
       </c>
       <c r="DG7" t="n">
-        <v>8.254384738393128e-06</v>
+        <v>0.0811057835817337</v>
       </c>
       <c r="DH7" t="n">
-        <v>0.0002454952045809478</v>
+        <v>0.6119852662086487</v>
       </c>
       <c r="DI7" t="n">
-        <v>0.0003946649667341262</v>
+        <v>0.1476639211177826</v>
       </c>
       <c r="DJ7" t="n">
-        <v>3.655151158454828e-05</v>
+        <v>0.1356777399778366</v>
       </c>
       <c r="DK7" t="n">
-        <v>2.082787977997214e-05</v>
+        <v>0.04020577296614647</v>
       </c>
       <c r="DL7" t="n">
-        <v>1.661251189943869e-06</v>
+        <v>0.1772016286849976</v>
       </c>
       <c r="DM7" t="n">
-        <v>4.048773553222418e-05</v>
+        <v>0.1830881386995316</v>
       </c>
       <c r="DN7" t="n">
-        <v>8.433681796304882e-05</v>
+        <v>0.1000834852457047</v>
       </c>
       <c r="DO7" t="n">
-        <v>9.666041478340048e-06</v>
+        <v>0.1573337763547897</v>
       </c>
       <c r="DP7" t="n">
-        <v>9.120452887145802e-05</v>
+        <v>0.03795772790908813</v>
       </c>
       <c r="DQ7" t="n">
-        <v>4.474303204915486e-05</v>
+        <v>0.1023746430873871</v>
       </c>
       <c r="DR7" t="n">
-        <v>3.206268593203276e-05</v>
+        <v>0.02020306140184402</v>
       </c>
       <c r="DS7" t="n">
-        <v>2.716779636102729e-05</v>
+        <v>0.1411552280187607</v>
       </c>
       <c r="DT7" t="n">
-        <v>7.891680434113368e-05</v>
+        <v>0.04590398445725441</v>
       </c>
       <c r="DU7" t="n">
-        <v>4.648807953344658e-05</v>
+        <v>0.09002098441123962</v>
       </c>
       <c r="DV7" t="n">
-        <v>6.370084156515077e-05</v>
+        <v>0.01703168451786041</v>
       </c>
       <c r="DW7" t="n">
-        <v>0.0001438363688066602</v>
+        <v>0.02269325032830238</v>
       </c>
       <c r="DX7" t="n">
-        <v>0.0001397571322740987</v>
+        <v>0.1935711950063705</v>
       </c>
       <c r="DY7" t="n">
-        <v>5.102932846057229e-05</v>
+        <v>0.129831925034523</v>
       </c>
       <c r="DZ7" t="n">
-        <v>4.425522092788015e-06</v>
+        <v>0.2026900798082352</v>
       </c>
       <c r="EA7" t="n">
-        <v>3.930997536372161e-07</v>
+        <v>0.1868937015533447</v>
       </c>
       <c r="EB7" t="n">
-        <v>0.0001754623372107744</v>
+        <v>0.1531244814395905</v>
       </c>
       <c r="EC7" t="n">
-        <v>4.442872887011617e-05</v>
+        <v>0.03849146887660027</v>
       </c>
       <c r="ED7" t="n">
-        <v>7.247471512528136e-05</v>
+        <v>0.062540203332901</v>
       </c>
       <c r="EE7" t="n">
-        <v>1.235202125826618e-05</v>
+        <v>0.1939749121665955</v>
       </c>
       <c r="EF7" t="n">
-        <v>0.000270437216386199</v>
+        <v>0.004428932443261147</v>
       </c>
       <c r="EG7" t="n">
-        <v>4.084248575964011e-05</v>
+        <v>0.1666224747896194</v>
       </c>
       <c r="EH7" t="n">
-        <v>2.411311288597062e-05</v>
+        <v>0.1116663888096809</v>
       </c>
       <c r="EI7" t="n">
-        <v>0.0002583918976597488</v>
+        <v>0.1023842990398407</v>
       </c>
       <c r="EJ7" t="n">
-        <v>0.0001408234966220334</v>
+        <v>0.1242806389927864</v>
       </c>
       <c r="EK7" t="n">
-        <v>8.534964581485838e-05</v>
+        <v>0.09804178029298782</v>
       </c>
       <c r="EL7" t="n">
-        <v>1.334199714619899e-05</v>
+        <v>0.04745003208518028</v>
       </c>
       <c r="EM7" t="n">
-        <v>5.64483052585274e-05</v>
+        <v>0.05396634340286255</v>
       </c>
       <c r="EN7" t="n">
-        <v>1.020290164888138e-05</v>
+        <v>0.001857053488492966</v>
       </c>
       <c r="EO7" t="n">
-        <v>8.480297401547432e-05</v>
+        <v>0.1537466943264008</v>
       </c>
       <c r="EP7" t="n">
-        <v>0.0001129541706177406</v>
+        <v>0.02543397434055805</v>
       </c>
       <c r="EQ7" t="n">
-        <v>0.0003252630413044244</v>
+        <v>0.05645180121064186</v>
       </c>
       <c r="ER7" t="n">
-        <v>7.786848436808214e-05</v>
+        <v>0.08917819708585739</v>
       </c>
       <c r="ES7" t="n">
-        <v>0.0001676132524153218</v>
+        <v>0.1780805438756943</v>
       </c>
       <c r="ET7" t="n">
-        <v>0.0002189465594710782</v>
+        <v>0.1880137324333191</v>
       </c>
       <c r="EU7" t="n">
-        <v>3.905974153894931e-05</v>
+        <v>0.07422392815351486</v>
       </c>
       <c r="EV7" t="n">
-        <v>9.647176193539053e-05</v>
+        <v>0.03303930163383484</v>
       </c>
       <c r="EW7" t="n">
-        <v>2.139479875040706e-05</v>
+        <v>0.1188656166195869</v>
       </c>
       <c r="EX7" t="n">
-        <v>0.0001241485006175935</v>
+        <v>0.004342833533883095</v>
       </c>
       <c r="EY7" t="n">
-        <v>0.0001608806633157656</v>
+        <v>0.03065942414104939</v>
       </c>
       <c r="EZ7" t="n">
-        <v>3.340010880492628e-05</v>
+        <v>0.03599875420331955</v>
       </c>
       <c r="FA7" t="n">
-        <v>6.502576434286311e-05</v>
+        <v>0.0006719687953591347</v>
       </c>
       <c r="FB7" t="n">
-        <v>7.544317486463115e-05</v>
+        <v>0.01713012903928757</v>
       </c>
       <c r="FC7" t="n">
-        <v>2.74465619440889e-05</v>
+        <v>0.04891376569867134</v>
       </c>
       <c r="FD7" t="n">
-        <v>1.692593286861666e-06</v>
+        <v>0.06063785403966904</v>
       </c>
       <c r="FE7" t="n">
-        <v>3.190570350852795e-05</v>
+        <v>0.07822620868682861</v>
       </c>
       <c r="FF7" t="n">
-        <v>6.751385080860928e-05</v>
+        <v>0.04299039766192436</v>
       </c>
       <c r="FG7" t="n">
-        <v>7.99670597189106e-05</v>
+        <v>0.01049854978919029</v>
       </c>
       <c r="FH7" t="n">
-        <v>8.851678285282105e-05</v>
+        <v>0.07133021950721741</v>
       </c>
       <c r="FI7" t="n">
-        <v>0.0001574664056533948</v>
+        <v>0.1679104864597321</v>
       </c>
       <c r="FJ7" t="n">
-        <v>3.368089528521523e-05</v>
+        <v>0.09945002943277359</v>
       </c>
       <c r="FK7" t="n">
-        <v>7.425673175021075e-06</v>
+        <v>0.008429165929555893</v>
       </c>
       <c r="FL7" t="n">
-        <v>0.0001499100180808455</v>
+        <v>0.2385407835245132</v>
       </c>
       <c r="FM7" t="n">
-        <v>8.517233254679013e-06</v>
+        <v>0.1031538471579552</v>
       </c>
       <c r="FN7" t="n">
-        <v>0.0001529460569145158</v>
+        <v>0.07234655320644379</v>
       </c>
       <c r="FO7" t="n">
-        <v>0.0003093880659434944</v>
+        <v>0.1131251305341721</v>
       </c>
       <c r="FP7" t="n">
-        <v>2.31951071327785e-05</v>
+        <v>0.3329259157180786</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0.0002732022549025714</v>
+        <v>0.1313802152872086</v>
       </c>
       <c r="FR7" t="n">
-        <v>8.058914681896567e-05</v>
+        <v>0.03613793104887009</v>
       </c>
       <c r="FS7" t="n">
-        <v>0.0001518109638709575</v>
+        <v>0.07116181403398514</v>
       </c>
       <c r="FT7" t="n">
-        <v>0.0001086084375856444</v>
+        <v>0.1873587667942047</v>
       </c>
       <c r="FU7" t="n">
-        <v>9.208061783283483e-06</v>
+        <v>0.07085040956735611</v>
       </c>
       <c r="FV7" t="n">
-        <v>0.0001353852276224643</v>
+        <v>0.1815185397863388</v>
       </c>
       <c r="FW7" t="n">
-        <v>0.0001046088000293821</v>
+        <v>0.0865018218755722</v>
       </c>
       <c r="FX7" t="n">
-        <v>0.0002807099372148514</v>
+        <v>0.1330033540725708</v>
       </c>
       <c r="FY7" t="n">
-        <v>0.0001094065155484714</v>
+        <v>0.08273576200008392</v>
       </c>
       <c r="FZ7" t="n">
-        <v>3.693137841764838e-05</v>
+        <v>0.04666991904377937</v>
       </c>
       <c r="GA7" t="n">
-        <v>8.097319368971512e-05</v>
+        <v>0.1833074688911438</v>
       </c>
       <c r="GB7" t="n">
-        <v>0.0003964555216953158</v>
+        <v>0.06778399646282196</v>
       </c>
       <c r="GC7" t="n">
-        <v>0.0001127215291489847</v>
+        <v>0.1153224408626556</v>
       </c>
       <c r="GD7" t="n">
-        <v>3.156671664328314e-05</v>
+        <v>0.07429876923561096</v>
       </c>
       <c r="GE7" t="n">
-        <v>1.272889676329214e-05</v>
+        <v>0.2078868001699448</v>
       </c>
       <c r="GF7" t="n">
-        <v>9.498467989033088e-05</v>
+        <v>0.3976300954818726</v>
       </c>
       <c r="GG7" t="n">
-        <v>8.248262020060793e-05</v>
+        <v>0.01825024746358395</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.1316094249486923</v>
+        <v>0.0001224526786245406</v>
       </c>
       <c r="B8" t="n">
-        <v>1.144059538841248</v>
+        <v>0.001046136720106006</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4876530468463898</v>
+        <v>0.0001060452923411503</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1547916829586029</v>
+        <v>0.0004149912274442613</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3737901151180267</v>
+        <v>0.0001240376150235534</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9758456945419312</v>
+        <v>0.0006989682442508638</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1286721527576447</v>
+        <v>9.187442628899589e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2685121893882751</v>
+        <v>0.0001265350147150457</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1470726877450943</v>
+        <v>1.606494879524689e-05</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0799395814538002</v>
+        <v>0.0002324197848793119</v>
       </c>
       <c r="K8" t="n">
-        <v>1.010016679763794</v>
+        <v>0.000902349769603461</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1784991770982742</v>
+        <v>8.594333849032409e-07</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1978677362203598</v>
+        <v>0.0004511681036092341</v>
       </c>
       <c r="N8" t="n">
-        <v>0.5099596977233887</v>
+        <v>0.0001564218255225569</v>
       </c>
       <c r="O8" t="n">
-        <v>1.283814668655396</v>
+        <v>0.000669871224090457</v>
       </c>
       <c r="P8" t="n">
-        <v>0.03846555948257446</v>
+        <v>7.366649515461177e-05</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.08402217924594879</v>
+        <v>7.604256825288758e-05</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1214153617620468</v>
+        <v>1.850774424383417e-06</v>
       </c>
       <c r="S8" t="n">
-        <v>0.002653650939464569</v>
+        <v>7.291521615115926e-05</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1591188609600067</v>
+        <v>0.0001593653432792053</v>
       </c>
       <c r="U8" t="n">
-        <v>0.04149782657623291</v>
+        <v>2.079744808725081e-05</v>
       </c>
       <c r="V8" t="n">
-        <v>0.04801157116889954</v>
+        <v>8.477826486341655e-05</v>
       </c>
       <c r="W8" t="n">
-        <v>0.02852662093937397</v>
+        <v>1.37397755679558e-05</v>
       </c>
       <c r="X8" t="n">
-        <v>0.2870414257049561</v>
+        <v>4.80990820506122e-05</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.2099003791809082</v>
+        <v>6.608996773138642e-05</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.01190857775509357</v>
+        <v>8.764871017774567e-05</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.4003333449363708</v>
+        <v>0.0001159167004516348</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.1554144322872162</v>
+        <v>1.091245212592185e-05</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.2770326733589172</v>
+        <v>0.0001061706352629699</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.0824580043554306</v>
+        <v>2.960803976748139e-05</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.307374507188797</v>
+        <v>2.214947016909719e-06</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.1650675088167191</v>
+        <v>0.0001067116972990334</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.5211175680160522</v>
+        <v>8.020763925742358e-05</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.2129284143447876</v>
+        <v>0.0001096468040486798</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.07391157746315002</v>
+        <v>5.505447188625112e-05</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.2917240858078003</v>
+        <v>8.470861939713359e-05</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.09302106499671936</v>
+        <v>5.034326750319451e-05</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.1629753112792969</v>
+        <v>0.000156230860739015</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.1364105641841888</v>
+        <v>1.443748078600038e-05</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.07517392188310623</v>
+        <v>6.418938573915511e-05</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.08624555170536041</v>
+        <v>0.0001031169231282547</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.3657910227775574</v>
+        <v>0.0001378595479764044</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.02280774712562561</v>
+        <v>2.037657395703718e-06</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.1331730782985687</v>
+        <v>6.389520422089845e-06</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.1584571152925491</v>
+        <v>0.0001655897649470717</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.1204869523644447</v>
+        <v>0.0001042667136061937</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.5359725952148438</v>
+        <v>0.000626101391389966</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.3995966613292694</v>
+        <v>4.218371759634465e-05</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.2976868748664856</v>
+        <v>6.072219184716232e-05</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.0207933746278286</v>
+        <v>1.00964170997031e-05</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.1860381662845612</v>
+        <v>0.0004441572527866811</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.1644483059644699</v>
+        <v>7.121171802282333e-05</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.3036057949066162</v>
+        <v>1.234297087648883e-06</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.02926375716924667</v>
+        <v>0.0002753192675299942</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.137779638171196</v>
+        <v>0.0001321594318142161</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.4295707643032074</v>
+        <v>0.0002055751392617822</v>
       </c>
       <c r="BE8" t="n">
-        <v>0.002648621797561646</v>
+        <v>0.0002075783413602039</v>
       </c>
       <c r="BF8" t="n">
-        <v>0.2077153325080872</v>
+        <v>0.0001257046678801998</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.03473228588700294</v>
+        <v>0.0002726317616179585</v>
       </c>
       <c r="BH8" t="n">
-        <v>0.2884236872196198</v>
+        <v>0.0002221215108875185</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.2150157243013382</v>
+        <v>0.0001584174315212294</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0.002424608916044235</v>
+        <v>8.497187809552997e-05</v>
       </c>
       <c r="BK8" t="n">
-        <v>0.0679924339056015</v>
+        <v>9.416548709850758e-05</v>
       </c>
       <c r="BL8" t="n">
-        <v>0.1019129008054733</v>
+        <v>9.696482266008388e-06</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.01637100428342819</v>
+        <v>1.009665993478848e-05</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.05700605362653732</v>
+        <v>0.0001111999590648338</v>
       </c>
       <c r="BO8" t="n">
-        <v>0.2672850787639618</v>
+        <v>6.224910612218082e-05</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.1390028148889542</v>
+        <v>7.477993494831026e-05</v>
       </c>
       <c r="BQ8" t="n">
-        <v>0.5666425228118896</v>
+        <v>7.247744360938668e-05</v>
       </c>
       <c r="BR8" t="n">
-        <v>0.2326094806194305</v>
+        <v>2.916789162554778e-05</v>
       </c>
       <c r="BS8" t="n">
-        <v>0.290190190076828</v>
+        <v>1.855069058365189e-05</v>
       </c>
       <c r="BT8" t="n">
-        <v>0.07209984958171844</v>
+        <v>4.621881089406088e-06</v>
       </c>
       <c r="BU8" t="n">
-        <v>0.127518892288208</v>
+        <v>7.385452772723511e-05</v>
       </c>
       <c r="BV8" t="n">
-        <v>0.259857714176178</v>
+        <v>0.000325496046571061</v>
       </c>
       <c r="BW8" t="n">
-        <v>0.06354434788227081</v>
+        <v>9.26290376810357e-05</v>
       </c>
       <c r="BX8" t="n">
-        <v>0.01512382924556732</v>
+        <v>9.195355960400775e-05</v>
       </c>
       <c r="BY8" t="n">
-        <v>0.02402462810277939</v>
+        <v>6.37379998806864e-05</v>
       </c>
       <c r="BZ8" t="n">
-        <v>0.5247617363929749</v>
+        <v>0.0001094224426196888</v>
       </c>
       <c r="CA8" t="n">
-        <v>0.07860933989286423</v>
+        <v>6.940821549505927e-06</v>
       </c>
       <c r="CB8" t="n">
-        <v>0.001421909779310226</v>
+        <v>1.370510562992422e-05</v>
       </c>
       <c r="CC8" t="n">
-        <v>0.2111694365739822</v>
+        <v>0.0001211780472658575</v>
       </c>
       <c r="CD8" t="n">
-        <v>0.09606823325157166</v>
+        <v>1.658210385357961e-05</v>
       </c>
       <c r="CE8" t="n">
-        <v>0.2494374215602875</v>
+        <v>0.0001891161809908226</v>
       </c>
       <c r="CF8" t="n">
-        <v>0.08957189321517944</v>
+        <v>0.0001065008837031201</v>
       </c>
       <c r="CG8" t="n">
-        <v>0.1201377958059311</v>
+        <v>4.894564335700125e-05</v>
       </c>
       <c r="CH8" t="n">
-        <v>0.005700914189219475</v>
+        <v>4.011255805380642e-05</v>
       </c>
       <c r="CI8" t="n">
-        <v>0.1288338452577591</v>
+        <v>0.0001166874717455357</v>
       </c>
       <c r="CJ8" t="n">
-        <v>0.02557371556758881</v>
+        <v>6.473476241808385e-05</v>
       </c>
       <c r="CK8" t="n">
-        <v>0.06959317624568939</v>
+        <v>2.604784822324291e-05</v>
       </c>
       <c r="CL8" t="n">
-        <v>0.04237528145313263</v>
+        <v>7.012967398623005e-05</v>
       </c>
       <c r="CM8" t="n">
-        <v>0.1630633026361465</v>
+        <v>0.0001123603287851438</v>
       </c>
       <c r="CN8" t="n">
-        <v>0.09086187183856964</v>
+        <v>5.734355363529176e-05</v>
       </c>
       <c r="CO8" t="n">
-        <v>0.1405888646841049</v>
+        <v>4.966219421476126e-06</v>
       </c>
       <c r="CP8" t="n">
-        <v>0.1582361459732056</v>
+        <v>0.0001158876402769238</v>
       </c>
       <c r="CQ8" t="n">
-        <v>0.1818422079086304</v>
+        <v>4.48585742560681e-05</v>
       </c>
       <c r="CR8" t="n">
-        <v>0.2318553775548935</v>
+        <v>4.305111724534072e-05</v>
       </c>
       <c r="CS8" t="n">
-        <v>0.2273674607276917</v>
+        <v>0.0001689849450485781</v>
       </c>
       <c r="CT8" t="n">
-        <v>0.04402047395706177</v>
+        <v>0.0001604507560841739</v>
       </c>
       <c r="CU8" t="n">
-        <v>0.1034796237945557</v>
+        <v>3.869268766720779e-06</v>
       </c>
       <c r="CV8" t="n">
-        <v>0.09289261698722839</v>
+        <v>5.841876372869592e-06</v>
       </c>
       <c r="CW8" t="n">
-        <v>0.2100138813257217</v>
+        <v>0.0001764962071320042</v>
       </c>
       <c r="CX8" t="n">
-        <v>0.01080435886979103</v>
+        <v>9.737213258631527e-05</v>
       </c>
       <c r="CY8" t="n">
-        <v>0.1003274470567703</v>
+        <v>8.272804552689195e-05</v>
       </c>
       <c r="CZ8" t="n">
-        <v>0.05564787238836288</v>
+        <v>4.944983447785489e-05</v>
       </c>
       <c r="DA8" t="n">
-        <v>0.1379113495349884</v>
+        <v>0.0001380805770168081</v>
       </c>
       <c r="DB8" t="n">
-        <v>0.04568645730614662</v>
+        <v>6.546812073793262e-05</v>
       </c>
       <c r="DC8" t="n">
-        <v>0.04756182432174683</v>
+        <v>6.156801828183234e-05</v>
       </c>
       <c r="DD8" t="n">
-        <v>0.01738806068897247</v>
+        <v>4.339126462582499e-05</v>
       </c>
       <c r="DE8" t="n">
-        <v>0.3593032956123352</v>
+        <v>3.939459202229045e-05</v>
       </c>
       <c r="DF8" t="n">
-        <v>0.0620761327445507</v>
+        <v>9.438629786018282e-05</v>
       </c>
       <c r="DG8" t="n">
-        <v>0.3493875563144684</v>
+        <v>1.504543251940049e-05</v>
       </c>
       <c r="DH8" t="n">
-        <v>0.2122422754764557</v>
+        <v>4.672164868679829e-05</v>
       </c>
       <c r="DI8" t="n">
-        <v>0.408050149679184</v>
+        <v>4.11181608797051e-05</v>
       </c>
       <c r="DJ8" t="n">
-        <v>0.03628287091851234</v>
+        <v>8.519014954799786e-05</v>
       </c>
       <c r="DK8" t="n">
-        <v>0.1542262881994247</v>
+        <v>9.088130900636315e-05</v>
       </c>
       <c r="DL8" t="n">
-        <v>0.2938937842845917</v>
+        <v>7.517910125898197e-05</v>
       </c>
       <c r="DM8" t="n">
-        <v>0.01473101601004601</v>
+        <v>5.729973418056034e-05</v>
       </c>
       <c r="DN8" t="n">
-        <v>0.07408555597066879</v>
+        <v>4.300031650927849e-05</v>
       </c>
       <c r="DO8" t="n">
-        <v>0.02431097067892551</v>
+        <v>3.476176425465383e-05</v>
       </c>
       <c r="DP8" t="n">
-        <v>0.03912071138620377</v>
+        <v>7.074294990161434e-05</v>
       </c>
       <c r="DQ8" t="n">
-        <v>0.05116942897439003</v>
+        <v>0.0001171798066934571</v>
       </c>
       <c r="DR8" t="n">
-        <v>0.06596024334430695</v>
+        <v>6.202410440891981e-05</v>
       </c>
       <c r="DS8" t="n">
-        <v>0.1688382625579834</v>
+        <v>2.389012115600053e-05</v>
       </c>
       <c r="DT8" t="n">
-        <v>0.1198703870177269</v>
+        <v>2.269756441819482e-05</v>
       </c>
       <c r="DU8" t="n">
-        <v>0.02471818402409554</v>
+        <v>5.348460035747848e-06</v>
       </c>
       <c r="DV8" t="n">
-        <v>0.228001743555069</v>
+        <v>0.0001250272325705737</v>
       </c>
       <c r="DW8" t="n">
-        <v>0.1577628403902054</v>
+        <v>5.656565917888656e-05</v>
       </c>
       <c r="DX8" t="n">
-        <v>0.1039463579654694</v>
+        <v>4.711550354841165e-05</v>
       </c>
       <c r="DY8" t="n">
-        <v>0.1837461143732071</v>
+        <v>0.0001039552735164762</v>
       </c>
       <c r="DZ8" t="n">
-        <v>0.002371935173869133</v>
+        <v>1.598816197656561e-06</v>
       </c>
       <c r="EA8" t="n">
-        <v>0.2617591619491577</v>
+        <v>6.437984120566398e-05</v>
       </c>
       <c r="EB8" t="n">
-        <v>0.3015081286430359</v>
+        <v>3.609657505876385e-05</v>
       </c>
       <c r="EC8" t="n">
-        <v>0.02652154117822647</v>
+        <v>4.075304605066776e-05</v>
       </c>
       <c r="ED8" t="n">
-        <v>0.05651798471808434</v>
+        <v>1.021362550090998e-08</v>
       </c>
       <c r="EE8" t="n">
-        <v>0.3479570746421814</v>
+        <v>4.411307600094005e-06</v>
       </c>
       <c r="EF8" t="n">
-        <v>0.1120367720723152</v>
+        <v>1.810756657505408e-05</v>
       </c>
       <c r="EG8" t="n">
-        <v>0.4176031649112701</v>
+        <v>0.0001352526160189882</v>
       </c>
       <c r="EH8" t="n">
-        <v>0.2082916051149368</v>
+        <v>7.79512120061554e-05</v>
       </c>
       <c r="EI8" t="n">
-        <v>0.2586444020271301</v>
+        <v>9.773825877346098e-05</v>
       </c>
       <c r="EJ8" t="n">
-        <v>0.385196715593338</v>
+        <v>3.183556327712722e-05</v>
       </c>
       <c r="EK8" t="n">
-        <v>0.2067112922668457</v>
+        <v>7.56749723223038e-05</v>
       </c>
       <c r="EL8" t="n">
-        <v>0.09874321520328522</v>
+        <v>7.387273944914341e-05</v>
       </c>
       <c r="EM8" t="n">
-        <v>0.1086662486195564</v>
+        <v>8.39751010062173e-06</v>
       </c>
       <c r="EN8" t="n">
-        <v>0.280627965927124</v>
+        <v>2.15222971746698e-05</v>
       </c>
       <c r="EO8" t="n">
-        <v>0.1231223493814468</v>
+        <v>6.817794201197103e-06</v>
       </c>
       <c r="EP8" t="n">
-        <v>0.1514493077993393</v>
+        <v>0.0001440757914679125</v>
       </c>
       <c r="EQ8" t="n">
-        <v>0.1432965397834778</v>
+        <v>9.72710331552662e-05</v>
       </c>
       <c r="ER8" t="n">
-        <v>0.2312366366386414</v>
+        <v>1.566372156958096e-05</v>
       </c>
       <c r="ES8" t="n">
-        <v>0.01040235068649054</v>
+        <v>4.217774403514341e-05</v>
       </c>
       <c r="ET8" t="n">
-        <v>0.3264333009719849</v>
+        <v>0.0001920483191497624</v>
       </c>
       <c r="EU8" t="n">
-        <v>0.1189920678734779</v>
+        <v>6.895424303365871e-05</v>
       </c>
       <c r="EV8" t="n">
-        <v>0.04750115424394608</v>
+        <v>8.810976578388363e-05</v>
       </c>
       <c r="EW8" t="n">
-        <v>0.2964254319667816</v>
+        <v>3.243365790694952e-05</v>
       </c>
       <c r="EX8" t="n">
-        <v>0.06128062680363655</v>
+        <v>1.112623886001529e-05</v>
       </c>
       <c r="EY8" t="n">
-        <v>0.2111006230115891</v>
+        <v>0.0001772343821357936</v>
       </c>
       <c r="EZ8" t="n">
-        <v>0.03299672901630402</v>
+        <v>6.942758045624942e-05</v>
       </c>
       <c r="FA8" t="n">
-        <v>0.1566380858421326</v>
+        <v>5.439750384539366e-05</v>
       </c>
       <c r="FB8" t="n">
-        <v>0.02228534780442715</v>
+        <v>4.569345765048638e-05</v>
       </c>
       <c r="FC8" t="n">
-        <v>0.1932146400213242</v>
+        <v>0.0001032492509693839</v>
       </c>
       <c r="FD8" t="n">
-        <v>0.01661765575408936</v>
+        <v>7.316787377931178e-05</v>
       </c>
       <c r="FE8" t="n">
-        <v>0.04776256904006004</v>
+        <v>2.269505603180733e-05</v>
       </c>
       <c r="FF8" t="n">
-        <v>0.04624073579907417</v>
+        <v>7.509358692914248e-05</v>
       </c>
       <c r="FG8" t="n">
-        <v>0.155815601348877</v>
+        <v>7.337835086218547e-06</v>
       </c>
       <c r="FH8" t="n">
-        <v>0.02789812907576561</v>
+        <v>8.205626363633201e-05</v>
       </c>
       <c r="FI8" t="n">
-        <v>0.02654298394918442</v>
+        <v>8.696231816429645e-05</v>
       </c>
       <c r="FJ8" t="n">
-        <v>0.003571443259716034</v>
+        <v>0.0001559840311529115</v>
       </c>
       <c r="FK8" t="n">
-        <v>0.1422001570463181</v>
+        <v>5.333118315320462e-05</v>
       </c>
       <c r="FL8" t="n">
-        <v>0.09017869830131531</v>
+        <v>0.0001005382000585087</v>
       </c>
       <c r="FM8" t="n">
-        <v>0.03642222285270691</v>
+        <v>1.986865390790626e-05</v>
       </c>
       <c r="FN8" t="n">
-        <v>0.05666527152061462</v>
+        <v>2.342653533560224e-05</v>
       </c>
       <c r="FO8" t="n">
-        <v>0.2693427503108978</v>
+        <v>8.274259744212031e-05</v>
       </c>
       <c r="FP8" t="n">
-        <v>0.2006058692932129</v>
+        <v>3.658493369584903e-05</v>
       </c>
       <c r="FQ8" t="n">
-        <v>0.148360937833786</v>
+        <v>0.0002992851077578962</v>
       </c>
       <c r="FR8" t="n">
-        <v>0.1050978153944016</v>
+        <v>6.980296893743798e-05</v>
       </c>
       <c r="FS8" t="n">
-        <v>0.1311715990304947</v>
+        <v>6.889191718073562e-05</v>
       </c>
       <c r="FT8" t="n">
-        <v>0.3293907344341278</v>
+        <v>0.000134896079543978</v>
       </c>
       <c r="FU8" t="n">
-        <v>0.03030750900506973</v>
+        <v>2.409440639894456e-06</v>
       </c>
       <c r="FV8" t="n">
-        <v>0.1337400078773499</v>
+        <v>2.218412373622414e-05</v>
       </c>
       <c r="FW8" t="n">
-        <v>0.2005334794521332</v>
+        <v>2.523665716580581e-05</v>
       </c>
       <c r="FX8" t="n">
-        <v>0.07829664647579193</v>
+        <v>4.385400461615063e-05</v>
       </c>
       <c r="FY8" t="n">
-        <v>0.3272947072982788</v>
+        <v>0.0001485062239225954</v>
       </c>
       <c r="FZ8" t="n">
-        <v>0.1154864728450775</v>
+        <v>6.567404852830805e-06</v>
       </c>
       <c r="GA8" t="n">
-        <v>0.03544353693723679</v>
+        <v>1.406733281328343e-05</v>
       </c>
       <c r="GB8" t="n">
-        <v>0.2302041053771973</v>
+        <v>4.770705345435999e-06</v>
       </c>
       <c r="GC8" t="n">
-        <v>0.1480118930339813</v>
+        <v>0.0002016162616200745</v>
       </c>
       <c r="GD8" t="n">
-        <v>0.2795101702213287</v>
+        <v>0.0001098449574783444</v>
       </c>
       <c r="GE8" t="n">
-        <v>0.1460151821374893</v>
+        <v>0.0003340897965244949</v>
       </c>
       <c r="GF8" t="n">
-        <v>0.1131696850061417</v>
+        <v>3.683641989482567e-05</v>
       </c>
       <c r="GG8" t="n">
-        <v>0.1473054438829422</v>
+        <v>4.472676664590836e-05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>9.363016943098046e-06</v>
+        <v>0.02931602485477924</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0001158420418505557</v>
+        <v>0.2559750378131866</v>
       </c>
       <c r="C9" t="n">
-        <v>1.893803892016876e-05</v>
+        <v>0.02510257810354233</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0001217797253048047</v>
+        <v>0.1712604314088821</v>
       </c>
       <c r="E9" t="n">
-        <v>4.646230081561953e-06</v>
+        <v>0.05169974640011787</v>
       </c>
       <c r="F9" t="n">
-        <v>1.454899847885827e-05</v>
+        <v>0.112721212208271</v>
       </c>
       <c r="G9" t="n">
-        <v>9.436902473680675e-06</v>
+        <v>0.04048885032534599</v>
       </c>
       <c r="H9" t="n">
-        <v>1.935184263857082e-05</v>
+        <v>0.00586932897567749</v>
       </c>
       <c r="I9" t="n">
-        <v>3.758856109925546e-06</v>
+        <v>0.03439148142933846</v>
       </c>
       <c r="J9" t="n">
-        <v>1.01301702670753e-06</v>
+        <v>0.02659811079502106</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0001033401567838155</v>
+        <v>0.2403471022844315</v>
       </c>
       <c r="L9" t="n">
-        <v>1.87736441148445e-05</v>
+        <v>0.005906415637582541</v>
       </c>
       <c r="M9" t="n">
-        <v>8.56880797073245e-05</v>
+        <v>0.1340620070695877</v>
       </c>
       <c r="N9" t="n">
-        <v>6.937023954378674e-06</v>
+        <v>0.04014848917722702</v>
       </c>
       <c r="O9" t="n">
-        <v>1.775335113052279e-05</v>
+        <v>0.05290353670716286</v>
       </c>
       <c r="P9" t="n">
-        <v>2.967466116388096e-06</v>
+        <v>0.047508854418993</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.360967664571945e-05</v>
+        <v>0.06733518093824387</v>
       </c>
       <c r="R9" t="n">
-        <v>1.72841264429735e-05</v>
+        <v>0.04619281738996506</v>
       </c>
       <c r="S9" t="n">
-        <v>9.66208699537674e-06</v>
+        <v>0.0212935246527195</v>
       </c>
       <c r="T9" t="n">
-        <v>9.73856367636472e-06</v>
+        <v>0.02326912805438042</v>
       </c>
       <c r="U9" t="n">
-        <v>2.082605533360038e-06</v>
+        <v>0.0262223482131958</v>
       </c>
       <c r="V9" t="n">
-        <v>2.790817052300554e-05</v>
+        <v>0.05357512086629868</v>
       </c>
       <c r="W9" t="n">
-        <v>3.959401146857999e-05</v>
+        <v>0.03666624799370766</v>
       </c>
       <c r="X9" t="n">
-        <v>8.510021871188655e-06</v>
+        <v>0.01429185271263123</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.274209302617237e-05</v>
+        <v>0.02619067952036858</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.497915036452468e-05</v>
+        <v>0.04202765598893166</v>
       </c>
       <c r="AA9" t="n">
-        <v>6.59542183711892e-06</v>
+        <v>0.0423721931874752</v>
       </c>
       <c r="AB9" t="n">
-        <v>2.610921001178212e-06</v>
+        <v>0.0391940101981163</v>
       </c>
       <c r="AC9" t="n">
-        <v>1.494871503382456e-05</v>
+        <v>0.005420637782663107</v>
       </c>
       <c r="AD9" t="n">
-        <v>2.378368662903085e-06</v>
+        <v>0.0360153466463089</v>
       </c>
       <c r="AE9" t="n">
-        <v>4.101726153749041e-05</v>
+        <v>0.02176372893154621</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.885728670458775e-05</v>
+        <v>0.007657007314264774</v>
       </c>
       <c r="AG9" t="n">
-        <v>2.205353666795418e-05</v>
+        <v>0.006648550741374493</v>
       </c>
       <c r="AH9" t="n">
-        <v>7.820479368092492e-06</v>
+        <v>0.0134025514125824</v>
       </c>
       <c r="AI9" t="n">
-        <v>1.678798253124114e-05</v>
+        <v>0.004577761515974998</v>
       </c>
       <c r="AJ9" t="n">
-        <v>5.761243755841861e-06</v>
+        <v>0.03640030324459076</v>
       </c>
       <c r="AK9" t="n">
-        <v>1.593990236870013e-05</v>
+        <v>0.005298059899359941</v>
       </c>
       <c r="AL9" t="n">
-        <v>2.037239755736664e-05</v>
+        <v>0.04940728843212128</v>
       </c>
       <c r="AM9" t="n">
-        <v>1.706096190901008e-05</v>
+        <v>0.02841380424797535</v>
       </c>
       <c r="AN9" t="n">
-        <v>7.637213457201142e-06</v>
+        <v>0.01273765694350004</v>
       </c>
       <c r="AO9" t="n">
-        <v>9.779875654203352e-06</v>
+        <v>0.02571777999401093</v>
       </c>
       <c r="AP9" t="n">
-        <v>8.356033504242077e-06</v>
+        <v>0.03350675478577614</v>
       </c>
       <c r="AQ9" t="n">
-        <v>6.086580924602458e-06</v>
+        <v>0.002086644992232323</v>
       </c>
       <c r="AR9" t="n">
-        <v>3.123869646515232e-06</v>
+        <v>0.03398735076189041</v>
       </c>
       <c r="AS9" t="n">
-        <v>5.314148893376114e-06</v>
+        <v>0.03504842147231102</v>
       </c>
       <c r="AT9" t="n">
-        <v>3.740354441106319e-05</v>
+        <v>0.08006210625171661</v>
       </c>
       <c r="AU9" t="n">
-        <v>8.621157030574977e-05</v>
+        <v>0.1389434933662415</v>
       </c>
       <c r="AV9" t="n">
-        <v>8.899005479179323e-06</v>
+        <v>0.02726925350725651</v>
       </c>
       <c r="AW9" t="n">
-        <v>1.664409865043126e-05</v>
+        <v>0.107305184006691</v>
       </c>
       <c r="AX9" t="n">
-        <v>1.587263795954641e-05</v>
+        <v>0.05994824320077896</v>
       </c>
       <c r="AY9" t="n">
-        <v>2.600635707494803e-05</v>
+        <v>0.08248541504144669</v>
       </c>
       <c r="AZ9" t="n">
-        <v>2.620982559164986e-05</v>
+        <v>0.02300363034009933</v>
       </c>
       <c r="BA9" t="n">
-        <v>9.512388714938425e-06</v>
+        <v>0.06912727653980255</v>
       </c>
       <c r="BB9" t="n">
-        <v>1.487616282247473e-05</v>
+        <v>0.08303093910217285</v>
       </c>
       <c r="BC9" t="n">
-        <v>3.304684014437953e-06</v>
+        <v>0.02134568244218826</v>
       </c>
       <c r="BD9" t="n">
-        <v>1.591088039276656e-05</v>
+        <v>0.03630122169852257</v>
       </c>
       <c r="BE9" t="n">
-        <v>2.00245176529279e-06</v>
+        <v>0.04186470806598663</v>
       </c>
       <c r="BF9" t="n">
-        <v>7.19628733349964e-05</v>
+        <v>0.008574570529162884</v>
       </c>
       <c r="BG9" t="n">
-        <v>5.1680422075151e-06</v>
+        <v>0.02250803075730801</v>
       </c>
       <c r="BH9" t="n">
-        <v>3.270292290835641e-05</v>
+        <v>0.001877356320619583</v>
       </c>
       <c r="BI9" t="n">
-        <v>1.407114450557856e-05</v>
+        <v>0.03385842218995094</v>
       </c>
       <c r="BJ9" t="n">
-        <v>1.636245656300161e-06</v>
+        <v>0.001455694437026978</v>
       </c>
       <c r="BK9" t="n">
-        <v>2.475906148902141e-05</v>
+        <v>0.01703175902366638</v>
       </c>
       <c r="BL9" t="n">
-        <v>4.75269962407765e-06</v>
+        <v>0.02996223419904709</v>
       </c>
       <c r="BM9" t="n">
-        <v>4.49639446742367e-05</v>
+        <v>0.01869837008416653</v>
       </c>
       <c r="BN9" t="n">
-        <v>5.153996880835621e-06</v>
+        <v>0.0130696389824152</v>
       </c>
       <c r="BO9" t="n">
-        <v>1.536781019240152e-05</v>
+        <v>0.00571329053491354</v>
       </c>
       <c r="BP9" t="n">
-        <v>1.992752004298382e-05</v>
+        <v>0.01532755047082901</v>
       </c>
       <c r="BQ9" t="n">
-        <v>1.896528374345507e-05</v>
+        <v>0.01967094466090202</v>
       </c>
       <c r="BR9" t="n">
-        <v>4.831673550143023e-07</v>
+        <v>0.01393045764416456</v>
       </c>
       <c r="BS9" t="n">
-        <v>2.289360963914078e-06</v>
+        <v>0.000329374335706234</v>
       </c>
       <c r="BT9" t="n">
-        <v>8.576653272029944e-06</v>
+        <v>0.000470377504825592</v>
       </c>
       <c r="BU9" t="n">
-        <v>2.91107007797109e-05</v>
+        <v>0.05646296963095665</v>
       </c>
       <c r="BV9" t="n">
-        <v>1.637062632653397e-05</v>
+        <v>0.0846027210354805</v>
       </c>
       <c r="BW9" t="n">
-        <v>1.743749817251228e-05</v>
+        <v>0.01800921559333801</v>
       </c>
       <c r="BX9" t="n">
-        <v>3.285441198386252e-05</v>
+        <v>0.08666279911994934</v>
       </c>
       <c r="BY9" t="n">
-        <v>1.006005641102092e-05</v>
+        <v>0.02414969354867935</v>
       </c>
       <c r="BZ9" t="n">
-        <v>1.030543808155926e-05</v>
+        <v>0.0210577379912138</v>
       </c>
       <c r="CA9" t="n">
-        <v>6.453100013459334e-06</v>
+        <v>0.009858814999461174</v>
       </c>
       <c r="CB9" t="n">
-        <v>6.63965192870819e-06</v>
+        <v>0.04579908400774002</v>
       </c>
       <c r="CC9" t="n">
-        <v>1.94301173905842e-05</v>
+        <v>0.04888546839356422</v>
       </c>
       <c r="CD9" t="n">
-        <v>2.363330531807151e-05</v>
+        <v>0.005708066746592522</v>
       </c>
       <c r="CE9" t="n">
-        <v>1.998726474994328e-05</v>
+        <v>0.02531887404620647</v>
       </c>
       <c r="CF9" t="n">
-        <v>8.571473699703347e-06</v>
+        <v>0.0205483753234148</v>
       </c>
       <c r="CG9" t="n">
-        <v>2.217991641373374e-05</v>
+        <v>0.0293061975389719</v>
       </c>
       <c r="CH9" t="n">
-        <v>8.002487447811291e-06</v>
+        <v>0.006626751739531755</v>
       </c>
       <c r="CI9" t="n">
-        <v>7.250895578181371e-06</v>
+        <v>0.01186443120241165</v>
       </c>
       <c r="CJ9" t="n">
-        <v>5.797153789899312e-06</v>
+        <v>0.006139715202152729</v>
       </c>
       <c r="CK9" t="n">
-        <v>7.23617722542258e-06</v>
+        <v>0.00239174859598279</v>
       </c>
       <c r="CL9" t="n">
-        <v>2.37469095054621e-07</v>
+        <v>0.02835612930357456</v>
       </c>
       <c r="CM9" t="n">
-        <v>4.818354682356585e-06</v>
+        <v>0.03833840042352676</v>
       </c>
       <c r="CN9" t="n">
-        <v>7.745136826997623e-06</v>
+        <v>0.03006379306316376</v>
       </c>
       <c r="CO9" t="n">
-        <v>1.122057165048318e-05</v>
+        <v>0.01733850128948689</v>
       </c>
       <c r="CP9" t="n">
-        <v>2.332990698050708e-05</v>
+        <v>0.00505276070907712</v>
       </c>
       <c r="CQ9" t="n">
-        <v>2.462690281390678e-05</v>
+        <v>0.01798533275723457</v>
       </c>
       <c r="CR9" t="n">
-        <v>3.411938087083399e-05</v>
+        <v>0.005196861922740936</v>
       </c>
       <c r="CS9" t="n">
-        <v>6.57872396914172e-06</v>
+        <v>0.06445342302322388</v>
       </c>
       <c r="CT9" t="n">
-        <v>3.27712987200357e-05</v>
+        <v>0.04709206521511078</v>
       </c>
       <c r="CU9" t="n">
-        <v>3.273812296811229e-07</v>
+        <v>0.006103432271629572</v>
       </c>
       <c r="CV9" t="n">
-        <v>1.989165866689291e-05</v>
+        <v>0.006061101797968149</v>
       </c>
       <c r="CW9" t="n">
-        <v>1.97029767150525e-05</v>
+        <v>0.03591514006257057</v>
       </c>
       <c r="CX9" t="n">
-        <v>8.072865966823883e-06</v>
+        <v>0.02041670307517052</v>
       </c>
       <c r="CY9" t="n">
-        <v>2.248734563181642e-05</v>
+        <v>0.03622222691774368</v>
       </c>
       <c r="CZ9" t="n">
-        <v>5.732373210776132e-06</v>
+        <v>0.003694526851177216</v>
       </c>
       <c r="DA9" t="n">
-        <v>2.977472831844352e-06</v>
+        <v>0.02192843146622181</v>
       </c>
       <c r="DB9" t="n">
-        <v>5.32966487298836e-06</v>
+        <v>0.009797999635338783</v>
       </c>
       <c r="DC9" t="n">
-        <v>8.053010787989479e-06</v>
+        <v>0.009438769891858101</v>
       </c>
       <c r="DD9" t="n">
-        <v>6.288742042670492e-07</v>
+        <v>0.02273339778184891</v>
       </c>
       <c r="DE9" t="n">
-        <v>5.814904579892755e-05</v>
+        <v>0.01969312317669392</v>
       </c>
       <c r="DF9" t="n">
-        <v>4.222666757414117e-05</v>
+        <v>0.06303528696298599</v>
       </c>
       <c r="DG9" t="n">
-        <v>7.008900865912437e-06</v>
+        <v>0.006238999776542187</v>
       </c>
       <c r="DH9" t="n">
-        <v>1.741225241858047e-05</v>
+        <v>0.09708442538976669</v>
       </c>
       <c r="DI9" t="n">
-        <v>3.443966079430538e-06</v>
+        <v>0.02863574214279652</v>
       </c>
       <c r="DJ9" t="n">
-        <v>2.859419146261644e-05</v>
+        <v>0.0002962462604045868</v>
       </c>
       <c r="DK9" t="n">
-        <v>3.22047017107252e-05</v>
+        <v>0.01754215359687805</v>
       </c>
       <c r="DL9" t="n">
-        <v>1.016975329548586e-05</v>
+        <v>0.04130116105079651</v>
       </c>
       <c r="DM9" t="n">
-        <v>4.551324309431948e-06</v>
+        <v>0.003542195539921522</v>
       </c>
       <c r="DN9" t="n">
-        <v>1.328928465227364e-05</v>
+        <v>0.01791027747094631</v>
       </c>
       <c r="DO9" t="n">
-        <v>9.701501767267473e-06</v>
+        <v>0.0317765399813652</v>
       </c>
       <c r="DP9" t="n">
-        <v>2.689165739866439e-06</v>
+        <v>0.05217690765857697</v>
       </c>
       <c r="DQ9" t="n">
-        <v>1.609020273463102e-06</v>
+        <v>0.02350210398435593</v>
       </c>
       <c r="DR9" t="n">
-        <v>2.744652192632202e-05</v>
+        <v>0.01537628471851349</v>
       </c>
       <c r="DS9" t="n">
-        <v>2.677865950317937e-06</v>
+        <v>0.04329799860715866</v>
       </c>
       <c r="DT9" t="n">
-        <v>3.151207010887447e-06</v>
+        <v>0.005054139532148838</v>
       </c>
       <c r="DU9" t="n">
-        <v>5.964246838630061e-07</v>
+        <v>0.0002796546323224902</v>
       </c>
       <c r="DV9" t="n">
-        <v>3.845355877274415e-06</v>
+        <v>0.05934099107980728</v>
       </c>
       <c r="DW9" t="n">
-        <v>3.48536786987097e-06</v>
+        <v>4.815682768821716e-05</v>
       </c>
       <c r="DX9" t="n">
-        <v>1.059002897818573e-05</v>
+        <v>0.01063252799212933</v>
       </c>
       <c r="DY9" t="n">
-        <v>9.113046871789265e-06</v>
+        <v>0.04710192605853081</v>
       </c>
       <c r="DZ9" t="n">
-        <v>1.608477032277733e-05</v>
+        <v>0.03792004287242889</v>
       </c>
       <c r="EA9" t="n">
-        <v>3.378704150236445e-06</v>
+        <v>0.04838249087333679</v>
       </c>
       <c r="EB9" t="n">
-        <v>2.010612479352858e-05</v>
+        <v>0.01768293976783752</v>
       </c>
       <c r="EC9" t="n">
-        <v>6.19565889792284e-06</v>
+        <v>0.001553724287077785</v>
       </c>
       <c r="ED9" t="n">
-        <v>1.50154246512102e-05</v>
+        <v>0.001410203520208597</v>
       </c>
       <c r="EE9" t="n">
-        <v>2.563685484346934e-06</v>
+        <v>0.005089435260742903</v>
       </c>
       <c r="EF9" t="n">
-        <v>1.002992212306708e-05</v>
+        <v>0.00464473944157362</v>
       </c>
       <c r="EG9" t="n">
-        <v>1.843270729295909e-05</v>
+        <v>0.0118378484621644</v>
       </c>
       <c r="EH9" t="n">
-        <v>2.94595633931749e-06</v>
+        <v>0.02866489253938198</v>
       </c>
       <c r="EI9" t="n">
-        <v>3.635319080785848e-05</v>
+        <v>0.01752758584916592</v>
       </c>
       <c r="EJ9" t="n">
-        <v>3.210531212971546e-05</v>
+        <v>0.008044538088142872</v>
       </c>
       <c r="EK9" t="n">
-        <v>4.582001338349073e-07</v>
+        <v>0.04818077757954597</v>
       </c>
       <c r="EL9" t="n">
-        <v>8.474872856822913e-07</v>
+        <v>0.006031384691596031</v>
       </c>
       <c r="EM9" t="n">
-        <v>1.073619841918116e-07</v>
+        <v>0.01741859316825867</v>
       </c>
       <c r="EN9" t="n">
-        <v>9.111493454838637e-06</v>
+        <v>0.006650636438280344</v>
       </c>
       <c r="EO9" t="n">
-        <v>2.885285903175827e-05</v>
+        <v>0.007157644256949425</v>
       </c>
       <c r="EP9" t="n">
-        <v>1.650734157010447e-05</v>
+        <v>0.02820553444325924</v>
       </c>
       <c r="EQ9" t="n">
-        <v>3.306118969703675e-07</v>
+        <v>0.039200060069561</v>
       </c>
       <c r="ER9" t="n">
-        <v>1.142057044489775e-05</v>
+        <v>0.007124298252165318</v>
       </c>
       <c r="ES9" t="n">
-        <v>2.99005005217623e-05</v>
+        <v>0.03677432239055634</v>
       </c>
       <c r="ET9" t="n">
-        <v>9.392336437485937e-07</v>
+        <v>0.09763763844966888</v>
       </c>
       <c r="EU9" t="n">
-        <v>4.660713784687687e-06</v>
+        <v>0.03928472474217415</v>
       </c>
       <c r="EV9" t="n">
-        <v>1.038319442159263e-05</v>
+        <v>0.02243796363472939</v>
       </c>
       <c r="EW9" t="n">
-        <v>3.653753083199263e-06</v>
+        <v>0.005198713392019272</v>
       </c>
       <c r="EX9" t="n">
-        <v>1.653959407121874e-05</v>
+        <v>0.002976646646857262</v>
       </c>
       <c r="EY9" t="n">
-        <v>1.874207373475656e-05</v>
+        <v>0.0287212859839201</v>
       </c>
       <c r="EZ9" t="n">
-        <v>5.564582806982799e-06</v>
+        <v>0.008507048711180687</v>
       </c>
       <c r="FA9" t="n">
-        <v>1.968353899428621e-05</v>
+        <v>0.03442085161805153</v>
       </c>
       <c r="FB9" t="n">
-        <v>9.23312472878024e-06</v>
+        <v>0.002905137138441205</v>
       </c>
       <c r="FC9" t="n">
-        <v>2.99232806355576e-06</v>
+        <v>0.009272493422031403</v>
       </c>
       <c r="FD9" t="n">
-        <v>4.521390110312495e-06</v>
+        <v>0.01874273642897606</v>
       </c>
       <c r="FE9" t="n">
-        <v>5.565866558754351e-06</v>
+        <v>0.001346973702311516</v>
       </c>
       <c r="FF9" t="n">
-        <v>3.18886191053025e-06</v>
+        <v>0.02928321994841099</v>
       </c>
       <c r="FG9" t="n">
-        <v>3.850918801617809e-06</v>
+        <v>0.009951256215572357</v>
       </c>
       <c r="FH9" t="n">
-        <v>1.374861494696233e-05</v>
+        <v>0.001231512520462275</v>
       </c>
       <c r="FI9" t="n">
-        <v>6.015174221829511e-06</v>
+        <v>0.01040364429354668</v>
       </c>
       <c r="FJ9" t="n">
-        <v>3.095128704444505e-06</v>
+        <v>0.009545784443616867</v>
       </c>
       <c r="FK9" t="n">
-        <v>5.733902071369812e-06</v>
+        <v>0.02566322684288025</v>
       </c>
       <c r="FL9" t="n">
-        <v>3.052576721529476e-05</v>
+        <v>0.02236183732748032</v>
       </c>
       <c r="FM9" t="n">
-        <v>1.010454252536874e-05</v>
+        <v>0.006501747760921717</v>
       </c>
       <c r="FN9" t="n">
-        <v>1.706550756352954e-05</v>
+        <v>0.01244063675403595</v>
       </c>
       <c r="FO9" t="n">
-        <v>9.070312216863385e-07</v>
+        <v>0.01253874599933624</v>
       </c>
       <c r="FP9" t="n">
-        <v>3.607829512475291e-06</v>
+        <v>0.03577987849712372</v>
       </c>
       <c r="FQ9" t="n">
-        <v>8.930079275160097e-06</v>
+        <v>0.0606653019785881</v>
       </c>
       <c r="FR9" t="n">
-        <v>2.35073111980455e-05</v>
+        <v>0.02987411804497242</v>
       </c>
       <c r="FS9" t="n">
-        <v>2.087385655613616e-05</v>
+        <v>0.07053043693304062</v>
       </c>
       <c r="FT9" t="n">
-        <v>1.672628059168346e-05</v>
+        <v>0.0330728143453598</v>
       </c>
       <c r="FU9" t="n">
-        <v>5.27079919265816e-07</v>
+        <v>0.01312750857323408</v>
       </c>
       <c r="FV9" t="n">
-        <v>1.070090365828946e-05</v>
+        <v>0.01215015724301338</v>
       </c>
       <c r="FW9" t="n">
-        <v>1.692866135272197e-06</v>
+        <v>0.009923426434397697</v>
       </c>
       <c r="FX9" t="n">
-        <v>3.169353135490383e-07</v>
+        <v>0.001471253111958504</v>
       </c>
       <c r="FY9" t="n">
-        <v>2.127997686329763e-05</v>
+        <v>0.02805379405617714</v>
       </c>
       <c r="FZ9" t="n">
-        <v>3.760043910006061e-06</v>
+        <v>0.002324323635548353</v>
       </c>
       <c r="GA9" t="n">
-        <v>8.295025509141851e-06</v>
+        <v>0.02624045312404633</v>
       </c>
       <c r="GB9" t="n">
-        <v>2.423435944365337e-05</v>
+        <v>0.02638378366827965</v>
       </c>
       <c r="GC9" t="n">
-        <v>2.267894524266012e-05</v>
+        <v>0.0776946172118187</v>
       </c>
       <c r="GD9" t="n">
-        <v>7.221103260235395e-06</v>
+        <v>0.0222325436770916</v>
       </c>
       <c r="GE9" t="n">
-        <v>8.065902648013434e-07</v>
+        <v>0.09915392845869064</v>
       </c>
       <c r="GF9" t="n">
-        <v>1.994389276660513e-05</v>
+        <v>0.02979398332536221</v>
       </c>
       <c r="GG9" t="n">
-        <v>6.828612413301016e-07</v>
+        <v>0.009096654132008553</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4.947689546952461e-08</v>
+        <v>9.29248271859251e-05</v>
       </c>
       <c r="B10" t="n">
-        <v>1.287984900955053e-06</v>
+        <v>0.0009602078353054821</v>
       </c>
       <c r="C10" t="n">
-        <v>1.145853957496001e-06</v>
+        <v>0.0001190242182929069</v>
       </c>
       <c r="D10" t="n">
-        <v>4.060990704601863e-06</v>
+        <v>0.0004263363662175834</v>
       </c>
       <c r="E10" t="n">
-        <v>5.472435873343784e-07</v>
+        <v>0.0001209976326208562</v>
       </c>
       <c r="F10" t="n">
-        <v>8.063869216812236e-08</v>
+        <v>0.0002121913566952571</v>
       </c>
       <c r="G10" t="n">
-        <v>2.728157824094524e-07</v>
+        <v>4.45679179392755e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>8.8282462229472e-07</v>
+        <v>2.843296351784375e-05</v>
       </c>
       <c r="I10" t="n">
-        <v>7.145363269955851e-07</v>
+        <v>4.424458529683761e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>3.124751231098344e-07</v>
+        <v>0.0001526145933894441</v>
       </c>
       <c r="K10" t="n">
-        <v>1.284092945752491e-06</v>
+        <v>0.0006861532456241548</v>
       </c>
       <c r="L10" t="n">
-        <v>9.564147376295296e-07</v>
+        <v>8.304520633828361e-06</v>
       </c>
       <c r="M10" t="n">
-        <v>3.581703822419513e-06</v>
+        <v>0.0004016170569229871</v>
       </c>
       <c r="N10" t="n">
-        <v>3.427544470469002e-09</v>
+        <v>0.0002037122030742466</v>
       </c>
       <c r="O10" t="n">
-        <v>1.15957845991943e-06</v>
+        <v>0.0002124122111126781</v>
       </c>
       <c r="P10" t="n">
-        <v>2.813475816765276e-07</v>
+        <v>1.832617635955103e-05</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.47812841078121e-06</v>
+        <v>8.67567359819077e-05</v>
       </c>
       <c r="R10" t="n">
-        <v>3.856592343254306e-07</v>
+        <v>9.36440919758752e-05</v>
       </c>
       <c r="S10" t="n">
-        <v>2.190667345303154e-07</v>
+        <v>1.345440523436991e-05</v>
       </c>
       <c r="T10" t="n">
-        <v>1.964199185522375e-07</v>
+        <v>0.0001241357676917687</v>
       </c>
       <c r="U10" t="n">
-        <v>5.85211630266258e-08</v>
+        <v>3.131398625555448e-05</v>
       </c>
       <c r="V10" t="n">
-        <v>7.968793624968384e-09</v>
+        <v>8.925217116484419e-05</v>
       </c>
       <c r="W10" t="n">
-        <v>1.690166868684173e-06</v>
+        <v>2.913844582508318e-05</v>
       </c>
       <c r="X10" t="n">
-        <v>3.566908048924233e-07</v>
+        <v>0.0001293906097998843</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.957286883680354e-07</v>
+        <v>6.577553722308949e-05</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.090642172130174e-07</v>
+        <v>2.061162376776338e-06</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.625979564323643e-07</v>
+        <v>6.220952491275966e-05</v>
       </c>
       <c r="AB10" t="n">
-        <v>6.837661885583657e-07</v>
+        <v>3.746399670490064e-05</v>
       </c>
       <c r="AC10" t="n">
-        <v>2.184927261339453e-08</v>
+        <v>0.000162256445037201</v>
       </c>
       <c r="AD10" t="n">
-        <v>3.649825828233588e-07</v>
+        <v>1.317101487074979e-05</v>
       </c>
       <c r="AE10" t="n">
-        <v>6.173319206936867e-07</v>
+        <v>1.004857131192693e-05</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.125157827023941e-07</v>
+        <v>7.959078357089311e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>5.13460804540955e-07</v>
+        <v>7.11145912646316e-05</v>
       </c>
       <c r="AH10" t="n">
-        <v>1.731995382669993e-07</v>
+        <v>6.683660467388108e-05</v>
       </c>
       <c r="AI10" t="n">
-        <v>3.049286476652924e-07</v>
+        <v>3.375468077138066e-05</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1.218517553525089e-07</v>
+        <v>6.900439984747209e-06</v>
       </c>
       <c r="AK10" t="n">
-        <v>6.252938646866824e-07</v>
+        <v>5.525862070498988e-05</v>
       </c>
       <c r="AL10" t="n">
-        <v>1.565499161415573e-07</v>
+        <v>9.243221575161442e-05</v>
       </c>
       <c r="AM10" t="n">
-        <v>2.395727847215312e-07</v>
+        <v>1.428309587936383e-05</v>
       </c>
       <c r="AN10" t="n">
-        <v>5.788741646028939e-07</v>
+        <v>3.590852429624647e-05</v>
       </c>
       <c r="AO10" t="n">
-        <v>1.650328016467029e-07</v>
+        <v>6.764299178030342e-05</v>
       </c>
       <c r="AP10" t="n">
-        <v>3.9644422145102e-07</v>
+        <v>0.0001315701229032129</v>
       </c>
       <c r="AQ10" t="n">
-        <v>2.134812504550609e-08</v>
+        <v>2.141619006579276e-05</v>
       </c>
       <c r="AR10" t="n">
-        <v>7.405918012182156e-08</v>
+        <v>5.773724842583761e-05</v>
       </c>
       <c r="AS10" t="n">
-        <v>8.314729882386018e-08</v>
+        <v>6.257036147871986e-05</v>
       </c>
       <c r="AT10" t="n">
-        <v>5.265093250272912e-07</v>
+        <v>2.807096825563349e-05</v>
       </c>
       <c r="AU10" t="n">
-        <v>8.275070513263927e-07</v>
+        <v>0.0005754437297582626</v>
       </c>
       <c r="AV10" t="n">
-        <v>5.450573326015729e-09</v>
+        <v>3.231139271520078e-05</v>
       </c>
       <c r="AW10" t="n">
-        <v>1.616070676391246e-06</v>
+        <v>2.661264261405449e-05</v>
       </c>
       <c r="AX10" t="n">
-        <v>2.298649661724994e-07</v>
+        <v>8.071483171079308e-05</v>
       </c>
       <c r="AY10" t="n">
-        <v>2.01717767822629e-07</v>
+        <v>5.514610165846534e-05</v>
       </c>
       <c r="AZ10" t="n">
-        <v>5.201701469559339e-07</v>
+        <v>3.533172275638208e-05</v>
       </c>
       <c r="BA10" t="n">
-        <v>7.739058673905674e-07</v>
+        <v>0.0001081355439964682</v>
       </c>
       <c r="BB10" t="n">
-        <v>5.612326958726044e-07</v>
+        <v>5.403861723607406e-05</v>
       </c>
       <c r="BC10" t="n">
-        <v>3.885164403527597e-07</v>
+        <v>4.525364784058183e-05</v>
       </c>
       <c r="BD10" t="n">
-        <v>6.377969157256302e-07</v>
+        <v>0.0001508274144725874</v>
       </c>
       <c r="BE10" t="n">
-        <v>5.578357331614825e-09</v>
+        <v>0.0001522255188319832</v>
       </c>
       <c r="BF10" t="n">
-        <v>1.641578137423494e-06</v>
+        <v>0.000144451652886346</v>
       </c>
       <c r="BG10" t="n">
-        <v>2.795988862658305e-08</v>
+        <v>0.0002893315686378628</v>
       </c>
       <c r="BH10" t="n">
-        <v>6.499803362203238e-07</v>
+        <v>0.0001081589289242402</v>
       </c>
       <c r="BI10" t="n">
-        <v>5.513468863682647e-07</v>
+        <v>0.0001037025067489594</v>
       </c>
       <c r="BJ10" t="n">
-        <v>7.931085121981596e-08</v>
+        <v>0.0001149271047324874</v>
       </c>
       <c r="BK10" t="n">
-        <v>1.05858788401747e-09</v>
+        <v>3.037954593310133e-05</v>
       </c>
       <c r="BL10" t="n">
-        <v>2.498801734418521e-07</v>
+        <v>6.811328057665378e-05</v>
       </c>
       <c r="BM10" t="n">
-        <v>4.013175782802136e-07</v>
+        <v>4.833205457543954e-05</v>
       </c>
       <c r="BN10" t="n">
-        <v>3.759400328817719e-07</v>
+        <v>6.46859043627046e-05</v>
       </c>
       <c r="BO10" t="n">
-        <v>1.051412823471765e-08</v>
+        <v>4.234734660713002e-05</v>
       </c>
       <c r="BP10" t="n">
-        <v>8.290626851703564e-09</v>
+        <v>7.811940304236487e-05</v>
       </c>
       <c r="BQ10" t="n">
-        <v>3.968920907482243e-07</v>
+        <v>6.143951031845063e-05</v>
       </c>
       <c r="BR10" t="n">
-        <v>1.543581333862676e-07</v>
+        <v>0.0001153004996012896</v>
       </c>
       <c r="BS10" t="n">
-        <v>3.228934701837716e-07</v>
+        <v>4.678382538259029e-05</v>
       </c>
       <c r="BT10" t="n">
-        <v>1.759492533892626e-07</v>
+        <v>5.912634878768586e-05</v>
       </c>
       <c r="BU10" t="n">
-        <v>6.602592748095049e-07</v>
+        <v>2.997397314175032e-05</v>
       </c>
       <c r="BV10" t="n">
-        <v>3.684729108499596e-07</v>
+        <v>0.0002911311748903245</v>
       </c>
       <c r="BW10" t="n">
-        <v>1.357074665975233e-07</v>
+        <v>8.1198952102568e-05</v>
       </c>
       <c r="BX10" t="n">
-        <v>1.484522954342538e-06</v>
+        <v>5.011458051740192e-05</v>
       </c>
       <c r="BY10" t="n">
-        <v>4.367574035768484e-08</v>
+        <v>1.724799585645087e-05</v>
       </c>
       <c r="BZ10" t="n">
-        <v>5.949269166194426e-08</v>
+        <v>0.0001156676662503742</v>
       </c>
       <c r="CA10" t="n">
-        <v>2.692180487429141e-07</v>
+        <v>2.6647785489331e-05</v>
       </c>
       <c r="CB10" t="n">
-        <v>5.971796213088965e-07</v>
+        <v>1.269885797228198e-05</v>
       </c>
       <c r="CC10" t="n">
-        <v>6.619445116484712e-07</v>
+        <v>5.174995021661744e-05</v>
       </c>
       <c r="CD10" t="n">
-        <v>7.398737125186017e-07</v>
+        <v>2.370664515183307e-05</v>
       </c>
       <c r="CE10" t="n">
-        <v>3.607427743190783e-07</v>
+        <v>0.0001725475594867021</v>
       </c>
       <c r="CF10" t="n">
-        <v>1.278822594485973e-07</v>
+        <v>4.992624599253759e-05</v>
       </c>
       <c r="CG10" t="n">
-        <v>8.561088407077477e-07</v>
+        <v>4.33750064985361e-05</v>
       </c>
       <c r="CH10" t="n">
-        <v>1.654319703447982e-07</v>
+        <v>5.779601269750856e-05</v>
       </c>
       <c r="CI10" t="n">
-        <v>2.666470209078398e-07</v>
+        <v>3.433287929510698e-05</v>
       </c>
       <c r="CJ10" t="n">
-        <v>6.564442855960806e-08</v>
+        <v>5.756120299338363e-05</v>
       </c>
       <c r="CK10" t="n">
-        <v>1.267036253693732e-07</v>
+        <v>8.432678441749886e-06</v>
       </c>
       <c r="CL10" t="n">
-        <v>3.41028183470371e-08</v>
+        <v>1.707423507468775e-05</v>
       </c>
       <c r="CM10" t="n">
-        <v>3.582866838769405e-07</v>
+        <v>9.441334987059236e-05</v>
       </c>
       <c r="CN10" t="n">
-        <v>2.720358907026821e-07</v>
+        <v>2.389423116255784e-06</v>
       </c>
       <c r="CO10" t="n">
-        <v>9.116513410845073e-07</v>
+        <v>2.924538421211764e-05</v>
       </c>
       <c r="CP10" t="n">
-        <v>9.974459089789889e-07</v>
+        <v>0.0001140327585744672</v>
       </c>
       <c r="CQ10" t="n">
-        <v>1.458044721402985e-06</v>
+        <v>0.0001272347290068865</v>
       </c>
       <c r="CR10" t="n">
-        <v>1.360750275125611e-06</v>
+        <v>0.0001427859533578157</v>
       </c>
       <c r="CS10" t="n">
-        <v>3.139848843147774e-07</v>
+        <v>5.015061469748616e-05</v>
       </c>
       <c r="CT10" t="n">
-        <v>1.049323401502988e-07</v>
+        <v>4.732814340968616e-05</v>
       </c>
       <c r="CU10" t="n">
-        <v>4.539489850685641e-08</v>
+        <v>2.986874096677639e-05</v>
       </c>
       <c r="CV10" t="n">
-        <v>7.860315349716984e-07</v>
+        <v>2.075573138426989e-05</v>
       </c>
       <c r="CW10" t="n">
-        <v>4.851386279369763e-07</v>
+        <v>0.0001575856149429455</v>
       </c>
       <c r="CX10" t="n">
-        <v>7.283288994130999e-08</v>
+        <v>6.020695946062915e-05</v>
       </c>
       <c r="CY10" t="n">
-        <v>7.963456027937355e-07</v>
+        <v>6.71848320052959e-05</v>
       </c>
       <c r="CZ10" t="n">
-        <v>1.546326444668011e-07</v>
+        <v>5.49971082364209e-05</v>
       </c>
       <c r="DA10" t="n">
-        <v>1.807945864129579e-07</v>
+        <v>4.860815170104615e-05</v>
       </c>
       <c r="DB10" t="n">
-        <v>1.783108771746811e-08</v>
+        <v>6.131405825726688e-05</v>
       </c>
       <c r="DC10" t="n">
-        <v>1.380360181713058e-08</v>
+        <v>1.82713774847798e-05</v>
       </c>
       <c r="DD10" t="n">
-        <v>3.58965124291899e-08</v>
+        <v>1.454955054214224e-06</v>
       </c>
       <c r="DE10" t="n">
-        <v>1.07905805180053e-06</v>
+        <v>9.721504466142505e-05</v>
       </c>
       <c r="DF10" t="n">
-        <v>2.310506346248076e-07</v>
+        <v>0.0002239989553345367</v>
       </c>
       <c r="DG10" t="n">
-        <v>7.92160676610365e-07</v>
+        <v>4.78887050121557e-05</v>
       </c>
       <c r="DH10" t="n">
-        <v>2.957818310278526e-07</v>
+        <v>0.0002436225477140397</v>
       </c>
       <c r="DI10" t="n">
-        <v>7.352883812927757e-07</v>
+        <v>2.269034848723095e-05</v>
       </c>
       <c r="DJ10" t="n">
-        <v>3.181008594310697e-07</v>
+        <v>9.316961950389668e-06</v>
       </c>
       <c r="DK10" t="n">
-        <v>2.734255133418628e-07</v>
+        <v>2.523056537029333e-05</v>
       </c>
       <c r="DL10" t="n">
-        <v>7.89086811892048e-07</v>
+        <v>6.175834278110415e-05</v>
       </c>
       <c r="DM10" t="n">
-        <v>1.21662040442061e-08</v>
+        <v>3.016453410964459e-05</v>
       </c>
       <c r="DN10" t="n">
-        <v>6.013081019773381e-07</v>
+        <v>7.193331111920998e-05</v>
       </c>
       <c r="DO10" t="n">
-        <v>2.350655314842243e-08</v>
+        <v>7.791955431457609e-05</v>
       </c>
       <c r="DP10" t="n">
-        <v>1.762987409392736e-07</v>
+        <v>3.088244920945726e-05</v>
       </c>
       <c r="DQ10" t="n">
-        <v>1.060036822764232e-07</v>
+        <v>4.365265704109333e-05</v>
       </c>
       <c r="DR10" t="n">
-        <v>7.535933264080086e-07</v>
+        <v>0.00012402911670506</v>
       </c>
       <c r="DS10" t="n">
-        <v>2.871624360523128e-07</v>
+        <v>4.741940938401967e-05</v>
       </c>
       <c r="DT10" t="n">
-        <v>3.714684453370865e-07</v>
+        <v>2.13382863876177e-05</v>
       </c>
       <c r="DU10" t="n">
-        <v>2.298233852116027e-07</v>
+        <v>1.415470615029335e-05</v>
       </c>
       <c r="DV10" t="n">
-        <v>3.107793418166693e-07</v>
+        <v>1.256005634786561e-05</v>
       </c>
       <c r="DW10" t="n">
-        <v>1.371662960991671e-07</v>
+        <v>4.032808647025377e-06</v>
       </c>
       <c r="DX10" t="n">
-        <v>1.575433259404235e-07</v>
+        <v>3.135056249448098e-05</v>
       </c>
       <c r="DY10" t="n">
-        <v>2.682262163489213e-07</v>
+        <v>9.447232878301293e-05</v>
       </c>
       <c r="DZ10" t="n">
-        <v>5.470582209454733e-07</v>
+        <v>2.101681275235023e-06</v>
       </c>
       <c r="EA10" t="n">
-        <v>3.295781141332554e-07</v>
+        <v>0.0001246175088454038</v>
       </c>
       <c r="EB10" t="n">
-        <v>4.520790639617189e-07</v>
+        <v>5.341026553651318e-05</v>
       </c>
       <c r="EC10" t="n">
-        <v>1.310830910483674e-08</v>
+        <v>1.943493043654598e-05</v>
       </c>
       <c r="ED10" t="n">
-        <v>1.060322603052555e-07</v>
+        <v>6.502070391434245e-06</v>
       </c>
       <c r="EE10" t="n">
-        <v>4.253519989561028e-07</v>
+        <v>2.145686630683485e-05</v>
       </c>
       <c r="EF10" t="n">
-        <v>2.999751700372144e-07</v>
+        <v>2.038750244537368e-05</v>
       </c>
       <c r="EG10" t="n">
-        <v>2.725289789395902e-07</v>
+        <v>9.763566049514338e-05</v>
       </c>
       <c r="EH10" t="n">
-        <v>1.511322835767714e-07</v>
+        <v>4.181356052868068e-05</v>
       </c>
       <c r="EI10" t="n">
-        <v>1.259046257473528e-06</v>
+        <v>1.944341238413472e-05</v>
       </c>
       <c r="EJ10" t="n">
-        <v>5.307040851221245e-07</v>
+        <v>5.929839244345203e-05</v>
       </c>
       <c r="EK10" t="n">
-        <v>3.972633919602231e-07</v>
+        <v>2.00560680241324e-05</v>
       </c>
       <c r="EL10" t="n">
-        <v>4.923698782022257e-09</v>
+        <v>7.993593317223713e-05</v>
       </c>
       <c r="EM10" t="n">
-        <v>5.232433863966435e-07</v>
+        <v>2.258497625007294e-05</v>
       </c>
       <c r="EN10" t="n">
-        <v>2.287993616789663e-08</v>
+        <v>8.452588190266397e-06</v>
       </c>
       <c r="EO10" t="n">
-        <v>7.109134116944915e-07</v>
+        <v>4.435816299519502e-05</v>
       </c>
       <c r="EP10" t="n">
-        <v>5.26965152403136e-07</v>
+        <v>0.0001554683258291334</v>
       </c>
       <c r="EQ10" t="n">
-        <v>7.748653843009379e-07</v>
+        <v>2.862950714188628e-05</v>
       </c>
       <c r="ER10" t="n">
-        <v>1.223526453486556e-07</v>
+        <v>6.575325096491724e-05</v>
       </c>
       <c r="ES10" t="n">
-        <v>4.103088144802314e-07</v>
+        <v>9.720538946567103e-05</v>
       </c>
       <c r="ET10" t="n">
-        <v>1.958429152182362e-08</v>
+        <v>0.0001440073101548478</v>
       </c>
       <c r="EU10" t="n">
-        <v>1.96597483181904e-07</v>
+        <v>9.010813664644957e-05</v>
       </c>
       <c r="EV10" t="n">
-        <v>4.683062115873327e-08</v>
+        <v>4.496745532378554e-05</v>
       </c>
       <c r="EW10" t="n">
-        <v>1.199274493046687e-07</v>
+        <v>3.121978807030246e-06</v>
       </c>
       <c r="EX10" t="n">
-        <v>5.856084612787527e-07</v>
+        <v>4.050009465572657e-06</v>
       </c>
       <c r="EY10" t="n">
-        <v>4.005642040283419e-07</v>
+        <v>0.0001595761714270338</v>
       </c>
       <c r="EZ10" t="n">
-        <v>1.855677282946999e-07</v>
+        <v>2.285703158122487e-05</v>
       </c>
       <c r="FA10" t="n">
-        <v>7.158134849305497e-07</v>
+        <v>6.382596620824188e-05</v>
       </c>
       <c r="FB10" t="n">
-        <v>2.825682372531446e-07</v>
+        <v>5.007538129575551e-05</v>
       </c>
       <c r="FC10" t="n">
-        <v>2.638733178628172e-07</v>
+        <v>4.666752647608519e-05</v>
       </c>
       <c r="FD10" t="n">
-        <v>2.200555826448181e-08</v>
+        <v>6.785131699871272e-05</v>
       </c>
       <c r="FE10" t="n">
-        <v>1.353832885797601e-07</v>
+        <v>2.738295734161511e-05</v>
       </c>
       <c r="FF10" t="n">
-        <v>3.594466591039236e-08</v>
+        <v>2.762617805274203e-05</v>
       </c>
       <c r="FG10" t="n">
-        <v>3.878054997130675e-07</v>
+        <v>2.686364496184979e-06</v>
       </c>
       <c r="FH10" t="n">
-        <v>1.81776073304718e-07</v>
+        <v>2.683207821974065e-05</v>
       </c>
       <c r="FI10" t="n">
-        <v>2.937004524028453e-07</v>
+        <v>2.637812758621294e-05</v>
       </c>
       <c r="FJ10" t="n">
-        <v>7.398350021503575e-07</v>
+        <v>7.634596840944141e-05</v>
       </c>
       <c r="FK10" t="n">
-        <v>4.003878188996168e-07</v>
+        <v>5.168620918993838e-05</v>
       </c>
       <c r="FL10" t="n">
-        <v>6.102568477217574e-07</v>
+        <v>3.959352761739865e-05</v>
       </c>
       <c r="FM10" t="n">
-        <v>3.218326583009912e-07</v>
+        <v>3.549728717189282e-05</v>
       </c>
       <c r="FN10" t="n">
-        <v>1.449822377708188e-07</v>
+        <v>2.431657958368305e-05</v>
       </c>
       <c r="FO10" t="n">
-        <v>1.655808858913588e-07</v>
+        <v>5.188507930142805e-05</v>
       </c>
       <c r="FP10" t="n">
-        <v>2.601110793420958e-07</v>
+        <v>5.720744957216084e-05</v>
       </c>
       <c r="FQ10" t="n">
-        <v>8.021938668889561e-09</v>
+        <v>2.577585291874129e-05</v>
       </c>
       <c r="FR10" t="n">
-        <v>7.596284490318794e-07</v>
+        <v>1.299885389016708e-05</v>
       </c>
       <c r="FS10" t="n">
-        <v>7.191033546405379e-08</v>
+        <v>4.739162250189111e-05</v>
       </c>
       <c r="FT10" t="n">
-        <v>5.101328497403301e-07</v>
+        <v>0.0001480362116126344</v>
       </c>
       <c r="FU10" t="n">
-        <v>5.341747737475089e-07</v>
+        <v>1.770748713170178e-05</v>
       </c>
       <c r="FV10" t="n">
-        <v>3.23409693692156e-07</v>
+        <v>3.98587180825416e-05</v>
       </c>
       <c r="FW10" t="n">
-        <v>4.220333380544616e-07</v>
+        <v>8.14977684058249e-05</v>
       </c>
       <c r="FX10" t="n">
-        <v>1.139052798748708e-07</v>
+        <v>6.742544064763933e-05</v>
       </c>
       <c r="FY10" t="n">
-        <v>9.221020604854857e-07</v>
+        <v>6.614868470933288e-05</v>
       </c>
       <c r="FZ10" t="n">
-        <v>4.684333418936149e-07</v>
+        <v>7.431953417835757e-05</v>
       </c>
       <c r="GA10" t="n">
-        <v>4.110954421321367e-08</v>
+        <v>2.560486245783977e-05</v>
       </c>
       <c r="GB10" t="n">
-        <v>3.172058313793968e-07</v>
+        <v>2.136160765076056e-05</v>
       </c>
       <c r="GC10" t="n">
-        <v>6.083913461907287e-08</v>
+        <v>9.000859427032992e-05</v>
       </c>
       <c r="GD10" t="n">
-        <v>4.294257678338909e-07</v>
+        <v>8.166959742084146e-05</v>
       </c>
       <c r="GE10" t="n">
-        <v>2.266580736431933e-07</v>
+        <v>0.0001980181114049628</v>
       </c>
       <c r="GF10" t="n">
-        <v>6.795781359869579e-08</v>
+        <v>3.188385380781256e-05</v>
       </c>
       <c r="GG10" t="n">
-        <v>1.089987478053445e-07</v>
+        <v>1.91324797924608e-05</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.000751641346141696</v>
+        <v>0.002400087891146541</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0008883102564141154</v>
+        <v>0.02086326293647289</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0001506462867837399</v>
+        <v>0.003328201593831182</v>
       </c>
       <c r="D11" t="n">
-        <v>0.002554000122472644</v>
+        <v>0.00805305689573288</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0001951752346940339</v>
+        <v>0.004949083551764488</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0005460179527290165</v>
+        <v>0.004818160552531481</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0007073445012792945</v>
+        <v>3.637396730482578e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0004750732041429728</v>
+        <v>0.0002533479128032923</v>
       </c>
       <c r="I11" t="n">
-        <v>0.002290291478857398</v>
+        <v>0.00161838042549789</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0009488154319114983</v>
+        <v>0.001080947462469339</v>
       </c>
       <c r="K11" t="n">
-        <v>0.001150437165051699</v>
+        <v>0.0171161126345396</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0003268483851570636</v>
+        <v>0.001091355225071311</v>
       </c>
       <c r="M11" t="n">
-        <v>0.001694888109341264</v>
+        <v>0.0108789075165987</v>
       </c>
       <c r="N11" t="n">
-        <v>0.001518474775366485</v>
+        <v>0.006624635774642229</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0001224526349687949</v>
+        <v>0.00471777468919754</v>
       </c>
       <c r="P11" t="n">
-        <v>7.09288360667415e-05</v>
+        <v>0.0001456625759601593</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.0003734387864824384</v>
+        <v>0.002048826310783625</v>
       </c>
       <c r="R11" t="n">
-        <v>0.002664412837475538</v>
+        <v>0.00305851292796433</v>
       </c>
       <c r="S11" t="n">
-        <v>9.57798765739426e-05</v>
+        <v>0.0004681008867919445</v>
       </c>
       <c r="T11" t="n">
-        <v>0.0001715836260700598</v>
+        <v>0.004277513828128576</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0002619834267534316</v>
+        <v>0.001243097009137273</v>
       </c>
       <c r="V11" t="n">
-        <v>0.0001968315191334113</v>
+        <v>0.001160738174803555</v>
       </c>
       <c r="W11" t="n">
-        <v>0.002190166153013706</v>
+        <v>0.0008821027586236596</v>
       </c>
       <c r="X11" t="n">
-        <v>0.0003326442674733698</v>
+        <v>0.003646929515525699</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.0002025643916567788</v>
+        <v>0.00188277754932642</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.0009581961203366518</v>
+        <v>0.0006042517488822341</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.0002731009153649211</v>
+        <v>0.001292339293286204</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.000610812334343791</v>
+        <v>0.00256053963676095</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.0005065642762929201</v>
+        <v>0.003160098800435662</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.0005471938056871295</v>
+        <v>0.0003527516091708094</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.0005298309260979295</v>
+        <v>0.0007945683901198208</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.0009423797600902617</v>
+        <v>0.0002247653901576996</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.0001770627859514207</v>
+        <v>0.00139406556263566</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.0003069654339924455</v>
+        <v>0.0008847899734973907</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.000291716685751453</v>
+        <v>0.0006442695157602429</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.0003633331798482686</v>
+        <v>0.0003706058487296104</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.0008834166219457984</v>
+        <v>3.147026291117072e-06</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.0003398397238925099</v>
+        <v>0.003131942357867956</v>
       </c>
       <c r="AM11" t="n">
-        <v>9.059101284947246e-05</v>
+        <v>0.0003122077032458037</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.0003766173031181097</v>
+        <v>0.0007233849610202014</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.0002261907065985724</v>
+        <v>0.001383369090035558</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.0006744212587364018</v>
+        <v>0.002053335541859269</v>
       </c>
       <c r="AQ11" t="n">
-        <v>9.682124073151499e-05</v>
+        <v>0.0005245800130069256</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.0004585374554153532</v>
+        <v>0.001496597891673446</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.0001095723782782443</v>
+        <v>0.0007248935871757567</v>
       </c>
       <c r="AT11" t="n">
-        <v>5.276501178741455e-05</v>
+        <v>0.004686649423092604</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.0005014435737393796</v>
+        <v>0.0132233863696456</v>
       </c>
       <c r="AV11" t="n">
-        <v>8.337112376466393e-06</v>
+        <v>0.0007649466278962791</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.001286902697756886</v>
+        <v>0.001792573602870107</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.0001379458699375391</v>
+        <v>0.0001979765074793249</v>
       </c>
       <c r="AY11" t="n">
-        <v>0.0008138144621625543</v>
+        <v>0.0001865756639745086</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0.0002766886027529836</v>
+        <v>0.0004810412065126002</v>
       </c>
       <c r="BA11" t="n">
-        <v>0.0001779482990968972</v>
+        <v>0.0003668092540465295</v>
       </c>
       <c r="BB11" t="n">
-        <v>0.0004569126467686146</v>
+        <v>0.0002611672971397638</v>
       </c>
       <c r="BC11" t="n">
-        <v>0.0002490291662979871</v>
+        <v>0.0004391228721942753</v>
       </c>
       <c r="BD11" t="n">
-        <v>0.0004014521255157888</v>
+        <v>0.003527452237904072</v>
       </c>
       <c r="BE11" t="n">
-        <v>0.0005577764241024852</v>
+        <v>0.003490682225674391</v>
       </c>
       <c r="BF11" t="n">
-        <v>0.0007584861014038324</v>
+        <v>0.002280109561979771</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.0002231998223578557</v>
+        <v>0.008003660477697849</v>
       </c>
       <c r="BH11" t="n">
-        <v>0.0004432429559528828</v>
+        <v>0.002492582891136408</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.0002905039582401514</v>
+        <v>0.002432436216622591</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.0007102400995790958</v>
+        <v>0.001004689838737249</v>
       </c>
       <c r="BK11" t="n">
-        <v>0.001281698816455901</v>
+        <v>0.002361099002882838</v>
       </c>
       <c r="BL11" t="n">
-        <v>0.0003993836580775678</v>
+        <v>0.00163504877127707</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.0006294031627476215</v>
+        <v>1.690443605184555e-05</v>
       </c>
       <c r="BN11" t="n">
-        <v>0.0004008691757917404</v>
+        <v>0.00116668245755136</v>
       </c>
       <c r="BO11" t="n">
-        <v>0.0005683337803930044</v>
+        <v>0.0001076827466022223</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.0003209433052688837</v>
+        <v>0.0003238051722291857</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0.000587972579523921</v>
+        <v>0.002244824543595314</v>
       </c>
       <c r="BR11" t="n">
-        <v>0.0004579135274980217</v>
+        <v>0.0005279426695778966</v>
       </c>
       <c r="BS11" t="n">
-        <v>0.0006728539010509849</v>
+        <v>0.0004794353735633194</v>
       </c>
       <c r="BT11" t="n">
-        <v>0.0001157344522653148</v>
+        <v>0.0008119421545416117</v>
       </c>
       <c r="BU11" t="n">
-        <v>0.0007763936882838607</v>
+        <v>0.002991957357153296</v>
       </c>
       <c r="BV11" t="n">
-        <v>0.0002697411691769958</v>
+        <v>0.008101101033389568</v>
       </c>
       <c r="BW11" t="n">
-        <v>0.0004944403772242367</v>
+        <v>0.002278680913150311</v>
       </c>
       <c r="BX11" t="n">
-        <v>0.000952868431340903</v>
+        <v>0.002854656893759966</v>
       </c>
       <c r="BY11" t="n">
-        <v>0.0001562076358823106</v>
+        <v>0.002580805215984583</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0.0005347292753867805</v>
+        <v>0.001575439353473485</v>
       </c>
       <c r="CA11" t="n">
-        <v>8.54425597935915e-05</v>
+        <v>0.0005031974287703633</v>
       </c>
       <c r="CB11" t="n">
-        <v>0.0001741202140692621</v>
+        <v>0.0007414545980282128</v>
       </c>
       <c r="CC11" t="n">
-        <v>0.0009790553012862802</v>
+        <v>0.0007330332882702351</v>
       </c>
       <c r="CD11" t="n">
-        <v>0.0008600152796134353</v>
+        <v>0.0001272474473807961</v>
       </c>
       <c r="CE11" t="n">
-        <v>0.0002001497778110206</v>
+        <v>0.003448279108852148</v>
       </c>
       <c r="CF11" t="n">
-        <v>9.713332838146016e-05</v>
+        <v>0.0008288873941637576</v>
       </c>
       <c r="CG11" t="n">
-        <v>0.000504789873957634</v>
+        <v>0.001126742106862366</v>
       </c>
       <c r="CH11" t="n">
-        <v>6.251532613532618e-05</v>
+        <v>0.0008398295613005757</v>
       </c>
       <c r="CI11" t="n">
-        <v>0.0004232624487485737</v>
+        <v>0.0009398341062478721</v>
       </c>
       <c r="CJ11" t="n">
-        <v>8.684716704010498e-06</v>
+        <v>0.0008049925090745091</v>
       </c>
       <c r="CK11" t="n">
-        <v>7.004328654147685e-05</v>
+        <v>0.0002681688347365707</v>
       </c>
       <c r="CL11" t="n">
-        <v>0.0003343569987919182</v>
+        <v>0.000339919060934335</v>
       </c>
       <c r="CM11" t="n">
-        <v>0.0001905109238578007</v>
+        <v>0.002686587395146489</v>
       </c>
       <c r="CN11" t="n">
-        <v>1.490177237428725e-05</v>
+        <v>0.001731200143694878</v>
       </c>
       <c r="CO11" t="n">
-        <v>0.0005679986206814647</v>
+        <v>0.0003295050119049847</v>
       </c>
       <c r="CP11" t="n">
-        <v>0.0004033587756566703</v>
+        <v>0.0003806061577051878</v>
       </c>
       <c r="CQ11" t="n">
-        <v>0.0001196270095533691</v>
+        <v>0.002719829557463527</v>
       </c>
       <c r="CR11" t="n">
-        <v>0.001665325136855245</v>
+        <v>0.001640174654312432</v>
       </c>
       <c r="CS11" t="n">
-        <v>0.0002695411094464362</v>
+        <v>0.0007140969391912222</v>
       </c>
       <c r="CT11" t="n">
-        <v>0.0002554002276156098</v>
+        <v>0.001977280247956514</v>
       </c>
       <c r="CU11" t="n">
-        <v>0.0005342905060388148</v>
+        <v>0.0002963742590509355</v>
       </c>
       <c r="CV11" t="n">
-        <v>0.0007887550164014101</v>
+        <v>0.0001539624645374715</v>
       </c>
       <c r="CW11" t="n">
-        <v>0.0003393402730580419</v>
+        <v>0.003037355840206146</v>
       </c>
       <c r="CX11" t="n">
-        <v>4.149560118094087e-05</v>
+        <v>0.001077291439287364</v>
       </c>
       <c r="CY11" t="n">
-        <v>0.0005557726835832</v>
+        <v>0.001266861450858414</v>
       </c>
       <c r="CZ11" t="n">
-        <v>0.0001755924167810008</v>
+        <v>0.0004720918950624764</v>
       </c>
       <c r="DA11" t="n">
-        <v>0.0003268077271059155</v>
+        <v>0.001609801314771175</v>
       </c>
       <c r="DB11" t="n">
-        <v>5.534177034860477e-06</v>
+        <v>0.0008137103286571801</v>
       </c>
       <c r="DC11" t="n">
-        <v>6.239505455596372e-05</v>
+        <v>8.924410212785006e-05</v>
       </c>
       <c r="DD11" t="n">
-        <v>0.0003026887134183198</v>
+        <v>0.000212775485124439</v>
       </c>
       <c r="DE11" t="n">
-        <v>0.001146524911746383</v>
+        <v>0.0006846435717307031</v>
       </c>
       <c r="DF11" t="n">
-        <v>8.331428398378193e-05</v>
+        <v>0.005808839574456215</v>
       </c>
       <c r="DG11" t="n">
-        <v>0.001186181558296084</v>
+        <v>0.001550544751808047</v>
       </c>
       <c r="DH11" t="n">
-        <v>0.000915012089535594</v>
+        <v>0.004400128033012152</v>
       </c>
       <c r="DI11" t="n">
-        <v>0.000471312232548371</v>
+        <v>5.282042548060417e-05</v>
       </c>
       <c r="DJ11" t="n">
-        <v>0.0004248176119290292</v>
+        <v>0.002774310298264027</v>
       </c>
       <c r="DK11" t="n">
-        <v>0.0007667469908483326</v>
+        <v>0.0002258592285215855</v>
       </c>
       <c r="DL11" t="n">
-        <v>0.0004309164942242205</v>
+        <v>0.0009777197847142816</v>
       </c>
       <c r="DM11" t="n">
-        <v>3.024809120688587e-05</v>
+        <v>0.0003026396443601698</v>
       </c>
       <c r="DN11" t="n">
-        <v>0.0004740629519801587</v>
+        <v>0.000779853668063879</v>
       </c>
       <c r="DO11" t="n">
-        <v>6.052656681276858e-05</v>
+        <v>0.00106484058778733</v>
       </c>
       <c r="DP11" t="n">
-        <v>0.0001909569255076349</v>
+        <v>0.001463065738789737</v>
       </c>
       <c r="DQ11" t="n">
-        <v>0.0007644419674761593</v>
+        <v>0.0003838532138615847</v>
       </c>
       <c r="DR11" t="n">
-        <v>0.0004560434026643634</v>
+        <v>0.003749038092792034</v>
       </c>
       <c r="DS11" t="n">
-        <v>0.0007499081548303366</v>
+        <v>0.001087315031327307</v>
       </c>
       <c r="DT11" t="n">
-        <v>0.0002245957002742216</v>
+        <v>0.001453126780688763</v>
       </c>
       <c r="DU11" t="n">
-        <v>0.0006625730311498046</v>
+        <v>0.0008839767542667687</v>
       </c>
       <c r="DV11" t="n">
-        <v>0.0001987674331758171</v>
+        <v>0.0006881963345222175</v>
       </c>
       <c r="DW11" t="n">
-        <v>1.881069329101592e-05</v>
+        <v>0.0001931295410031453</v>
       </c>
       <c r="DX11" t="n">
-        <v>0.0003928053192794323</v>
+        <v>0.002506338059902191</v>
       </c>
       <c r="DY11" t="n">
-        <v>0.0001363666960969567</v>
+        <v>0.0019553960300982</v>
       </c>
       <c r="DZ11" t="n">
-        <v>0.0006757988594472408</v>
+        <v>0.002371170790866017</v>
       </c>
       <c r="EA11" t="n">
-        <v>0.0001963131508091465</v>
+        <v>0.001910612802021205</v>
       </c>
       <c r="EB11" t="n">
-        <v>0.00147739180829376</v>
+        <v>0.001904550706967711</v>
       </c>
       <c r="EC11" t="n">
-        <v>0.0001567733124829829</v>
+        <v>0.0001832349662436172</v>
       </c>
       <c r="ED11" t="n">
-        <v>0.0004473644366953522</v>
+        <v>0.0007974555483087897</v>
       </c>
       <c r="EE11" t="n">
-        <v>0.0004968332941643894</v>
+        <v>0.00166037306189537</v>
       </c>
       <c r="EF11" t="n">
-        <v>0.0006961895269341767</v>
+        <v>0.0003728047013282776</v>
       </c>
       <c r="EG11" t="n">
-        <v>0.0002247350639663637</v>
+        <v>0.001776456483639777</v>
       </c>
       <c r="EH11" t="n">
-        <v>0.0001257733092643321</v>
+        <v>0.0009981677867472172</v>
       </c>
       <c r="EI11" t="n">
-        <v>2.696136652957648e-05</v>
+        <v>0.001037450158037245</v>
       </c>
       <c r="EJ11" t="n">
-        <v>0.0007931900327093899</v>
+        <v>0.001143541885539889</v>
       </c>
       <c r="EK11" t="n">
-        <v>0.0006810968043282628</v>
+        <v>0.002336017321795225</v>
       </c>
       <c r="EL11" t="n">
-        <v>0.0002426556311547756</v>
+        <v>0.0007045168895274401</v>
       </c>
       <c r="EM11" t="n">
-        <v>0.0003651092702057213</v>
+        <v>0.000282625580439344</v>
       </c>
       <c r="EN11" t="n">
-        <v>0.000366216991096735</v>
+        <v>0.0002292058488819748</v>
       </c>
       <c r="EO11" t="n">
-        <v>0.0007340999436564744</v>
+        <v>0.0007903536316007376</v>
       </c>
       <c r="EP11" t="n">
-        <v>0.00031334935920313</v>
+        <v>0.001753928023390472</v>
       </c>
       <c r="EQ11" t="n">
-        <v>0.0007022704230621457</v>
+        <v>0.001880203955806792</v>
       </c>
       <c r="ER11" t="n">
-        <v>0.0003893344255629927</v>
+        <v>0.0004808463272638619</v>
       </c>
       <c r="ES11" t="n">
-        <v>0.0008228588267229497</v>
+        <v>0.001139806816354394</v>
       </c>
       <c r="ET11" t="n">
-        <v>7.092971645761281e-05</v>
+        <v>0.002904222579672933</v>
       </c>
       <c r="EU11" t="n">
-        <v>0.0003005521721206605</v>
+        <v>0.001025121076963842</v>
       </c>
       <c r="EV11" t="n">
-        <v>0.0001269431377295405</v>
+        <v>0.001073656138032675</v>
       </c>
       <c r="EW11" t="n">
-        <v>9.477025014348328e-05</v>
+        <v>0.0006036213599145412</v>
       </c>
       <c r="EX11" t="n">
-        <v>0.0006190586718730628</v>
+        <v>0.0005636093555949628</v>
       </c>
       <c r="EY11" t="n">
-        <v>0.0003735200443770736</v>
+        <v>0.00330331502482295</v>
       </c>
       <c r="EZ11" t="n">
-        <v>8.611417433712631e-05</v>
+        <v>0.000257569452514872</v>
       </c>
       <c r="FA11" t="n">
-        <v>0.0003925829951185733</v>
+        <v>0.001677283900789917</v>
       </c>
       <c r="FB11" t="n">
-        <v>0.0003153473080601543</v>
+        <v>0.0007105080294422805</v>
       </c>
       <c r="FC11" t="n">
-        <v>0.0004781110619660467</v>
+        <v>0.001717699225991964</v>
       </c>
       <c r="FD11" t="n">
-        <v>2.712494824663736e-05</v>
+        <v>0.0009471625089645386</v>
       </c>
       <c r="FE11" t="n">
-        <v>0.0002734771696850657</v>
+        <v>0.0003401973517611623</v>
       </c>
       <c r="FF11" t="n">
-        <v>0.0003090477257501334</v>
+        <v>0.0002764560340438038</v>
       </c>
       <c r="FG11" t="n">
-        <v>0.0004603767010848969</v>
+        <v>2.688711174414493e-05</v>
       </c>
       <c r="FH11" t="n">
-        <v>0.0005308282561600208</v>
+        <v>0.001518102013505995</v>
       </c>
       <c r="FI11" t="n">
-        <v>0.000374693248886615</v>
+        <v>0.0004308539791963995</v>
       </c>
       <c r="FJ11" t="n">
-        <v>0.0003329453757032752</v>
+        <v>0.0006654099561274052</v>
       </c>
       <c r="FK11" t="n">
-        <v>0.0001300981384702027</v>
+        <v>0.001382157555781305</v>
       </c>
       <c r="FL11" t="n">
-        <v>0.001108306692913175</v>
+        <v>0.001602979144081473</v>
       </c>
       <c r="FM11" t="n">
-        <v>0.0002128139603883028</v>
+        <v>0.0008968214970082045</v>
       </c>
       <c r="FN11" t="n">
-        <v>0.0001498412166256458</v>
+        <v>0.0003739538660738617</v>
       </c>
       <c r="FO11" t="n">
-        <v>7.787352660670877e-05</v>
+        <v>0.0008960232953540981</v>
       </c>
       <c r="FP11" t="n">
-        <v>7.481162901967764e-05</v>
+        <v>0.00367737072519958</v>
       </c>
       <c r="FQ11" t="n">
-        <v>0.001095046987757087</v>
+        <v>0.006428077816963196</v>
       </c>
       <c r="FR11" t="n">
-        <v>0.0004837749293074012</v>
+        <v>0.001330853789113462</v>
       </c>
       <c r="FS11" t="n">
-        <v>0.0009146228549070656</v>
+        <v>0.007716701366007328</v>
       </c>
       <c r="FT11" t="n">
-        <v>0.0006702697137370706</v>
+        <v>0.002129078842699528</v>
       </c>
       <c r="FU11" t="n">
-        <v>0.0007439198670908809</v>
+        <v>0.001033266540616751</v>
       </c>
       <c r="FV11" t="n">
-        <v>6.097518053138629e-05</v>
+        <v>0.0007747760391794145</v>
       </c>
       <c r="FW11" t="n">
-        <v>1.967493517440744e-05</v>
+        <v>0.0006563775241374969</v>
       </c>
       <c r="FX11" t="n">
-        <v>0.0008271542028523982</v>
+        <v>0.0006054958794265985</v>
       </c>
       <c r="FY11" t="n">
-        <v>0.001094863167963922</v>
+        <v>0.002772375475615263</v>
       </c>
       <c r="FZ11" t="n">
-        <v>0.0002579695428721607</v>
+        <v>0.001699402695521712</v>
       </c>
       <c r="GA11" t="n">
-        <v>9.162785136140883e-05</v>
+        <v>0.000772693776525557</v>
       </c>
       <c r="GB11" t="n">
-        <v>0.000266287534032017</v>
+        <v>0.0005276495357975364</v>
       </c>
       <c r="GC11" t="n">
-        <v>0.0002322723885299638</v>
+        <v>0.002483700634911656</v>
       </c>
       <c r="GD11" t="n">
-        <v>0.0001464896195102483</v>
+        <v>0.0009473227546550333</v>
       </c>
       <c r="GE11" t="n">
-        <v>0.0003459063882473856</v>
+        <v>0.003206765744835138</v>
       </c>
       <c r="GF11" t="n">
-        <v>0.0002526169701013714</v>
+        <v>0.0001912977313622832</v>
       </c>
       <c r="GG11" t="n">
-        <v>0.0002882723929360509</v>
+        <v>0.0001070374855771661</v>
       </c>
     </row>
     <row r="12">
@@ -7263,1140 +7263,1140 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.005714274477213621</v>
+        <v>6.365035369526595e-05</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0001002603676170111</v>
+        <v>0.0009989474201574922</v>
       </c>
       <c r="C13" t="n">
-        <v>0.004713661968708038</v>
+        <v>0.0001663705479586497</v>
       </c>
       <c r="D13" t="n">
-        <v>0.001897801412269473</v>
+        <v>0.0003745494759641588</v>
       </c>
       <c r="E13" t="n">
-        <v>3.617079346440732e-05</v>
+        <v>0.0008780342759564519</v>
       </c>
       <c r="F13" t="n">
-        <v>0.00032554887002334</v>
+        <v>0.0004969699075445533</v>
       </c>
       <c r="G13" t="n">
-        <v>0.001102163922041655</v>
+        <v>0.0002746826212387532</v>
       </c>
       <c r="H13" t="n">
-        <v>0.001220525940880179</v>
+        <v>0.0005006091669201851</v>
       </c>
       <c r="I13" t="n">
-        <v>0.001111506717279553</v>
+        <v>1.194061951537151e-06</v>
       </c>
       <c r="J13" t="n">
-        <v>0.00545806810259819</v>
+        <v>0.0001359459420200437</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0002051058690994978</v>
+        <v>0.0008383724489249289</v>
       </c>
       <c r="L13" t="n">
-        <v>0.004693684168159962</v>
+        <v>0.0001241407881025225</v>
       </c>
       <c r="M13" t="n">
-        <v>0.00137633690610528</v>
+        <v>0.0001926469558384269</v>
       </c>
       <c r="N13" t="n">
-        <v>0.002403930993750691</v>
+        <v>0.0008713589631952345</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0004729060165118426</v>
+        <v>0.0006061723688617349</v>
       </c>
       <c r="P13" t="n">
-        <v>0.001533116213977337</v>
+        <v>0.000155965011799708</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.001075517502613366</v>
+        <v>0.000119914322567638</v>
       </c>
       <c r="R13" t="n">
-        <v>0.001710960292257369</v>
+        <v>4.649719994631596e-05</v>
       </c>
       <c r="S13" t="n">
-        <v>0.0004338622675277293</v>
+        <v>6.355857476592064e-05</v>
       </c>
       <c r="T13" t="n">
-        <v>0.001636443776078522</v>
+        <v>0.0002645831555128098</v>
       </c>
       <c r="U13" t="n">
-        <v>2.015386417042464e-05</v>
+        <v>3.722603651112877e-05</v>
       </c>
       <c r="V13" t="n">
-        <v>0.0002164986508432776</v>
+        <v>6.503421172965318e-05</v>
       </c>
       <c r="W13" t="n">
-        <v>0.0008689319947734475</v>
+        <v>8.463764243060723e-05</v>
       </c>
       <c r="X13" t="n">
-        <v>0.0001134316407842562</v>
+        <v>0.0001543906109873205</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.0002402325626462698</v>
+        <v>4.218872345518321e-05</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.001287541585043073</v>
+        <v>6.372221105266362e-05</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.0002107433101627976</v>
+        <v>9.968992526410148e-05</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.0003627220576163381</v>
+        <v>1.005231752060354e-06</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.0001523012178950012</v>
+        <v>0.0001010931664495729</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.0003981708723586053</v>
+        <v>0.0001730940275592729</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.0004673903458751738</v>
+        <v>3.377295070094988e-05</v>
       </c>
       <c r="AF13" t="n">
-        <v>5.539004632737488e-05</v>
+        <v>8.46692782943137e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.0009396219393238425</v>
+        <v>0.0001510801957920194</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.0004863844660576433</v>
+        <v>0.0002820106165017933</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.001266628387384117</v>
+        <v>0.0001937994966283441</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.0006050345255061984</v>
+        <v>1.167828304460272e-05</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.001038342714309692</v>
+        <v>4.31941298302263e-05</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.001575421076267958</v>
+        <v>0.0003432522353250533</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.0003854144015349448</v>
+        <v>6.024324466125108e-05</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.001170645235106349</v>
+        <v>2.633731492096558e-05</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.0004234001680742949</v>
+        <v>5.660275928676128e-05</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.0009472744422964752</v>
+        <v>0.0001525242114439607</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.0002089844783768058</v>
+        <v>3.253237446187995e-05</v>
       </c>
       <c r="AR13" t="n">
-        <v>1.453046752430964e-05</v>
+        <v>0.0001204665750265121</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.0001727360067889094</v>
+        <v>8.56895640026778e-05</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.002303220331668854</v>
+        <v>0.0001710369397187606</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.001400645589455962</v>
+        <v>0.0007075258181430399</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.002368169836699963</v>
+        <v>0.0001005754238576628</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.0007088232086971402</v>
+        <v>3.067862780881114e-05</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.0004693966475315392</v>
+        <v>0.000140452990308404</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.0006600889610126615</v>
+        <v>0.0003402791917324066</v>
       </c>
       <c r="AZ13" t="n">
-        <v>2.875667996704578e-05</v>
+        <v>6.974190182518214e-05</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.001171189593151212</v>
+        <v>0.0002781597431749105</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.0006640231586061418</v>
+        <v>0.0001339044392807409</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.001405253889970481</v>
+        <v>4.776354035129771e-05</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.0003763639251701534</v>
+        <v>0.0001386060903314501</v>
       </c>
       <c r="BE13" t="n">
-        <v>0.001657005515880883</v>
+        <v>3.097090302617289e-05</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.000234620223636739</v>
+        <v>0.0002018740633502603</v>
       </c>
       <c r="BG13" t="n">
-        <v>3.003838355652988e-05</v>
+        <v>0.0006341560510918498</v>
       </c>
       <c r="BH13" t="n">
-        <v>0.0003438417334109545</v>
+        <v>7.898652256699279e-05</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.0007960761431604624</v>
+        <v>0.0002540858404245228</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.001216685632243752</v>
+        <v>4.34178946306929e-05</v>
       </c>
       <c r="BK13" t="n">
-        <v>0.0008322224603034556</v>
+        <v>4.627351154340431e-05</v>
       </c>
       <c r="BL13" t="n">
-        <v>0.0004140209057368338</v>
+        <v>0.0001525406405562535</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.000568243267480284</v>
+        <v>5.159835200174712e-05</v>
       </c>
       <c r="BN13" t="n">
-        <v>0.0008619013824500144</v>
+        <v>7.690447091590613e-05</v>
       </c>
       <c r="BO13" t="n">
-        <v>4.520103539107367e-05</v>
+        <v>1.701229484751821e-05</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.001580842304974794</v>
+        <v>8.903638808988035e-05</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0.0001801056787371635</v>
+        <v>0.000155583446030505</v>
       </c>
       <c r="BR13" t="n">
-        <v>0.0002124096208717674</v>
+        <v>7.409441604977474e-05</v>
       </c>
       <c r="BS13" t="n">
-        <v>0.000849751872010529</v>
+        <v>6.149954424472526e-05</v>
       </c>
       <c r="BT13" t="n">
-        <v>0.000301689375191927</v>
+        <v>0.0001740085717756301</v>
       </c>
       <c r="BU13" t="n">
-        <v>0.002002751920372248</v>
+        <v>0.0001546811254229397</v>
       </c>
       <c r="BV13" t="n">
-        <v>0.0006402255967259407</v>
+        <v>0.0004876434395555407</v>
       </c>
       <c r="BW13" t="n">
-        <v>0.0009725899435579777</v>
+        <v>0.000201822113012895</v>
       </c>
       <c r="BX13" t="n">
-        <v>0.001518039265647531</v>
+        <v>4.840746623813175e-05</v>
       </c>
       <c r="BY13" t="n">
-        <v>0.0001000217162072659</v>
+        <v>0.0001380419125780463</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0.001054782303981483</v>
+        <v>7.048827683320269e-05</v>
       </c>
       <c r="CA13" t="n">
-        <v>3.422343070269562e-06</v>
+        <v>1.284320751437917e-05</v>
       </c>
       <c r="CB13" t="n">
-        <v>0.0007761068409308791</v>
+        <v>8.191652887035161e-05</v>
       </c>
       <c r="CC13" t="n">
-        <v>5.344391684047878e-05</v>
+        <v>2.660672180354595e-06</v>
       </c>
       <c r="CD13" t="n">
-        <v>0.00114425178617239</v>
+        <v>1.101312045648228e-05</v>
       </c>
       <c r="CE13" t="n">
-        <v>0.001087437383830547</v>
+        <v>0.0001548003929201514</v>
       </c>
       <c r="CF13" t="n">
-        <v>0.001015663729049265</v>
+        <v>3.246691221647779e-06</v>
       </c>
       <c r="CG13" t="n">
-        <v>0.0003053648397326469</v>
+        <v>8.020149107323959e-05</v>
       </c>
       <c r="CH13" t="n">
-        <v>2.180327282985672e-05</v>
+        <v>0.0001140805470640771</v>
       </c>
       <c r="CI13" t="n">
-        <v>0.0001443499932065606</v>
+        <v>0.0001272013760171831</v>
       </c>
       <c r="CJ13" t="n">
-        <v>0.0001935185282491148</v>
+        <v>9.855190728558227e-05</v>
       </c>
       <c r="CK13" t="n">
-        <v>0.0006800573319196701</v>
+        <v>5.516811870620586e-05</v>
       </c>
       <c r="CL13" t="n">
-        <v>9.480594599153847e-05</v>
+        <v>4.094188625458628e-06</v>
       </c>
       <c r="CM13" t="n">
-        <v>3.679172368720174e-05</v>
+        <v>0.0001125091293943115</v>
       </c>
       <c r="CN13" t="n">
-        <v>0.001354242558591068</v>
+        <v>6.428410415537655e-06</v>
       </c>
       <c r="CO13" t="n">
-        <v>0.0004162199620623142</v>
+        <v>1.511960908828769e-05</v>
       </c>
       <c r="CP13" t="n">
-        <v>1.760541636031121e-05</v>
+        <v>2.323319858987816e-05</v>
       </c>
       <c r="CQ13" t="n">
-        <v>0.001049310201779008</v>
+        <v>7.022760655672755e-06</v>
       </c>
       <c r="CR13" t="n">
-        <v>0.0001120107117458247</v>
+        <v>1.864454861788545e-05</v>
       </c>
       <c r="CS13" t="n">
-        <v>7.399538299068809e-05</v>
+        <v>0.0002995783870574087</v>
       </c>
       <c r="CT13" t="n">
-        <v>0.0002855807542800903</v>
+        <v>0.0002612328389659524</v>
       </c>
       <c r="CU13" t="n">
-        <v>0.0007680777925997972</v>
+        <v>1.115133454732131e-05</v>
       </c>
       <c r="CV13" t="n">
-        <v>0.001055401284247637</v>
+        <v>2.112804213538766e-05</v>
       </c>
       <c r="CW13" t="n">
-        <v>0.001029648468829691</v>
+        <v>0.0001074285537470132</v>
       </c>
       <c r="CX13" t="n">
-        <v>0.001061532995663583</v>
+        <v>2.920085353252944e-05</v>
       </c>
       <c r="CY13" t="n">
-        <v>0.0001920119684655219</v>
+        <v>0.0001046092438627966</v>
       </c>
       <c r="CZ13" t="n">
-        <v>0.0005576993571594357</v>
+        <v>8.155334944603965e-05</v>
       </c>
       <c r="DA13" t="n">
-        <v>2.186146957683377e-06</v>
+        <v>0.0001670978090260178</v>
       </c>
       <c r="DB13" t="n">
-        <v>0.000141808413900435</v>
+        <v>6.633448356296867e-05</v>
       </c>
       <c r="DC13" t="n">
-        <v>0.0004760593583341688</v>
+        <v>4.096170232514851e-05</v>
       </c>
       <c r="DD13" t="n">
-        <v>6.450480577768758e-05</v>
+        <v>4.065093162353151e-05</v>
       </c>
       <c r="DE13" t="n">
-        <v>0.0003036977432202548</v>
+        <v>0.0001467741967644542</v>
       </c>
       <c r="DF13" t="n">
-        <v>0.002181081799790263</v>
+        <v>0.0002130674693034962</v>
       </c>
       <c r="DG13" t="n">
-        <v>0.0001570079912198707</v>
+        <v>4.978289871360175e-05</v>
       </c>
       <c r="DH13" t="n">
-        <v>0.0008529916522093117</v>
+        <v>0.0002646515786182135</v>
       </c>
       <c r="DI13" t="n">
-        <v>0.0003610957064665854</v>
+        <v>5.277543095871806e-05</v>
       </c>
       <c r="DJ13" t="n">
-        <v>0.0001683529117144644</v>
+        <v>0.0001246624015038833</v>
       </c>
       <c r="DK13" t="n">
-        <v>0.0005620883894152939</v>
+        <v>0.000195121974684298</v>
       </c>
       <c r="DL13" t="n">
-        <v>0.000364358100341633</v>
+        <v>2.720341944950633e-05</v>
       </c>
       <c r="DM13" t="n">
-        <v>0.000571182114072144</v>
+        <v>7.20583375368733e-06</v>
       </c>
       <c r="DN13" t="n">
-        <v>5.250284448266029e-05</v>
+        <v>1.566429273225367e-05</v>
       </c>
       <c r="DO13" t="n">
-        <v>0.001088226679712534</v>
+        <v>3.924602788174525e-05</v>
       </c>
       <c r="DP13" t="n">
-        <v>0.0003541562473401427</v>
+        <v>0.0001043174852384254</v>
       </c>
       <c r="DQ13" t="n">
-        <v>0.000224925737711601</v>
+        <v>0.0002997980336658657</v>
       </c>
       <c r="DR13" t="n">
-        <v>8.566411270294338e-05</v>
+        <v>7.972292223712429e-05</v>
       </c>
       <c r="DS13" t="n">
-        <v>0.0007096797344274819</v>
+        <v>0.0003360790433362126</v>
       </c>
       <c r="DT13" t="n">
-        <v>0.0001568903389852494</v>
+        <v>0.0001050753417075612</v>
       </c>
       <c r="DU13" t="n">
-        <v>0.0007188977906480432</v>
+        <v>8.907616575015709e-06</v>
       </c>
       <c r="DV13" t="n">
-        <v>0.000718918745405972</v>
+        <v>6.9841044023633e-06</v>
       </c>
       <c r="DW13" t="n">
-        <v>0.0002111261419486254</v>
+        <v>5.849201261298731e-05</v>
       </c>
       <c r="DX13" t="n">
-        <v>0.0005349296843633056</v>
+        <v>9.597815733286552e-07</v>
       </c>
       <c r="DY13" t="n">
-        <v>5.767115362687036e-05</v>
+        <v>0.0001074261163012125</v>
       </c>
       <c r="DZ13" t="n">
-        <v>0.000330116250552237</v>
+        <v>0.0001100930094253272</v>
       </c>
       <c r="EA13" t="n">
-        <v>0.0006896416307426989</v>
+        <v>0.0001266184990527108</v>
       </c>
       <c r="EB13" t="n">
-        <v>0.0007392706465907395</v>
+        <v>0.0002252018311992288</v>
       </c>
       <c r="EC13" t="n">
-        <v>0.0002389224537182599</v>
+        <v>0.0001334302505711094</v>
       </c>
       <c r="ED13" t="n">
-        <v>0.001521107857115567</v>
+        <v>3.955505235353485e-05</v>
       </c>
       <c r="EE13" t="n">
-        <v>8.109684858936816e-05</v>
+        <v>1.123236870625988e-06</v>
       </c>
       <c r="EF13" t="n">
-        <v>0.001795772928744555</v>
+        <v>0.0001143964618677273</v>
       </c>
       <c r="EG13" t="n">
-        <v>0.001266258535906672</v>
+        <v>0.0001366972719551995</v>
       </c>
       <c r="EH13" t="n">
-        <v>0.001001694821752608</v>
+        <v>2.618363760120701e-05</v>
       </c>
       <c r="EI13" t="n">
-        <v>0.0004219489928800613</v>
+        <v>0.0001204645959660411</v>
       </c>
       <c r="EJ13" t="n">
-        <v>0.00027840695111081</v>
+        <v>9.969400707632303e-05</v>
       </c>
       <c r="EK13" t="n">
-        <v>0.0006228126585483551</v>
+        <v>8.376905498153064e-06</v>
       </c>
       <c r="EL13" t="n">
-        <v>0.0004311920783948153</v>
+        <v>0.0001136694045271724</v>
       </c>
       <c r="EM13" t="n">
-        <v>0.001535355462692678</v>
+        <v>1.239776975126006e-05</v>
       </c>
       <c r="EN13" t="n">
-        <v>0.0005827224813401699</v>
+        <v>4.343495675129816e-05</v>
       </c>
       <c r="EO13" t="n">
-        <v>0.0001071376682375558</v>
+        <v>1.144745692727156e-05</v>
       </c>
       <c r="EP13" t="n">
-        <v>0.001284041325561702</v>
+        <v>6.752795889042318e-05</v>
       </c>
       <c r="EQ13" t="n">
-        <v>0.0002837323409039527</v>
+        <v>0.0001698376581771299</v>
       </c>
       <c r="ER13" t="n">
-        <v>0.0009206471731886268</v>
+        <v>9.237072663381696e-05</v>
       </c>
       <c r="ES13" t="n">
-        <v>0.000161622345331125</v>
+        <v>8.683495252626017e-06</v>
       </c>
       <c r="ET13" t="n">
-        <v>0.001225324114784598</v>
+        <v>0.0002380037331022322</v>
       </c>
       <c r="EU13" t="n">
-        <v>0.0004909684648737311</v>
+        <v>2.547447729739361e-05</v>
       </c>
       <c r="EV13" t="n">
-        <v>0.0003869130741804838</v>
+        <v>0.0001090509686036967</v>
       </c>
       <c r="EW13" t="n">
-        <v>0.00058878178242594</v>
+        <v>2.446310099912807e-05</v>
       </c>
       <c r="EX13" t="n">
-        <v>0.0009978337911888957</v>
+        <v>4.281318979337811e-06</v>
       </c>
       <c r="EY13" t="n">
-        <v>0.0008316899184137583</v>
+        <v>0.0001048463527695276</v>
       </c>
       <c r="EZ13" t="n">
-        <v>0.001075529959052801</v>
+        <v>1.27439043353661e-05</v>
       </c>
       <c r="FA13" t="n">
-        <v>0.0001690614153631032</v>
+        <v>9.777642117114738e-05</v>
       </c>
       <c r="FB13" t="n">
-        <v>0.0002697239979170263</v>
+        <v>7.65781951486133e-05</v>
       </c>
       <c r="FC13" t="n">
-        <v>8.6128173279576e-05</v>
+        <v>0.0001473045849706978</v>
       </c>
       <c r="FD13" t="n">
-        <v>0.0001885607489384711</v>
+        <v>9.587097156327218e-05</v>
       </c>
       <c r="FE13" t="n">
-        <v>0.0007146451389417052</v>
+        <v>5.983915616525337e-05</v>
       </c>
       <c r="FF13" t="n">
-        <v>0.0001645170268602669</v>
+        <v>5.285808583721519e-06</v>
       </c>
       <c r="FG13" t="n">
-        <v>0.001029356615617871</v>
+        <v>3.638419366325252e-05</v>
       </c>
       <c r="FH13" t="n">
-        <v>0.000370295369066298</v>
+        <v>0.0001824507780838758</v>
       </c>
       <c r="FI13" t="n">
-        <v>0.0006578258471563458</v>
+        <v>0.000113660455099307</v>
       </c>
       <c r="FJ13" t="n">
-        <v>0.001457735896110535</v>
+        <v>0.0001952498423634097</v>
       </c>
       <c r="FK13" t="n">
-        <v>0.0005000194068998098</v>
+        <v>4.032172000734136e-05</v>
       </c>
       <c r="FL13" t="n">
-        <v>0.0005134474486112595</v>
+        <v>4.008363976026885e-05</v>
       </c>
       <c r="FM13" t="n">
-        <v>0.0003904891782440245</v>
+        <v>0.0001100383378798142</v>
       </c>
       <c r="FN13" t="n">
-        <v>0.001073176274076104</v>
+        <v>1.723636887618341e-05</v>
       </c>
       <c r="FO13" t="n">
-        <v>0.0007561822421848774</v>
+        <v>9.928636427503079e-05</v>
       </c>
       <c r="FP13" t="n">
-        <v>0.0004917607875540853</v>
+        <v>2.884686909965239e-05</v>
       </c>
       <c r="FQ13" t="n">
-        <v>0.002865418791770935</v>
+        <v>0.0002627001667860895</v>
       </c>
       <c r="FR13" t="n">
-        <v>0.0005547459586523473</v>
+        <v>2.977995973196812e-05</v>
       </c>
       <c r="FS13" t="n">
-        <v>0.0005443490226753056</v>
+        <v>0.0001819324970711023</v>
       </c>
       <c r="FT13" t="n">
-        <v>0.000703530153259635</v>
+        <v>0.0002069782931357622</v>
       </c>
       <c r="FU13" t="n">
-        <v>0.0005027514416724443</v>
+        <v>1.791231625247747e-05</v>
       </c>
       <c r="FV13" t="n">
-        <v>0.0002014390920521691</v>
+        <v>0.0001306483754888177</v>
       </c>
       <c r="FW13" t="n">
-        <v>0.0002094405936077237</v>
+        <v>2.175753616029397e-05</v>
       </c>
       <c r="FX13" t="n">
-        <v>0.0005901106633245945</v>
+        <v>1.487522968091071e-05</v>
       </c>
       <c r="FY13" t="n">
-        <v>0.001060626585967839</v>
+        <v>1.238673576153815e-06</v>
       </c>
       <c r="FZ13" t="n">
-        <v>0.0006240869988687336</v>
+        <v>4.507887297222624e-06</v>
       </c>
       <c r="GA13" t="n">
-        <v>0.0001523342216387391</v>
+        <v>0.000256900122622028</v>
       </c>
       <c r="GB13" t="n">
-        <v>7.329251093324274e-05</v>
+        <v>6.266440323088318e-05</v>
       </c>
       <c r="GC13" t="n">
-        <v>3.654009924503043e-05</v>
+        <v>5.579938078881241e-05</v>
       </c>
       <c r="GD13" t="n">
-        <v>0.001363130286335945</v>
+        <v>0.0002060320548480377</v>
       </c>
       <c r="GE13" t="n">
-        <v>0.0004678908153437078</v>
+        <v>0.0002857010695151985</v>
       </c>
       <c r="GF13" t="n">
-        <v>0.0002966805768664926</v>
+        <v>0.0001512705493951216</v>
       </c>
       <c r="GG13" t="n">
-        <v>0.0005144929746165872</v>
+        <v>2.839876106008887e-05</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.0001719768770271912</v>
+        <v>0.000125910431961529</v>
       </c>
       <c r="B14" t="n">
-        <v>1.539481490908656e-05</v>
+        <v>0.001272230758331716</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0001640602858969942</v>
+        <v>0.0001609665923751891</v>
       </c>
       <c r="D14" t="n">
-        <v>6.030924123479053e-05</v>
+        <v>0.0004192398919258267</v>
       </c>
       <c r="E14" t="n">
-        <v>1.102535043173702e-05</v>
+        <v>0.001462477608583868</v>
       </c>
       <c r="F14" t="n">
-        <v>9.421509275853168e-06</v>
+        <v>0.0003685933188535273</v>
       </c>
       <c r="G14" t="n">
-        <v>3.645250399131328e-05</v>
+        <v>0.0001431512355338782</v>
       </c>
       <c r="H14" t="n">
-        <v>3.704481787281111e-05</v>
+        <v>0.00033618847373873</v>
       </c>
       <c r="I14" t="n">
-        <v>4.427459498401731e-05</v>
+        <v>9.579286415828392e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0001632158091524616</v>
+        <v>0.0002877461956813931</v>
       </c>
       <c r="K14" t="n">
-        <v>1.707995033939369e-05</v>
+        <v>0.001148673356510699</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0001553247420815751</v>
+        <v>0.0002825409173965454</v>
       </c>
       <c r="M14" t="n">
-        <v>3.167664544889703e-05</v>
+        <v>0.0001138535953941755</v>
       </c>
       <c r="N14" t="n">
-        <v>7.816308789188042e-05</v>
+        <v>0.001268102088943124</v>
       </c>
       <c r="O14" t="n">
-        <v>3.411842271816568e-06</v>
+        <v>0.0005276579759083688</v>
       </c>
       <c r="P14" t="n">
-        <v>3.852340887533501e-05</v>
+        <v>0.0001036816975101829</v>
       </c>
       <c r="Q14" t="n">
-        <v>3.922656469512731e-05</v>
+        <v>3.074256528634578e-05</v>
       </c>
       <c r="R14" t="n">
-        <v>5.937992682447657e-05</v>
+        <v>1.242564212589059e-05</v>
       </c>
       <c r="S14" t="n">
-        <v>4.315018941269955e-06</v>
+        <v>5.848981891176663e-05</v>
       </c>
       <c r="T14" t="n">
-        <v>5.612400855170563e-05</v>
+        <v>0.0003215434844605625</v>
       </c>
       <c r="U14" t="n">
-        <v>2.256564130220795e-06</v>
+        <v>0.0001430762786185369</v>
       </c>
       <c r="V14" t="n">
-        <v>3.084586751356255e-06</v>
+        <v>0.0001993664773181081</v>
       </c>
       <c r="W14" t="n">
-        <v>2.130971915903501e-05</v>
+        <v>2.05215546884574e-05</v>
       </c>
       <c r="X14" t="n">
-        <v>6.851752004877198e-06</v>
+        <v>0.0002755048626568168</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.670961632451508e-06</v>
+        <v>6.603657675441355e-05</v>
       </c>
       <c r="Z14" t="n">
-        <v>5.655109271174297e-05</v>
+        <v>6.982984632486477e-05</v>
       </c>
       <c r="AA14" t="n">
-        <v>4.112158421776257e-06</v>
+        <v>7.179880776675418e-05</v>
       </c>
       <c r="AB14" t="n">
-        <v>7.056910362734925e-06</v>
+        <v>2.487635356374085e-05</v>
       </c>
       <c r="AC14" t="n">
-        <v>5.739700100093614e-06</v>
+        <v>0.0001214834774145856</v>
       </c>
       <c r="AD14" t="n">
-        <v>7.264988198585343e-06</v>
+        <v>0.0002829593140631914</v>
       </c>
       <c r="AE14" t="n">
-        <v>1.876034912129398e-05</v>
+        <v>2.452510852890555e-05</v>
       </c>
       <c r="AF14" t="n">
-        <v>2.644357664394192e-06</v>
+        <v>6.010650395182893e-05</v>
       </c>
       <c r="AG14" t="n">
-        <v>2.978272459586151e-05</v>
+        <v>0.0002184914628742263</v>
       </c>
       <c r="AH14" t="n">
-        <v>1.702994268271141e-05</v>
+        <v>0.0002642495092004538</v>
       </c>
       <c r="AI14" t="n">
-        <v>4.249679113854654e-05</v>
+        <v>0.0003367685130797327</v>
       </c>
       <c r="AJ14" t="n">
-        <v>3.297086368547752e-05</v>
+        <v>6.447939085774124e-05</v>
       </c>
       <c r="AK14" t="n">
-        <v>2.00658632820705e-05</v>
+        <v>4.845276271225885e-05</v>
       </c>
       <c r="AL14" t="n">
-        <v>3.85572639061138e-05</v>
+        <v>0.0004561593814287335</v>
       </c>
       <c r="AM14" t="n">
-        <v>1.837708805396687e-05</v>
+        <v>0.0001712326484266669</v>
       </c>
       <c r="AN14" t="n">
-        <v>3.486072819214314e-05</v>
+        <v>1.738513674354181e-05</v>
       </c>
       <c r="AO14" t="n">
-        <v>1.214418261952233e-05</v>
+        <v>1.379141122015426e-05</v>
       </c>
       <c r="AP14" t="n">
-        <v>2.89990784949623e-05</v>
+        <v>0.0001074639149010181</v>
       </c>
       <c r="AQ14" t="n">
-        <v>4.195516339677852e-06</v>
+        <v>6.922104512341321e-05</v>
       </c>
       <c r="AR14" t="n">
-        <v>3.165566795360064e-07</v>
+        <v>0.0001073121748049743</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.127203813666711e-05</v>
+        <v>0.000133438064949587</v>
       </c>
       <c r="AT14" t="n">
-        <v>7.020137854851782e-05</v>
+        <v>0.0002732630528043956</v>
       </c>
       <c r="AU14" t="n">
-        <v>2.865489659598097e-05</v>
+        <v>0.001097593572922051</v>
       </c>
       <c r="AV14" t="n">
-        <v>8.762503421166912e-05</v>
+        <v>1.017580234474735e-05</v>
       </c>
       <c r="AW14" t="n">
-        <v>6.792042768211104e-06</v>
+        <v>3.16994555760175e-05</v>
       </c>
       <c r="AX14" t="n">
-        <v>2.824203647833201e-06</v>
+        <v>0.0001771941606421024</v>
       </c>
       <c r="AY14" t="n">
-        <v>2.237856642750558e-05</v>
+        <v>9.274372132495046e-07</v>
       </c>
       <c r="AZ14" t="n">
-        <v>5.673541636497248e-06</v>
+        <v>0.000146271864650771</v>
       </c>
       <c r="BA14" t="n">
-        <v>4.029163392260671e-05</v>
+        <v>0.0003647804551292211</v>
       </c>
       <c r="BB14" t="n">
-        <v>1.920132945087971e-06</v>
+        <v>0.0003186691028531641</v>
       </c>
       <c r="BC14" t="n">
-        <v>3.870344153256156e-05</v>
+        <v>4.289595744921826e-05</v>
       </c>
       <c r="BD14" t="n">
-        <v>2.398995093244594e-05</v>
+        <v>3.602257129386999e-05</v>
       </c>
       <c r="BE14" t="n">
-        <v>4.882091889157891e-05</v>
+        <v>2.969839260913432e-05</v>
       </c>
       <c r="BF14" t="n">
-        <v>5.66529388379422e-06</v>
+        <v>0.000238589127548039</v>
       </c>
       <c r="BG14" t="n">
-        <v>2.721740202105138e-06</v>
+        <v>0.0009752990445122123</v>
       </c>
       <c r="BH14" t="n">
-        <v>1.426425933459541e-05</v>
+        <v>0.000350321177393198</v>
       </c>
       <c r="BI14" t="n">
-        <v>1.872846223704983e-05</v>
+        <v>0.0002817967033479363</v>
       </c>
       <c r="BJ14" t="n">
-        <v>1.811705442378297e-05</v>
+        <v>0.0001506345288362354</v>
       </c>
       <c r="BK14" t="n">
-        <v>1.830473047448322e-05</v>
+        <v>9.809286711970344e-05</v>
       </c>
       <c r="BL14" t="n">
-        <v>9.355367183161434e-06</v>
+        <v>0.0001759847509674728</v>
       </c>
       <c r="BM14" t="n">
-        <v>1.03966694950941e-05</v>
+        <v>4.480569259612821e-05</v>
       </c>
       <c r="BN14" t="n">
-        <v>3.515888965921476e-05</v>
+        <v>4.374476338853128e-05</v>
       </c>
       <c r="BO14" t="n">
-        <v>1.247635736945085e-05</v>
+        <v>7.420685869874433e-05</v>
       </c>
       <c r="BP14" t="n">
-        <v>5.702227645087987e-05</v>
+        <v>3.233517054468393e-05</v>
       </c>
       <c r="BQ14" t="n">
-        <v>1.1406017392801e-06</v>
+        <v>0.0002686497173272073</v>
       </c>
       <c r="BR14" t="n">
-        <v>1.621815317776054e-05</v>
+        <v>0.00011667818762362</v>
       </c>
       <c r="BS14" t="n">
-        <v>2.325756940990686e-05</v>
+        <v>1.066588083631359e-05</v>
       </c>
       <c r="BT14" t="n">
-        <v>1.740625350521441e-07</v>
+        <v>0.0002006922732107341</v>
       </c>
       <c r="BU14" t="n">
-        <v>5.391786544350907e-05</v>
+        <v>0.0002253083075629547</v>
       </c>
       <c r="BV14" t="n">
-        <v>1.462076033931226e-05</v>
+        <v>0.0007179504609666765</v>
       </c>
       <c r="BW14" t="n">
-        <v>3.920602102880366e-05</v>
+        <v>0.0002300613996339962</v>
       </c>
       <c r="BX14" t="n">
-        <v>5.615815098281018e-05</v>
+        <v>1.506642365711741e-05</v>
       </c>
       <c r="BY14" t="n">
-        <v>6.904582278366433e-06</v>
+        <v>3.084283525822684e-05</v>
       </c>
       <c r="BZ14" t="n">
-        <v>3.92697038478218e-05</v>
+        <v>0.0001961136149475351</v>
       </c>
       <c r="CA14" t="n">
-        <v>5.059929208073299e-06</v>
+        <v>8.746909588808194e-05</v>
       </c>
       <c r="CB14" t="n">
-        <v>8.011449608602561e-06</v>
+        <v>0.000129871943499893</v>
       </c>
       <c r="CC14" t="n">
-        <v>3.252553142374381e-06</v>
+        <v>8.229797094827518e-05</v>
       </c>
       <c r="CD14" t="n">
-        <v>3.2854553865036e-05</v>
+        <v>2.053775097010657e-05</v>
       </c>
       <c r="CE14" t="n">
-        <v>3.554160502972081e-05</v>
+        <v>0.0002163777244277298</v>
       </c>
       <c r="CF14" t="n">
-        <v>3.71755231753923e-05</v>
+        <v>5.364677053876221e-05</v>
       </c>
       <c r="CG14" t="n">
-        <v>1.322944262938108e-05</v>
+        <v>0.0001154562633018941</v>
       </c>
       <c r="CH14" t="n">
-        <v>5.600001259153942e-06</v>
+        <v>0.0001786318025551736</v>
       </c>
       <c r="CI14" t="n">
-        <v>4.521498340182006e-06</v>
+        <v>0.0001199882754008286</v>
       </c>
       <c r="CJ14" t="n">
-        <v>9.851089998846874e-06</v>
+        <v>0.000159548842930235</v>
       </c>
       <c r="CK14" t="n">
-        <v>1.717215309327003e-05</v>
+        <v>1.320613228017464e-05</v>
       </c>
       <c r="CL14" t="n">
-        <v>2.705655106183258e-06</v>
+        <v>4.050535790156573e-05</v>
       </c>
       <c r="CM14" t="n">
-        <v>1.203330793941859e-05</v>
+        <v>0.0001657019311096519</v>
       </c>
       <c r="CN14" t="n">
-        <v>5.770091956946999e-05</v>
+        <v>0.0001070839498424903</v>
       </c>
       <c r="CO14" t="n">
-        <v>1.453349432267714e-05</v>
+        <v>1.13820196929737e-05</v>
       </c>
       <c r="CP14" t="n">
-        <v>6.547314114868641e-06</v>
+        <v>3.638229827629402e-06</v>
       </c>
       <c r="CQ14" t="n">
-        <v>4.018595791421831e-05</v>
+        <v>0.0001965808478416875</v>
       </c>
       <c r="CR14" t="n">
-        <v>1.31399874589988e-05</v>
+        <v>5.007392246625386e-05</v>
       </c>
       <c r="CS14" t="n">
-        <v>5.861607860424556e-06</v>
+        <v>0.0002969976339954883</v>
       </c>
       <c r="CT14" t="n">
-        <v>1.26433837976947e-06</v>
+        <v>0.0002377029450144619</v>
       </c>
       <c r="CU14" t="n">
-        <v>3.17250523949042e-05</v>
+        <v>9.194097947329283e-05</v>
       </c>
       <c r="CV14" t="n">
-        <v>2.759831659204792e-05</v>
+        <v>1.242711732629687e-06</v>
       </c>
       <c r="CW14" t="n">
-        <v>3.123308488284238e-05</v>
+        <v>0.0001569041633047163</v>
       </c>
       <c r="CX14" t="n">
-        <v>3.519679376040585e-05</v>
+        <v>1.269961467187386e-05</v>
       </c>
       <c r="CY14" t="n">
-        <v>7.766976523271296e-06</v>
+        <v>0.0001370622630929574</v>
       </c>
       <c r="CZ14" t="n">
-        <v>1.436112597730244e-05</v>
+        <v>0.0001526195701444522</v>
       </c>
       <c r="DA14" t="n">
-        <v>1.028437282002415e-06</v>
+        <v>0.0001963496615644544</v>
       </c>
       <c r="DB14" t="n">
-        <v>1.092067395802587e-05</v>
+        <v>0.0001269711356144398</v>
       </c>
       <c r="DC14" t="n">
-        <v>8.930902367865201e-06</v>
+        <v>1.526434061815962e-05</v>
       </c>
       <c r="DD14" t="n">
-        <v>5.540873644349631e-06</v>
+        <v>8.59260544530116e-05</v>
       </c>
       <c r="DE14" t="n">
-        <v>1.19660071504768e-05</v>
+        <v>7.846286462154239e-05</v>
       </c>
       <c r="DF14" t="n">
-        <v>7.056267349980772e-05</v>
+        <v>0.0002946341701317579</v>
       </c>
       <c r="DG14" t="n">
-        <v>1.018943112285342e-05</v>
+        <v>8.612021338194609e-05</v>
       </c>
       <c r="DH14" t="n">
-        <v>2.218250665464438e-05</v>
+        <v>0.0003664848918560892</v>
       </c>
       <c r="DI14" t="n">
-        <v>3.247919039495173e-06</v>
+        <v>0.0002613588003441691</v>
       </c>
       <c r="DJ14" t="n">
-        <v>4.603479283105116e-06</v>
+        <v>2.843439506250434e-05</v>
       </c>
       <c r="DK14" t="n">
-        <v>2.64335121755721e-05</v>
+        <v>0.000223042254219763</v>
       </c>
       <c r="DL14" t="n">
-        <v>1.460790372220799e-05</v>
+        <v>0.0001954612816916779</v>
       </c>
       <c r="DM14" t="n">
-        <v>1.223831259267172e-05</v>
+        <v>0.0001680410641711205</v>
       </c>
       <c r="DN14" t="n">
-        <v>6.089725047786487e-06</v>
+        <v>4.186763544566929e-05</v>
       </c>
       <c r="DO14" t="n">
-        <v>3.686990021378733e-05</v>
+        <v>2.281509478052612e-05</v>
       </c>
       <c r="DP14" t="n">
-        <v>1.837952731875703e-05</v>
+        <v>9.023817983688787e-05</v>
       </c>
       <c r="DQ14" t="n">
-        <v>9.077077265828848e-06</v>
+        <v>0.0003753488999791443</v>
       </c>
       <c r="DR14" t="n">
-        <v>7.61668252380332e-06</v>
+        <v>4.768848157254979e-05</v>
       </c>
       <c r="DS14" t="n">
-        <v>1.981925743166357e-05</v>
+        <v>0.0005644774064421654</v>
       </c>
       <c r="DT14" t="n">
-        <v>6.420890713343397e-06</v>
+        <v>6.176367605803534e-05</v>
       </c>
       <c r="DU14" t="n">
-        <v>2.429696542094462e-05</v>
+        <v>5.757037433795631e-05</v>
       </c>
       <c r="DV14" t="n">
-        <v>3.637526970123872e-05</v>
+        <v>5.148552736500278e-05</v>
       </c>
       <c r="DW14" t="n">
-        <v>8.290688128909096e-06</v>
+        <v>1.317620990448631e-05</v>
       </c>
       <c r="DX14" t="n">
-        <v>1.694296588539146e-05</v>
+        <v>1.031744614010677e-05</v>
       </c>
       <c r="DY14" t="n">
-        <v>6.966596629354171e-06</v>
+        <v>4.112820170121267e-05</v>
       </c>
       <c r="DZ14" t="n">
-        <v>1.107585194404237e-05</v>
+        <v>8.083781722234562e-05</v>
       </c>
       <c r="EA14" t="n">
-        <v>1.261877969227498e-05</v>
+        <v>0.0001345797791145742</v>
       </c>
       <c r="EB14" t="n">
-        <v>3.325920260977e-05</v>
+        <v>0.000335894146701321</v>
       </c>
       <c r="EC14" t="n">
-        <v>4.260646164766513e-06</v>
+        <v>0.0001460866333218291</v>
       </c>
       <c r="ED14" t="n">
-        <v>4.319721119827591e-05</v>
+        <v>0.0001494263560744002</v>
       </c>
       <c r="EE14" t="n">
-        <v>9.520473213342484e-06</v>
+        <v>3.376327367732301e-05</v>
       </c>
       <c r="EF14" t="n">
-        <v>5.154814061825164e-05</v>
+        <v>0.000136756629217416</v>
       </c>
       <c r="EG14" t="n">
-        <v>4.191510379314423e-05</v>
+        <v>0.0001873921864898875</v>
       </c>
       <c r="EH14" t="n">
-        <v>3.419115819269791e-05</v>
+        <v>8.463902304356452e-06</v>
       </c>
       <c r="EI14" t="n">
-        <v>1.837737727328204e-05</v>
+        <v>0.0001434573059668764</v>
       </c>
       <c r="EJ14" t="n">
-        <v>1.253507252840791e-05</v>
+        <v>0.0002169950021198019</v>
       </c>
       <c r="EK14" t="n">
-        <v>1.905417411762755e-05</v>
+        <v>2.39320652326569e-05</v>
       </c>
       <c r="EL14" t="n">
-        <v>6.217458121682284e-06</v>
+        <v>0.0001439248881069943</v>
       </c>
       <c r="EM14" t="n">
-        <v>3.046002530027181e-05</v>
+        <v>8.362170774489641e-06</v>
       </c>
       <c r="EN14" t="n">
-        <v>1.656289896345697e-05</v>
+        <v>9.829021291807294e-05</v>
       </c>
       <c r="EO14" t="n">
-        <v>4.328079739934765e-06</v>
+        <v>5.917712041991763e-05</v>
       </c>
       <c r="EP14" t="n">
-        <v>4.341648309491575e-05</v>
+        <v>3.589883999666199e-05</v>
       </c>
       <c r="EQ14" t="n">
-        <v>3.010572072525974e-06</v>
+        <v>0.0001476000907132402</v>
       </c>
       <c r="ER14" t="n">
-        <v>2.253874481539242e-05</v>
+        <v>8.142797014443204e-06</v>
       </c>
       <c r="ES14" t="n">
-        <v>1.553562105982564e-05</v>
+        <v>6.154867151053622e-05</v>
       </c>
       <c r="ET14" t="n">
-        <v>3.978212407673709e-05</v>
+        <v>0.000283614790532738</v>
       </c>
       <c r="EU14" t="n">
-        <v>1.918350608320907e-05</v>
+        <v>5.311657878337428e-05</v>
       </c>
       <c r="EV14" t="n">
-        <v>1.177811827801634e-05</v>
+        <v>9.353778295917436e-05</v>
       </c>
       <c r="EW14" t="n">
-        <v>2.602445783850271e-05</v>
+        <v>7.968770660227165e-06</v>
       </c>
       <c r="EX14" t="n">
-        <v>2.630130438774358e-05</v>
+        <v>2.667877924977802e-05</v>
       </c>
       <c r="EY14" t="n">
-        <v>2.483683238097001e-05</v>
+        <v>0.0001646681193960831</v>
       </c>
       <c r="EZ14" t="n">
-        <v>3.676474443636835e-05</v>
+        <v>4.745188562083058e-05</v>
       </c>
       <c r="FA14" t="n">
-        <v>1.150216667156201e-05</v>
+        <v>0.0001213126670336351</v>
       </c>
       <c r="FB14" t="n">
-        <v>4.147363142692484e-06</v>
+        <v>0.0001297581184189767</v>
       </c>
       <c r="FC14" t="n">
-        <v>2.704869757508277e-06</v>
+        <v>0.0001784527557902038</v>
       </c>
       <c r="FD14" t="n">
-        <v>1.045711360347923e-05</v>
+        <v>0.0001259007840417325</v>
       </c>
       <c r="FE14" t="n">
-        <v>1.158617124019656e-05</v>
+        <v>1.404376234859228e-05</v>
       </c>
       <c r="FF14" t="n">
-        <v>3.951703547500074e-06</v>
+        <v>2.461344411130995e-05</v>
       </c>
       <c r="FG14" t="n">
-        <v>2.619582301122136e-05</v>
+        <v>9.623727237340063e-05</v>
       </c>
       <c r="FH14" t="n">
-        <v>1.166887523140758e-05</v>
+        <v>0.0001415610313415527</v>
       </c>
       <c r="FI14" t="n">
-        <v>2.315886558790226e-05</v>
+        <v>0.0001645202282816172</v>
       </c>
       <c r="FJ14" t="n">
-        <v>3.877083872794174e-05</v>
+        <v>0.0002624462358653545</v>
       </c>
       <c r="FK14" t="n">
-        <v>2.389049950579647e-05</v>
+        <v>4.245624950272031e-06</v>
       </c>
       <c r="FL14" t="n">
-        <v>5.260467332846019e-06</v>
+        <v>2.823724571499042e-05</v>
       </c>
       <c r="FM14" t="n">
-        <v>2.474686152709182e-05</v>
+        <v>8.804276149021462e-06</v>
       </c>
       <c r="FN14" t="n">
-        <v>2.984131606353913e-05</v>
+        <v>7.652553904335946e-06</v>
       </c>
       <c r="FO14" t="n">
-        <v>2.36377636610996e-05</v>
+        <v>0.0001079555950127542</v>
       </c>
       <c r="FP14" t="n">
-        <v>3.261082747485489e-05</v>
+        <v>1.39057265187148e-05</v>
       </c>
       <c r="FQ14" t="n">
-        <v>9.032259549712762e-05</v>
+        <v>0.0004558544897008687</v>
       </c>
       <c r="FR14" t="n">
-        <v>2.74252215604065e-05</v>
+        <v>5.70367556065321e-05</v>
       </c>
       <c r="FS14" t="n">
-        <v>1.152307595475577e-05</v>
+        <v>0.0001488922425778583</v>
       </c>
       <c r="FT14" t="n">
-        <v>8.058906132646371e-06</v>
+        <v>0.0001432624849257991</v>
       </c>
       <c r="FU14" t="n">
-        <v>2.713247158681042e-05</v>
+        <v>8.603688911534846e-05</v>
       </c>
       <c r="FV14" t="n">
-        <v>1.572114342707209e-06</v>
+        <v>0.0001056782057275996</v>
       </c>
       <c r="FW14" t="n">
-        <v>1.165367211797275e-05</v>
+        <v>0.0002135794929927215</v>
       </c>
       <c r="FX14" t="n">
-        <v>2.534542363719083e-05</v>
+        <v>2.137193223461509e-05</v>
       </c>
       <c r="FY14" t="n">
-        <v>2.279449472553097e-05</v>
+        <v>2.070839400403202e-05</v>
       </c>
       <c r="FZ14" t="n">
-        <v>2.914543983933982e-05</v>
+        <v>0.0001869805564638227</v>
       </c>
       <c r="GA14" t="n">
-        <v>1.455191522836685e-10</v>
+        <v>0.0002480068651493639</v>
       </c>
       <c r="GB14" t="n">
-        <v>9.242121450370178e-07</v>
+        <v>5.0194954383187e-05</v>
       </c>
       <c r="GC14" t="n">
-        <v>3.975790605181828e-06</v>
+        <v>8.982249710243195e-06</v>
       </c>
       <c r="GD14" t="n">
-        <v>3.295441274531186e-05</v>
+        <v>0.0002271884877700359</v>
       </c>
       <c r="GE14" t="n">
-        <v>1.155217523773899e-05</v>
+        <v>0.0002260485198348761</v>
       </c>
       <c r="GF14" t="n">
-        <v>2.189350925618783e-05</v>
+        <v>0.0001710909564280882</v>
       </c>
       <c r="GG14" t="n">
-        <v>1.305055138800526e-05</v>
+        <v>1.172891643363982e-06</v>
       </c>
     </row>
     <row r="15">
@@ -8970,571 +8970,571 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.0001473504089517519</v>
+        <v>0.0007514450699090958</v>
       </c>
       <c r="B16" t="n">
-        <v>3.574264337657951e-05</v>
+        <v>0.002360528567805886</v>
       </c>
       <c r="C16" t="n">
-        <v>8.214084664359689e-05</v>
+        <v>0.0006246225093491375</v>
       </c>
       <c r="D16" t="n">
-        <v>5.493056960403919e-05</v>
+        <v>0.0005634762346744537</v>
       </c>
       <c r="E16" t="n">
-        <v>2.904262146330439e-06</v>
+        <v>0.001089205383323133</v>
       </c>
       <c r="F16" t="n">
-        <v>2.247237262054114e-06</v>
+        <v>0.002182751893997192</v>
       </c>
       <c r="G16" t="n">
-        <v>3.827293403446674e-05</v>
+        <v>0.0003292417386546731</v>
       </c>
       <c r="H16" t="n">
-        <v>2.493731699360069e-05</v>
+        <v>0.0004917393089272082</v>
       </c>
       <c r="I16" t="n">
-        <v>3.128715979983099e-05</v>
+        <v>0.0001404701470164582</v>
       </c>
       <c r="J16" t="n">
-        <v>0.000140032687340863</v>
+        <v>0.0004903624067083001</v>
       </c>
       <c r="K16" t="n">
-        <v>2.647033761604689e-05</v>
+        <v>0.001614714507013559</v>
       </c>
       <c r="L16" t="n">
-        <v>9.462638990953565e-05</v>
+        <v>0.0003040237061213702</v>
       </c>
       <c r="M16" t="n">
-        <v>2.824517105182167e-05</v>
+        <v>0.0003041207673959434</v>
       </c>
       <c r="N16" t="n">
-        <v>2.433765439491253e-05</v>
+        <v>0.001104046474210918</v>
       </c>
       <c r="O16" t="n">
-        <v>9.636259164835792e-06</v>
+        <v>0.002304403111338615</v>
       </c>
       <c r="P16" t="n">
-        <v>5.083436190034263e-05</v>
+        <v>0.0004298030398786068</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.697996412985958e-05</v>
+        <v>0.0002689454704523087</v>
       </c>
       <c r="R16" t="n">
-        <v>5.34587015863508e-05</v>
+        <v>1.388367309118621e-05</v>
       </c>
       <c r="S16" t="n">
-        <v>3.027258344445727e-06</v>
+        <v>0.0002602388267405331</v>
       </c>
       <c r="T16" t="n">
-        <v>3.460983134573326e-05</v>
+        <v>0.0004268890479579568</v>
       </c>
       <c r="U16" t="n">
-        <v>5.866931132914033e-06</v>
+        <v>0.0002219926100224257</v>
       </c>
       <c r="V16" t="n">
-        <v>7.173218818934401e-07</v>
+        <v>0.000309052353259176</v>
       </c>
       <c r="W16" t="n">
-        <v>1.406643332302338e-05</v>
+        <v>0.001056633191183209</v>
       </c>
       <c r="X16" t="n">
-        <v>1.484546942265297e-06</v>
+        <v>0.0001034821616485715</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.93005528471258e-07</v>
+        <v>0.0006342313718050718</v>
       </c>
       <c r="Z16" t="n">
-        <v>1.968761898751836e-05</v>
+        <v>0.0002543039154261351</v>
       </c>
       <c r="AA16" t="n">
-        <v>1.247963518835604e-05</v>
+        <v>0.0002508324978407472</v>
       </c>
       <c r="AB16" t="n">
-        <v>2.116476025548764e-07</v>
+        <v>0.0004327317874412984</v>
       </c>
       <c r="AC16" t="n">
-        <v>6.532125553349033e-06</v>
+        <v>0.0008592366357333958</v>
       </c>
       <c r="AD16" t="n">
-        <v>1.399251414113678e-05</v>
+        <v>0.0006841417634859681</v>
       </c>
       <c r="AE16" t="n">
-        <v>1.261110173800262e-05</v>
+        <v>0.0007365352939814329</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.38333443828742e-05</v>
+        <v>4.970601003151387e-05</v>
       </c>
       <c r="AG16" t="n">
-        <v>2.275540055052261e-06</v>
+        <v>0.0004774128319695592</v>
       </c>
       <c r="AH16" t="n">
-        <v>1.44787354656728e-05</v>
+        <v>0.0001386887452099472</v>
       </c>
       <c r="AI16" t="n">
-        <v>2.165357909689192e-05</v>
+        <v>0.0005805112887173891</v>
       </c>
       <c r="AJ16" t="n">
-        <v>2.448227496643085e-05</v>
+        <v>2.496583692845888e-05</v>
       </c>
       <c r="AK16" t="n">
-        <v>2.283339199493639e-05</v>
+        <v>0.0006773836212232709</v>
       </c>
       <c r="AL16" t="n">
-        <v>3.359352194820531e-05</v>
+        <v>0.0001438232720829546</v>
       </c>
       <c r="AM16" t="n">
-        <v>4.172694389126264e-06</v>
+        <v>2.650342503329739e-05</v>
       </c>
       <c r="AN16" t="n">
-        <v>2.830682751664426e-05</v>
+        <v>0.0001608142192708328</v>
       </c>
       <c r="AO16" t="n">
-        <v>9.145393960352521e-06</v>
+        <v>8.953809447120875e-05</v>
       </c>
       <c r="AP16" t="n">
-        <v>9.134421816270333e-06</v>
+        <v>0.0001198830723296851</v>
       </c>
       <c r="AQ16" t="n">
-        <v>2.000158474402269e-07</v>
+        <v>7.735430699540302e-05</v>
       </c>
       <c r="AR16" t="n">
-        <v>1.150404023064766e-05</v>
+        <v>0.0004716043185908347</v>
       </c>
       <c r="AS16" t="n">
-        <v>6.327836672426201e-07</v>
+        <v>0.0001005502927000634</v>
       </c>
       <c r="AT16" t="n">
-        <v>6.324613787000999e-05</v>
+        <v>9.903707541525364e-05</v>
       </c>
       <c r="AU16" t="n">
-        <v>1.458263977838214e-05</v>
+        <v>0.002159163122996688</v>
       </c>
       <c r="AV16" t="n">
-        <v>4.562781396089122e-05</v>
+        <v>0.0002326926041860133</v>
       </c>
       <c r="AW16" t="n">
-        <v>8.149389032041654e-06</v>
+        <v>0.001538637327030301</v>
       </c>
       <c r="AX16" t="n">
-        <v>4.65838638774585e-06</v>
+        <v>0.0002979513083118945</v>
       </c>
       <c r="AY16" t="n">
-        <v>3.382950308150612e-05</v>
+        <v>0.0006434664828702807</v>
       </c>
       <c r="AZ16" t="n">
-        <v>2.489183680154383e-05</v>
+        <v>0.0009126143413595855</v>
       </c>
       <c r="BA16" t="n">
-        <v>3.048841244890355e-05</v>
+        <v>0.0002975556999444962</v>
       </c>
       <c r="BB16" t="n">
-        <v>1.138134393841028e-05</v>
+        <v>0.0001016243259073235</v>
       </c>
       <c r="BC16" t="n">
-        <v>3.799418846028857e-05</v>
+        <v>6.501204916276038e-05</v>
       </c>
       <c r="BD16" t="n">
-        <v>2.634753582242411e-05</v>
+        <v>0.0004506955738179386</v>
       </c>
       <c r="BE16" t="n">
-        <v>3.123907299595885e-05</v>
+        <v>0.0007539672660641372</v>
       </c>
       <c r="BF16" t="n">
-        <v>2.107294221787015e-06</v>
+        <v>0.0005752503057010472</v>
       </c>
       <c r="BG16" t="n">
-        <v>7.519412065448705e-06</v>
+        <v>0.0007788049406372011</v>
       </c>
       <c r="BH16" t="n">
-        <v>1.746829730109312e-05</v>
+        <v>0.001120250206440687</v>
       </c>
       <c r="BI16" t="n">
-        <v>2.762757503660396e-05</v>
+        <v>0.0001692330843070522</v>
       </c>
       <c r="BJ16" t="n">
-        <v>3.314913192298263e-05</v>
+        <v>0.0004489238781388849</v>
       </c>
       <c r="BK16" t="n">
-        <v>1.659083500271663e-05</v>
+        <v>0.0001228094333782792</v>
       </c>
       <c r="BL16" t="n">
-        <v>2.493678766768426e-05</v>
+        <v>0.0003280390228610486</v>
       </c>
       <c r="BM16" t="n">
-        <v>4.830964826396666e-06</v>
+        <v>0.0003565545775927603</v>
       </c>
       <c r="BN16" t="n">
-        <v>1.51421845657751e-05</v>
+        <v>0.0001273289090022445</v>
       </c>
       <c r="BO16" t="n">
-        <v>1.001976897896384e-06</v>
+        <v>0.0002629705704748631</v>
       </c>
       <c r="BP16" t="n">
-        <v>2.905808651121333e-05</v>
+        <v>0.0003326736332383007</v>
       </c>
       <c r="BQ16" t="n">
-        <v>7.340696356550325e-06</v>
+        <v>0.0001258221891475841</v>
       </c>
       <c r="BR16" t="n">
-        <v>6.662842679361347e-06</v>
+        <v>0.0001571472821524367</v>
       </c>
       <c r="BS16" t="n">
-        <v>3.528205070324475e-06</v>
+        <v>0.0001376250147586688</v>
       </c>
       <c r="BT16" t="n">
-        <v>7.522894520661794e-06</v>
+        <v>0.0001994588819798082</v>
       </c>
       <c r="BU16" t="n">
-        <v>5.419331864686683e-05</v>
+        <v>0.0003588999679777771</v>
       </c>
       <c r="BV16" t="n">
-        <v>1.266554681933485e-05</v>
+        <v>0.0006887818453833461</v>
       </c>
       <c r="BW16" t="n">
-        <v>1.662196336837951e-05</v>
+        <v>0.0004150649183429778</v>
       </c>
       <c r="BX16" t="n">
-        <v>3.827617911156267e-05</v>
+        <v>9.170055272988975e-05</v>
       </c>
       <c r="BY16" t="n">
-        <v>1.761160092428327e-05</v>
+        <v>0.0001054466192726977</v>
       </c>
       <c r="BZ16" t="n">
-        <v>4.349994014773984e-06</v>
+        <v>0.0002678096643649042</v>
       </c>
       <c r="CA16" t="n">
-        <v>6.186786777107045e-06</v>
+        <v>0.0001815774012356997</v>
       </c>
       <c r="CB16" t="n">
-        <v>1.84904729394475e-05</v>
+        <v>7.601050310768187e-05</v>
       </c>
       <c r="CC16" t="n">
-        <v>1.429339681635611e-05</v>
+        <v>0.0003058089932892472</v>
       </c>
       <c r="CD16" t="n">
-        <v>3.063464828301221e-05</v>
+        <v>4.059487037011422e-05</v>
       </c>
       <c r="CE16" t="n">
-        <v>2.403038888587616e-05</v>
+        <v>0.0003449546056799591</v>
       </c>
       <c r="CF16" t="n">
-        <v>1.656398490013089e-05</v>
+        <v>5.619967851089314e-05</v>
       </c>
       <c r="CG16" t="n">
-        <v>9.711269740364514e-06</v>
+        <v>0.0001633759384276345</v>
       </c>
       <c r="CH16" t="n">
-        <v>3.383181137905922e-06</v>
+        <v>0.0001053683517966419</v>
       </c>
       <c r="CI16" t="n">
-        <v>6.258718258322915e-06</v>
+        <v>0.0004091931623406708</v>
       </c>
       <c r="CJ16" t="n">
-        <v>3.754706767722382e-06</v>
+        <v>7.155802450142801e-06</v>
       </c>
       <c r="CK16" t="n">
-        <v>6.568077878910117e-06</v>
+        <v>0.0003201286599505693</v>
       </c>
       <c r="CL16" t="n">
-        <v>2.492321300451295e-06</v>
+        <v>1.531248926767148e-05</v>
       </c>
       <c r="CM16" t="n">
-        <v>6.145299721538322e-06</v>
+        <v>0.0005792683223262429</v>
       </c>
       <c r="CN16" t="n">
-        <v>1.953782157215755e-05</v>
+        <v>0.0002798782952595502</v>
       </c>
       <c r="CO16" t="n">
-        <v>9.814260010898579e-06</v>
+        <v>8.860586603987031e-06</v>
       </c>
       <c r="CP16" t="n">
-        <v>6.726349965902045e-07</v>
+        <v>0.000276600185316056</v>
       </c>
       <c r="CQ16" t="n">
-        <v>3.378508336027153e-05</v>
+        <v>0.0005982829607091844</v>
       </c>
       <c r="CR16" t="n">
-        <v>1.099863766285125e-06</v>
+        <v>0.0002586430346127599</v>
       </c>
       <c r="CS16" t="n">
-        <v>3.250935333198868e-05</v>
+        <v>0.000231253681704402</v>
       </c>
       <c r="CT16" t="n">
-        <v>9.819696060731076e-06</v>
+        <v>0.0005265375948511064</v>
       </c>
       <c r="CU16" t="n">
-        <v>8.603004971519113e-06</v>
+        <v>2.880404281313531e-06</v>
       </c>
       <c r="CV16" t="n">
-        <v>3.050307168450672e-05</v>
+        <v>2.913232128776144e-05</v>
       </c>
       <c r="CW16" t="n">
-        <v>1.861936834757216e-05</v>
+        <v>0.0002588022616691887</v>
       </c>
       <c r="CX16" t="n">
-        <v>1.941205482580699e-05</v>
+        <v>6.595728336833417e-05</v>
       </c>
       <c r="CY16" t="n">
-        <v>5.018852334615076e-06</v>
+        <v>7.24763231119141e-05</v>
       </c>
       <c r="CZ16" t="n">
-        <v>1.750527189869899e-05</v>
+        <v>7.351903332164511e-05</v>
       </c>
       <c r="DA16" t="n">
-        <v>4.997595169697888e-06</v>
+        <v>0.0005033847410231829</v>
       </c>
       <c r="DB16" t="n">
-        <v>4.442852514330298e-06</v>
+        <v>0.000133956375066191</v>
       </c>
       <c r="DC16" t="n">
-        <v>3.982309408456786e-06</v>
+        <v>0.0001414860307704657</v>
       </c>
       <c r="DD16" t="n">
-        <v>1.936206217578729e-06</v>
+        <v>1.361245267617051e-05</v>
       </c>
       <c r="DE16" t="n">
-        <v>4.336931851867121e-06</v>
+        <v>0.0001840058394009247</v>
       </c>
       <c r="DF16" t="n">
-        <v>5.181839151191525e-05</v>
+        <v>0.0004353065451141447</v>
       </c>
       <c r="DG16" t="n">
-        <v>1.243042333953781e-05</v>
+        <v>0.0001124633854487911</v>
       </c>
       <c r="DH16" t="n">
-        <v>8.682331099407747e-06</v>
+        <v>0.0004309006326366216</v>
       </c>
       <c r="DI16" t="n">
-        <v>1.263181366084609e-05</v>
+        <v>0.001441798638552427</v>
       </c>
       <c r="DJ16" t="n">
-        <v>1.106720537791261e-05</v>
+        <v>0.001165788504295051</v>
       </c>
       <c r="DK16" t="n">
-        <v>7.614305104652885e-06</v>
+        <v>0.0003279514494352043</v>
       </c>
       <c r="DL16" t="n">
-        <v>8.326211172970943e-06</v>
+        <v>0.001305360696278512</v>
       </c>
       <c r="DM16" t="n">
-        <v>1.405798502673861e-05</v>
+        <v>0.0008538728579878807</v>
       </c>
       <c r="DN16" t="n">
-        <v>3.862458925141254e-06</v>
+        <v>6.205255340319127e-05</v>
       </c>
       <c r="DO16" t="n">
-        <v>3.499450031085871e-05</v>
+        <v>0.0001897555775940418</v>
       </c>
       <c r="DP16" t="n">
-        <v>6.302095243881922e-06</v>
+        <v>0.0001811215915950015</v>
       </c>
       <c r="DQ16" t="n">
-        <v>2.039220134975039e-06</v>
+        <v>0.0008919966639950871</v>
       </c>
       <c r="DR16" t="n">
-        <v>2.044500888587208e-06</v>
+        <v>0.0001851658016676083</v>
       </c>
       <c r="DS16" t="n">
-        <v>2.296596903761383e-06</v>
+        <v>0.0005607794155366719</v>
       </c>
       <c r="DT16" t="n">
-        <v>1.806032378226519e-05</v>
+        <v>0.0001603264827281237</v>
       </c>
       <c r="DU16" t="n">
-        <v>8.197212082450278e-06</v>
+        <v>7.297884440049529e-05</v>
       </c>
       <c r="DV16" t="n">
-        <v>2.779804162855726e-06</v>
+        <v>4.000437184004113e-05</v>
       </c>
       <c r="DW16" t="n">
-        <v>1.271206292585703e-05</v>
+        <v>0.0004421485646162182</v>
       </c>
       <c r="DX16" t="n">
-        <v>1.174697717942763e-05</v>
+        <v>2.597149432403967e-05</v>
       </c>
       <c r="DY16" t="n">
-        <v>4.407151209306903e-06</v>
+        <v>0.0009215433383360505</v>
       </c>
       <c r="DZ16" t="n">
-        <v>9.972339285013732e-06</v>
+        <v>0.0003854109672829509</v>
       </c>
       <c r="EA16" t="n">
-        <v>3.220217695343308e-05</v>
+        <v>0.0004294737882446498</v>
       </c>
       <c r="EB16" t="n">
-        <v>3.643128138719476e-06</v>
+        <v>1.191794581245631e-05</v>
       </c>
       <c r="EC16" t="n">
-        <v>5.277715445117792e-06</v>
+        <v>1.379836976411752e-05</v>
       </c>
       <c r="ED16" t="n">
-        <v>1.644796248001512e-05</v>
+        <v>0.0001178236634586938</v>
       </c>
       <c r="EE16" t="n">
-        <v>4.622495907824486e-06</v>
+        <v>5.154999234946445e-05</v>
       </c>
       <c r="EF16" t="n">
-        <v>4.516111948760226e-05</v>
+        <v>0.0002452242479193956</v>
       </c>
       <c r="EG16" t="n">
-        <v>2.037485683104023e-05</v>
+        <v>0.0004920301144011319</v>
       </c>
       <c r="EH16" t="n">
-        <v>1.578215778863523e-05</v>
+        <v>0.0002311584685230628</v>
       </c>
       <c r="EI16" t="n">
-        <v>1.00497845778591e-05</v>
+        <v>0.0003294980269856751</v>
       </c>
       <c r="EJ16" t="n">
-        <v>6.269371169764781e-06</v>
+        <v>0.0003065640630666167</v>
       </c>
       <c r="EK16" t="n">
-        <v>1.582052391313482e-05</v>
+        <v>0.0001794665440684184</v>
       </c>
       <c r="EL16" t="n">
-        <v>1.15317079689703e-05</v>
+        <v>0.0002378442150074989</v>
       </c>
       <c r="EM16" t="n">
-        <v>9.082591532205697e-06</v>
+        <v>1.003787838271819e-05</v>
       </c>
       <c r="EN16" t="n">
-        <v>1.097687891160604e-05</v>
+        <v>8.448371954727918e-05</v>
       </c>
       <c r="EO16" t="n">
-        <v>3.363591986271786e-06</v>
+        <v>0.0001507571141701192</v>
       </c>
       <c r="EP16" t="n">
-        <v>2.540137938922271e-05</v>
+        <v>9.92420973489061e-05</v>
       </c>
       <c r="EQ16" t="n">
-        <v>9.39116671361262e-06</v>
+        <v>0.0001325387274846435</v>
       </c>
       <c r="ER16" t="n">
-        <v>1.615750443306752e-05</v>
+        <v>0.0001714945246931165</v>
       </c>
       <c r="ES16" t="n">
-        <v>1.312256972596515e-05</v>
+        <v>4.84064657939598e-05</v>
       </c>
       <c r="ET16" t="n">
-        <v>1.097440872399602e-05</v>
+        <v>0.000325822300510481</v>
       </c>
       <c r="EU16" t="n">
-        <v>1.29126783576794e-05</v>
+        <v>0.0007490671705454588</v>
       </c>
       <c r="EV16" t="n">
-        <v>1.033212993206689e-05</v>
+        <v>0.00120644411072135</v>
       </c>
       <c r="EW16" t="n">
-        <v>8.494267603964545e-06</v>
+        <v>0.0006379781407304108</v>
       </c>
       <c r="EX16" t="n">
-        <v>2.92784516204847e-05</v>
+        <v>7.610733155161142e-05</v>
       </c>
       <c r="EY16" t="n">
-        <v>1.607784724910744e-05</v>
+        <v>0.0002150771615561098</v>
       </c>
       <c r="EZ16" t="n">
-        <v>2.035224315477535e-05</v>
+        <v>6.597601168323308e-05</v>
       </c>
       <c r="FA16" t="n">
-        <v>5.759654413850512e-06</v>
+        <v>0.0001797287259250879</v>
       </c>
       <c r="FB16" t="n">
-        <v>7.52672985981917e-06</v>
+        <v>9.124413190875202e-05</v>
       </c>
       <c r="FC16" t="n">
-        <v>4.070126351507497e-07</v>
+        <v>0.0003199436469003558</v>
       </c>
       <c r="FD16" t="n">
-        <v>3.104560619249241e-06</v>
+        <v>9.492282697465271e-05</v>
       </c>
       <c r="FE16" t="n">
-        <v>5.697139386029448e-06</v>
+        <v>0.0001233122893609107</v>
       </c>
       <c r="FF16" t="n">
-        <v>4.663581876229728e-06</v>
+        <v>1.781335777195636e-05</v>
       </c>
       <c r="FG16" t="n">
-        <v>2.453630986565258e-05</v>
+        <v>0.0002039828104898334</v>
       </c>
       <c r="FH16" t="n">
-        <v>1.296999653277453e-05</v>
+        <v>8.497256203554571e-05</v>
       </c>
       <c r="FI16" t="n">
-        <v>1.458457154512871e-05</v>
+        <v>0.0002217336150351912</v>
       </c>
       <c r="FJ16" t="n">
-        <v>1.752659954945557e-05</v>
+        <v>0.0008506809826940298</v>
       </c>
       <c r="FK16" t="n">
-        <v>8.621561391919386e-06</v>
+        <v>3.656372427940369e-05</v>
       </c>
       <c r="FL16" t="n">
-        <v>1.328585312876385e-06</v>
+        <v>0.0005196219426579773</v>
       </c>
       <c r="FM16" t="n">
-        <v>2.555813989602029e-05</v>
+        <v>0.0002625067427288741</v>
       </c>
       <c r="FN16" t="n">
-        <v>3.567474414012395e-05</v>
+        <v>0.0004669301561079919</v>
       </c>
       <c r="FO16" t="n">
-        <v>1.07450396171771e-05</v>
+        <v>0.0008306963718496263</v>
       </c>
       <c r="FP16" t="n">
-        <v>8.027092917473055e-06</v>
+        <v>0.0003849497879855335</v>
       </c>
       <c r="FQ16" t="n">
-        <v>4.987985084881075e-05</v>
+        <v>0.0003444184549152851</v>
       </c>
       <c r="FR16" t="n">
-        <v>3.772238414967433e-06</v>
+        <v>0.001945246593095362</v>
       </c>
       <c r="FS16" t="n">
-        <v>2.912626951001585e-05</v>
+        <v>0.000166723970323801</v>
       </c>
       <c r="FT16" t="n">
-        <v>1.155687277787365e-05</v>
+        <v>8.539843838661909e-05</v>
       </c>
       <c r="FU16" t="n">
-        <v>4.76149216410704e-06</v>
+        <v>0.0005670787650160491</v>
       </c>
       <c r="FV16" t="n">
-        <v>1.113887265091762e-06</v>
+        <v>9.932500688591972e-05</v>
       </c>
       <c r="FW16" t="n">
-        <v>1.723218520055525e-05</v>
+        <v>0.0006922588218003511</v>
       </c>
       <c r="FX16" t="n">
-        <v>1.253116624866379e-05</v>
+        <v>0.0001935465697897598</v>
       </c>
       <c r="FY16" t="n">
-        <v>1.06941533886129e-05</v>
+        <v>0.0001105610208469443</v>
       </c>
       <c r="FZ16" t="n">
-        <v>2.109815250150859e-05</v>
+        <v>4.53572029073257e-05</v>
       </c>
       <c r="GA16" t="n">
-        <v>3.577483767003287e-07</v>
+        <v>0.0002256279985886067</v>
       </c>
       <c r="GB16" t="n">
-        <v>1.395263552694814e-05</v>
+        <v>0.0004448812978807837</v>
       </c>
       <c r="GC16" t="n">
-        <v>2.780099748633802e-06</v>
+        <v>2.480467446730472e-05</v>
       </c>
       <c r="GD16" t="n">
-        <v>1.822309241106268e-05</v>
+        <v>1.480011997045949e-05</v>
       </c>
       <c r="GE16" t="n">
-        <v>6.680971637251787e-06</v>
+        <v>0.0004557003558147699</v>
       </c>
       <c r="GF16" t="n">
-        <v>2.34884355450049e-05</v>
+        <v>0.0004793099651578814</v>
       </c>
       <c r="GG16" t="n">
-        <v>1.122204230341595e-05</v>
+        <v>0.000160210402100347</v>
       </c>
     </row>
     <row r="17">
@@ -10108,571 +10108,571 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.001612913445569575</v>
+        <v>2.401902384008281e-05</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0001740085135679692</v>
+        <v>0.001292182132601738</v>
       </c>
       <c r="C18" t="n">
-        <v>0.001356633147224784</v>
+        <v>0.0001702952577034011</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0005744305672124028</v>
+        <v>0.0004728451312985271</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0005378850037232041</v>
+        <v>0.0006064593326300383</v>
       </c>
       <c r="F18" t="n">
-        <v>6.581936031579971e-05</v>
+        <v>0.0006038479623384774</v>
       </c>
       <c r="G18" t="n">
-        <v>0.000302665081107989</v>
+        <v>0.0001039950366248377</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0001386771909892559</v>
+        <v>0.0004463295626919717</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0004483531811274588</v>
+        <v>2.824783587129787e-05</v>
       </c>
       <c r="J18" t="n">
-        <v>0.001697977189905941</v>
+        <v>2.33800892601721e-06</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0001613580679986626</v>
+        <v>0.001060291077010334</v>
       </c>
       <c r="L18" t="n">
-        <v>0.001430263742804527</v>
+        <v>7.576533243991435e-05</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0002710657427087426</v>
+        <v>0.0002201384049840271</v>
       </c>
       <c r="N18" t="n">
-        <v>5.519059777725488e-05</v>
+        <v>0.0004065883404109627</v>
       </c>
       <c r="O18" t="n">
-        <v>9.055117698153481e-05</v>
+        <v>0.0005684426869265735</v>
       </c>
       <c r="P18" t="n">
-        <v>0.0003365872253198177</v>
+        <v>8.606187475379556e-05</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.0001667143078520894</v>
+        <v>3.659639332909137e-05</v>
       </c>
       <c r="R18" t="n">
-        <v>0.0006899910513311625</v>
+        <v>3.861586446873844e-05</v>
       </c>
       <c r="S18" t="n">
-        <v>0.0001850905682658777</v>
+        <v>2.20948950300226e-05</v>
       </c>
       <c r="T18" t="n">
-        <v>0.0004560319648589939</v>
+        <v>0.0001829843677114695</v>
       </c>
       <c r="U18" t="n">
-        <v>5.540645361179486e-05</v>
+        <v>2.068440335278865e-05</v>
       </c>
       <c r="V18" t="n">
-        <v>0.0001410796685377136</v>
+        <v>0.0001934777392307296</v>
       </c>
       <c r="W18" t="n">
-        <v>0.0001805456122383475</v>
+        <v>0.0002033064956776798</v>
       </c>
       <c r="X18" t="n">
-        <v>0.0001253292866749689</v>
+        <v>3.158739855280146e-05</v>
       </c>
       <c r="Y18" t="n">
-        <v>7.152266334742308e-08</v>
+        <v>8.661518222652376e-05</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.0002433023182675242</v>
+        <v>0.0001776830613380298</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.0001044063246808946</v>
+        <v>0.0001040411661961116</v>
       </c>
       <c r="AB18" t="n">
-        <v>1.064088064595126e-05</v>
+        <v>6.142297206679359e-05</v>
       </c>
       <c r="AC18" t="n">
-        <v>2.338476770091802e-05</v>
+        <v>0.000116024435556028</v>
       </c>
       <c r="AD18" t="n">
-        <v>4.66209021396935e-05</v>
+        <v>3.171160642523319e-05</v>
       </c>
       <c r="AE18" t="n">
-        <v>3.391353675397113e-05</v>
+        <v>7.934310269774869e-05</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.0002153790992451832</v>
+        <v>3.364289295859635e-05</v>
       </c>
       <c r="AG18" t="n">
-        <v>1.516541215096368e-05</v>
+        <v>1.198097743326798e-05</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.0001386003859806806</v>
+        <v>0.0001350525999441743</v>
       </c>
       <c r="AI18" t="n">
-        <v>0.0003868298081215471</v>
+        <v>9.200136264553294e-05</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0.000260534550761804</v>
+        <v>4.781326060765423e-05</v>
       </c>
       <c r="AK18" t="n">
-        <v>0.0003245866973884404</v>
+        <v>0.0001453262229915708</v>
       </c>
       <c r="AL18" t="n">
-        <v>0.0005611777887679636</v>
+        <v>0.0002590632648207247</v>
       </c>
       <c r="AM18" t="n">
-        <v>0.0001148849987657741</v>
+        <v>3.043370816158131e-05</v>
       </c>
       <c r="AN18" t="n">
-        <v>0.0003435801481828094</v>
+        <v>9.051358210854232e-05</v>
       </c>
       <c r="AO18" t="n">
-        <v>0.0001145585702033713</v>
+        <v>2.858344123524148e-05</v>
       </c>
       <c r="AP18" t="n">
-        <v>0.0001173488635686226</v>
+        <v>0.0002087113389279693</v>
       </c>
       <c r="AQ18" t="n">
-        <v>4.121351594221778e-05</v>
+        <v>2.504057192709297e-06</v>
       </c>
       <c r="AR18" t="n">
-        <v>0.0001196118100779131</v>
+        <v>0.0001404272043146193</v>
       </c>
       <c r="AS18" t="n">
-        <v>4.203768185107037e-06</v>
+        <v>0.0001039271301124245</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.0006086359499022365</v>
+        <v>5.120538844494149e-05</v>
       </c>
       <c r="AU18" t="n">
-        <v>0.0005884907441213727</v>
+        <v>0.0009676952031441033</v>
       </c>
       <c r="AV18" t="n">
-        <v>0.0007981109665706754</v>
+        <v>3.582851059036329e-05</v>
       </c>
       <c r="AW18" t="n">
-        <v>0.0002513511863071471</v>
+        <v>7.603933045174927e-05</v>
       </c>
       <c r="AX18" t="n">
-        <v>0.0001734743418637663</v>
+        <v>0.0001108209398807958</v>
       </c>
       <c r="AY18" t="n">
-        <v>0.0003875457623507828</v>
+        <v>0.0002443601551931351</v>
       </c>
       <c r="AZ18" t="n">
-        <v>0.0002010827302001417</v>
+        <v>6.854912498965859e-05</v>
       </c>
       <c r="BA18" t="n">
-        <v>0.0002343719970667735</v>
+        <v>0.0002873443881981075</v>
       </c>
       <c r="BB18" t="n">
-        <v>0.000134944639285095</v>
+        <v>3.763920176425017e-05</v>
       </c>
       <c r="BC18" t="n">
-        <v>0.0002857661456800997</v>
+        <v>1.051310391630977e-05</v>
       </c>
       <c r="BD18" t="n">
-        <v>5.888488158234395e-05</v>
+        <v>0.0001333767140749842</v>
       </c>
       <c r="BE18" t="n">
-        <v>0.0003767751913983375</v>
+        <v>0.0001511079026386142</v>
       </c>
       <c r="BF18" t="n">
-        <v>5.567188782151788e-05</v>
+        <v>8.139506098814309e-05</v>
       </c>
       <c r="BG18" t="n">
-        <v>0.0003305324935354292</v>
+        <v>0.00039811892202124</v>
       </c>
       <c r="BH18" t="n">
-        <v>0.0002687495434656739</v>
+        <v>0.0001819919270928949</v>
       </c>
       <c r="BI18" t="n">
-        <v>0.0003343051648698747</v>
+        <v>0.0001643328578211367</v>
       </c>
       <c r="BJ18" t="n">
-        <v>0.0004312550590839237</v>
+        <v>0.0001541830861242488</v>
       </c>
       <c r="BK18" t="n">
-        <v>0.0001902639342006296</v>
+        <v>4.116206400794908e-05</v>
       </c>
       <c r="BL18" t="n">
-        <v>0.0001948971766978502</v>
+        <v>0.0001634694781387225</v>
       </c>
       <c r="BM18" t="n">
-        <v>0.0002814130275510252</v>
+        <v>0.0002378343779128045</v>
       </c>
       <c r="BN18" t="n">
-        <v>0.0002523267758078873</v>
+        <v>7.044597441563383e-05</v>
       </c>
       <c r="BO18" t="n">
-        <v>0.0001288454659515992</v>
+        <v>6.079109880374745e-05</v>
       </c>
       <c r="BP18" t="n">
-        <v>0.0004181319673079997</v>
+        <v>3.490727249300107e-05</v>
       </c>
       <c r="BQ18" t="n">
-        <v>0.0001771911629475653</v>
+        <v>0.0001171592812170275</v>
       </c>
       <c r="BR18" t="n">
-        <v>4.033830919070169e-06</v>
+        <v>4.89417725475505e-05</v>
       </c>
       <c r="BS18" t="n">
-        <v>0.0002224619092885405</v>
+        <v>7.244066364364699e-05</v>
       </c>
       <c r="BT18" t="n">
-        <v>4.691353751695715e-05</v>
+        <v>0.0001131908647948876</v>
       </c>
       <c r="BU18" t="n">
-        <v>0.0006664924439974129</v>
+        <v>9.695176413515583e-05</v>
       </c>
       <c r="BV18" t="n">
-        <v>0.0002323522930964828</v>
+        <v>0.0005903651472181082</v>
       </c>
       <c r="BW18" t="n">
-        <v>0.000354630989022553</v>
+        <v>0.0002287314127897844</v>
       </c>
       <c r="BX18" t="n">
-        <v>0.0004816753789782524</v>
+        <v>2.741377102211118e-05</v>
       </c>
       <c r="BY18" t="n">
-        <v>0.0002116768737323582</v>
+        <v>8.807668200461194e-05</v>
       </c>
       <c r="BZ18" t="n">
-        <v>8.134655945468694e-05</v>
+        <v>9.682691597845405e-06</v>
       </c>
       <c r="CA18" t="n">
-        <v>0.0001464108936488628</v>
+        <v>3.714732156367972e-05</v>
       </c>
       <c r="CB18" t="n">
-        <v>9.021327423397452e-05</v>
+        <v>8.63572204252705e-05</v>
       </c>
       <c r="CC18" t="n">
-        <v>0.0001346580538665876</v>
+        <v>4.779983282787725e-05</v>
       </c>
       <c r="CD18" t="n">
-        <v>0.0003400507266633213</v>
+        <v>2.267898162244819e-05</v>
       </c>
       <c r="CE18" t="n">
-        <v>0.0003879057185258716</v>
+        <v>0.0001908259000629187</v>
       </c>
       <c r="CF18" t="n">
-        <v>0.0002466940495651215</v>
+        <v>5.406359196058474e-05</v>
       </c>
       <c r="CG18" t="n">
-        <v>4.772621468873695e-05</v>
+        <v>9.124888310907409e-05</v>
       </c>
       <c r="CH18" t="n">
-        <v>4.817123772227205e-05</v>
+        <v>2.819038127199747e-05</v>
       </c>
       <c r="CI18" t="n">
-        <v>7.243444269988686e-05</v>
+        <v>0.0001025857636705041</v>
       </c>
       <c r="CJ18" t="n">
-        <v>5.437921936390921e-05</v>
+        <v>8.658706065034494e-05</v>
       </c>
       <c r="CK18" t="n">
-        <v>0.0001110510202124715</v>
+        <v>9.126461372943595e-05</v>
       </c>
       <c r="CL18" t="n">
-        <v>4.394416100694798e-05</v>
+        <v>5.516297096619383e-05</v>
       </c>
       <c r="CM18" t="n">
-        <v>6.941194442333654e-06</v>
+        <v>0.0001486252440372482</v>
       </c>
       <c r="CN18" t="n">
-        <v>8.630477532278746e-05</v>
+        <v>0.0001030690764309838</v>
       </c>
       <c r="CO18" t="n">
-        <v>8.948375761974603e-05</v>
+        <v>8.997063559945673e-06</v>
       </c>
       <c r="CP18" t="n">
-        <v>1.971510573639534e-05</v>
+        <v>0.0001491573348175734</v>
       </c>
       <c r="CQ18" t="n">
-        <v>0.0002172457461711019</v>
+        <v>0.0001882305659819394</v>
       </c>
       <c r="CR18" t="n">
-        <v>2.362712984904647e-05</v>
+        <v>0.0001346874487353489</v>
       </c>
       <c r="CS18" t="n">
-        <v>0.0001484025560785085</v>
+        <v>0.0002324900269741192</v>
       </c>
       <c r="CT18" t="n">
-        <v>4.517719935392961e-05</v>
+        <v>0.0001643505675019696</v>
       </c>
       <c r="CU18" t="n">
-        <v>0.0001841543125919998</v>
+        <v>6.036903141648509e-05</v>
       </c>
       <c r="CV18" t="n">
-        <v>0.0003158769686706364</v>
+        <v>2.96670405077748e-05</v>
       </c>
       <c r="CW18" t="n">
-        <v>0.0003793047799263149</v>
+        <v>0.0001674085797276348</v>
       </c>
       <c r="CX18" t="n">
-        <v>0.0002780722570605576</v>
+        <v>7.137400098145008e-05</v>
       </c>
       <c r="CY18" t="n">
-        <v>1.329016413365025e-05</v>
+        <v>0.0001383216003887355</v>
       </c>
       <c r="CZ18" t="n">
-        <v>0.0002397435164311901</v>
+        <v>1.770955350366421e-05</v>
       </c>
       <c r="DA18" t="n">
-        <v>6.789888720959425e-05</v>
+        <v>0.0001662572467466816</v>
       </c>
       <c r="DB18" t="n">
-        <v>6.685200787615031e-05</v>
+        <v>7.283958257175982e-05</v>
       </c>
       <c r="DC18" t="n">
-        <v>7.551606540801004e-05</v>
+        <v>0.0001127259893110022</v>
       </c>
       <c r="DD18" t="n">
-        <v>2.3938786398503e-05</v>
+        <v>1.822271951823495e-05</v>
       </c>
       <c r="DE18" t="n">
-        <v>3.062639734707773e-05</v>
+        <v>4.797969450009987e-05</v>
       </c>
       <c r="DF18" t="n">
-        <v>0.0007780297892168164</v>
+        <v>0.0001265328755835071</v>
       </c>
       <c r="DG18" t="n">
-        <v>0.0003343016724102199</v>
+        <v>4.386381260701455e-05</v>
       </c>
       <c r="DH18" t="n">
-        <v>0.0001310410443693399</v>
+        <v>0.0004951834562234581</v>
       </c>
       <c r="DI18" t="n">
-        <v>0.0001518892095191404</v>
+        <v>9.46257496252656e-05</v>
       </c>
       <c r="DJ18" t="n">
-        <v>0.0001408074458595365</v>
+        <v>7.512947195209563e-05</v>
       </c>
       <c r="DK18" t="n">
-        <v>1.545610757602844e-05</v>
+        <v>0.0001642851275391877</v>
       </c>
       <c r="DL18" t="n">
-        <v>0.0001487075060140342</v>
+        <v>9.402209980180487e-05</v>
       </c>
       <c r="DM18" t="n">
-        <v>0.0001891332067316398</v>
+        <v>0.0001270927459700033</v>
       </c>
       <c r="DN18" t="n">
-        <v>3.392755388631485e-05</v>
+        <v>5.229611997492611e-05</v>
       </c>
       <c r="DO18" t="n">
-        <v>0.0003708851290866733</v>
+        <v>0.0001047901387210004</v>
       </c>
       <c r="DP18" t="n">
-        <v>8.939837243815418e-06</v>
+        <v>5.366470577428117e-05</v>
       </c>
       <c r="DQ18" t="n">
-        <v>6.92914763931185e-05</v>
+        <v>5.363857781048864e-06</v>
       </c>
       <c r="DR18" t="n">
-        <v>0.0001848389947554097</v>
+        <v>4.053507655044086e-05</v>
       </c>
       <c r="DS18" t="n">
-        <v>1.704454916762188e-05</v>
+        <v>0.0001817310258047655</v>
       </c>
       <c r="DT18" t="n">
-        <v>0.0001679035922279581</v>
+        <v>0.0001189072427223437</v>
       </c>
       <c r="DU18" t="n">
-        <v>5.744575901189819e-05</v>
+        <v>2.385421430517454e-05</v>
       </c>
       <c r="DV18" t="n">
-        <v>2.826066338457167e-05</v>
+        <v>4.30831678386312e-05</v>
       </c>
       <c r="DW18" t="n">
-        <v>8.915762009564787e-05</v>
+        <v>6.169421249069273e-05</v>
       </c>
       <c r="DX18" t="n">
-        <v>9.031291119754314e-05</v>
+        <v>5.036174115957692e-05</v>
       </c>
       <c r="DY18" t="n">
-        <v>1.100297959055752e-05</v>
+        <v>0.0001706808543531224</v>
       </c>
       <c r="DZ18" t="n">
-        <v>0.0001303665048908442</v>
+        <v>1.192283889395185e-05</v>
       </c>
       <c r="EA18" t="n">
-        <v>0.0003820777928922325</v>
+        <v>5.78511826461181e-05</v>
       </c>
       <c r="EB18" t="n">
-        <v>4.132157118874602e-05</v>
+        <v>8.963925938587636e-05</v>
       </c>
       <c r="EC18" t="n">
-        <v>0.0001197739111375995</v>
+        <v>1.277738192584366e-06</v>
       </c>
       <c r="ED18" t="n">
-        <v>0.0003888640203513205</v>
+        <v>2.095452873618342e-05</v>
       </c>
       <c r="EE18" t="n">
-        <v>4.200515468255617e-05</v>
+        <v>6.058268263586797e-05</v>
       </c>
       <c r="EF18" t="n">
-        <v>0.0005335886962711811</v>
+        <v>7.117410132195801e-05</v>
       </c>
       <c r="EG18" t="n">
-        <v>0.0003107368247583508</v>
+        <v>0.0001905192766571417</v>
       </c>
       <c r="EH18" t="n">
-        <v>0.0002508290926925838</v>
+        <v>8.764947415329516e-05</v>
       </c>
       <c r="EI18" t="n">
-        <v>1.172626434708945e-05</v>
+        <v>2.79797641269397e-05</v>
       </c>
       <c r="EJ18" t="n">
-        <v>5.419060471467674e-06</v>
+        <v>0.0001748501672409475</v>
       </c>
       <c r="EK18" t="n">
-        <v>0.0002275327715324238</v>
+        <v>6.538575689774007e-05</v>
       </c>
       <c r="EL18" t="n">
-        <v>0.0001215576194226742</v>
+        <v>8.549439371563494e-05</v>
       </c>
       <c r="EM18" t="n">
-        <v>0.0003456828708294779</v>
+        <v>4.36566406278871e-05</v>
       </c>
       <c r="EN18" t="n">
-        <v>0.000136212314828299</v>
+        <v>3.506553184706718e-06</v>
       </c>
       <c r="EO18" t="n">
-        <v>2.564002170402091e-05</v>
+        <v>1.20778895507101e-06</v>
       </c>
       <c r="EP18" t="n">
-        <v>0.0005327202379703522</v>
+        <v>0.0001031684805639088</v>
       </c>
       <c r="EQ18" t="n">
-        <v>0.0001441148342564702</v>
+        <v>0.0001265140308532864</v>
       </c>
       <c r="ER18" t="n">
-        <v>0.0001606567820999771</v>
+        <v>0.0001404064532835037</v>
       </c>
       <c r="ES18" t="n">
-        <v>9.134896390605718e-05</v>
+        <v>7.164194539655e-05</v>
       </c>
       <c r="ET18" t="n">
-        <v>0.0002551272918935865</v>
+        <v>0.0001752158277668059</v>
       </c>
       <c r="EU18" t="n">
-        <v>0.0002257480809930712</v>
+        <v>6.97245413903147e-05</v>
       </c>
       <c r="EV18" t="n">
-        <v>5.467501614475623e-05</v>
+        <v>0.0002414837945252657</v>
       </c>
       <c r="EW18" t="n">
-        <v>0.0001414022990502417</v>
+        <v>4.607180380844511e-05</v>
       </c>
       <c r="EX18" t="n">
-        <v>0.0003101468319073319</v>
+        <v>1.760348459356464e-05</v>
       </c>
       <c r="EY18" t="n">
-        <v>0.0003214533790014684</v>
+        <v>0.0001485464163124561</v>
       </c>
       <c r="EZ18" t="n">
-        <v>0.0002799407229758799</v>
+        <v>4.204396100249141e-05</v>
       </c>
       <c r="FA18" t="n">
-        <v>8.259332389570773e-06</v>
+        <v>0.0001104671246139333</v>
       </c>
       <c r="FB18" t="n">
-        <v>0.0001464141096221283</v>
+        <v>1.491816647103406e-06</v>
       </c>
       <c r="FC18" t="n">
-        <v>4.310619260650128e-06</v>
+        <v>0.0001160175088443793</v>
       </c>
       <c r="FD18" t="n">
-        <v>4.43320459453389e-05</v>
+        <v>0.0001090904988814145</v>
       </c>
       <c r="FE18" t="n">
-        <v>0.0001480463251937181</v>
+        <v>9.569751273375005e-05</v>
       </c>
       <c r="FF18" t="n">
-        <v>6.373909855028614e-05</v>
+        <v>5.97088728682138e-05</v>
       </c>
       <c r="FG18" t="n">
-        <v>0.0003047066566068679</v>
+        <v>4.436466406332329e-05</v>
       </c>
       <c r="FH18" t="n">
-        <v>0.0001691590441623703</v>
+        <v>6.898602441651747e-05</v>
       </c>
       <c r="FI18" t="n">
-        <v>0.0001990687451325357</v>
+        <v>0.0001606604200787842</v>
       </c>
       <c r="FJ18" t="n">
-        <v>0.0003952329861931503</v>
+        <v>0.0002200083545176312</v>
       </c>
       <c r="FK18" t="n">
-        <v>9.423420124221593e-05</v>
+        <v>4.03248704969883e-05</v>
       </c>
       <c r="FL18" t="n">
-        <v>0.0002063125430140644</v>
+        <v>2.177744318032637e-05</v>
       </c>
       <c r="FM18" t="n">
-        <v>0.0001316635898547247</v>
+        <v>1.951966623892076e-05</v>
       </c>
       <c r="FN18" t="n">
-        <v>0.0002633295662235469</v>
+        <v>9.476990817347541e-05</v>
       </c>
       <c r="FO18" t="n">
-        <v>0.0001146482973126695</v>
+        <v>0.0001026115933200344</v>
       </c>
       <c r="FP18" t="n">
-        <v>3.965866926591843e-05</v>
+        <v>4.358415026217699e-05</v>
       </c>
       <c r="FQ18" t="n">
-        <v>0.0007428348762914538</v>
+        <v>0.0002382879029028118</v>
       </c>
       <c r="FR18" t="n">
-        <v>7.706397445872426e-05</v>
+        <v>0.0001105892879422754</v>
       </c>
       <c r="FS18" t="n">
-        <v>0.0002635582350194454</v>
+        <v>0.0001777086581569165</v>
       </c>
       <c r="FT18" t="n">
-        <v>0.0001662851427681744</v>
+        <v>0.0001700008288025856</v>
       </c>
       <c r="FU18" t="n">
-        <v>3.177949474775232e-05</v>
+        <v>9.991059414460324e-06</v>
       </c>
       <c r="FV18" t="n">
-        <v>3.29340182361193e-05</v>
+        <v>9.985364158637822e-05</v>
       </c>
       <c r="FW18" t="n">
-        <v>0.0002617628197185695</v>
+        <v>3.304829078842886e-06</v>
       </c>
       <c r="FX18" t="n">
-        <v>8.374926255783066e-05</v>
+        <v>4.197063390165567e-05</v>
       </c>
       <c r="FY18" t="n">
-        <v>0.0002368099667364731</v>
+        <v>0.0001631668274058029</v>
       </c>
       <c r="FZ18" t="n">
-        <v>2.008606497838628e-05</v>
+        <v>5.311920176609419e-05</v>
       </c>
       <c r="GA18" t="n">
-        <v>2.481952469679527e-05</v>
+        <v>4.177528171567246e-05</v>
       </c>
       <c r="GB18" t="n">
-        <v>0.0001412604033248499</v>
+        <v>8.274841820821166e-05</v>
       </c>
       <c r="GC18" t="n">
-        <v>0.0001881761563709006</v>
+        <v>5.152887024451047e-05</v>
       </c>
       <c r="GD18" t="n">
-        <v>0.0002574682584963739</v>
+        <v>0.0001364487980026752</v>
       </c>
       <c r="GE18" t="n">
-        <v>0.0001577593648107722</v>
+        <v>0.0004123153048567474</v>
       </c>
       <c r="GF18" t="n">
-        <v>9.967722871806473e-05</v>
+        <v>6.681570084765553e-06</v>
       </c>
       <c r="GG18" t="n">
-        <v>1.401822191837709e-05</v>
+        <v>5.037586743128486e-05</v>
       </c>
     </row>
   </sheetData>
